--- a/3ekonom/init_data.xlsx
+++ b/3ekonom/init_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreyA\Desktop\Сессия\DIPLOM\3ekonom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1358D525-E9BE-4AA2-99DD-A9C5E68EAD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31238EDC-67E4-4902-967F-6403091126C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="129">
   <si>
     <t>8. Время в наряде, ч</t>
   </si>
@@ -131,25 +131,7 @@
     <t>13. Стоимость оборудования, млн. руб.</t>
   </si>
   <si>
-    <t>14.  Стоимость мебели, руб.</t>
-  </si>
-  <si>
-    <t>15.  Стоимость оргтехники, тыс. руб.</t>
-  </si>
-  <si>
     <t>16.  Стоимость зданий, млн. руб.</t>
-  </si>
-  <si>
-    <t>17.  Цена одного комплекта спецодежды, руб.</t>
-  </si>
-  <si>
-    <t>19.  Среднесуточное время освещения, час.</t>
-  </si>
-  <si>
-    <t>20. Мощность всех силовых приемников, кВт</t>
-  </si>
-  <si>
-    <t>21. Годовое количество часов использования силовой нагрузки, Тсил, час</t>
   </si>
   <si>
     <t>25. Количество постов (из расчетов курсовой работы по дисциплине ПТИ)</t>
@@ -243,32 +225,6 @@
   </si>
   <si>
     <r>
-      <t>18. Норма расхода воды на мойку 1 м</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> пола, л</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>22. Коэффициент одновременной загрузки всех силовых приемников, К</t>
     </r>
     <r>
@@ -574,12 +530,6 @@
     <t>39.Площадь мойки</t>
   </si>
   <si>
-    <t>40. Длинна мойки</t>
-  </si>
-  <si>
-    <t>41. Ширина мойки</t>
-  </si>
-  <si>
     <t xml:space="preserve">42. Количество ТО-1 </t>
   </si>
   <si>
@@ -633,6 +583,38 @@
   </si>
   <si>
     <t>380;ГАЗон Next</t>
+  </si>
+  <si>
+    <t>17. Стоимость одного ТО</t>
+  </si>
+  <si>
+    <t>18. Cтоимость ТР на 1000км</t>
+  </si>
+  <si>
+    <t>14. Количество автомобилей</t>
+  </si>
+  <si>
+    <t>15. Пробег автомобилей до реконструкции</t>
+  </si>
+  <si>
+    <t>До реконструкции</t>
+  </si>
+  <si>
+    <t>19.  Трудоемкость ТО-1 до реконструкции</t>
+  </si>
+  <si>
+    <t>20. Трудоемкость ТО-2 до реконструкции</t>
+  </si>
+  <si>
+    <t>21.Трудоемкость ТР до реконструкции</t>
+  </si>
+  <si>
+    <t>40. Количество ТО-1 
+до реконструкции</t>
+  </si>
+  <si>
+    <t>41. Количество ТО-2 
+до реконструкции</t>
   </si>
 </sst>
 </file>
@@ -710,7 +692,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,12 +708,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -915,16 +891,8 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -936,31 +904,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,8 +950,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1358,309 +1326,310 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203DCF23-392B-4C9C-ABDB-4F797DD7D9FE}">
   <dimension ref="A1:AY39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT12" sqref="AT12"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="10.77734375" style="50"/>
-    <col min="14" max="14" width="10.77734375" style="50"/>
-    <col min="18" max="32" width="10.77734375" style="50"/>
-    <col min="33" max="33" width="22.88671875" style="50" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="10.77734375" style="46"/>
+    <col min="14" max="15" width="10.77734375" style="46"/>
+    <col min="16" max="16" width="12.21875" style="46" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="10.77734375" style="46"/>
+    <col min="26" max="32" width="10.77734375" style="46"/>
+    <col min="33" max="33" width="22.88671875" style="46" customWidth="1"/>
     <col min="34" max="34" width="26.109375" customWidth="1"/>
-    <col min="35" max="35" width="10.77734375" style="50"/>
+    <col min="35" max="35" width="10.77734375" style="46"/>
     <col min="36" max="36" width="20.33203125" customWidth="1"/>
-    <col min="37" max="37" width="11.88671875" style="50" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="10.77734375" style="50"/>
-    <col min="41" max="42" width="10.77734375" style="37"/>
-    <col min="43" max="44" width="10.77734375" style="50"/>
-    <col min="46" max="46" width="12.21875" style="50" customWidth="1"/>
+    <col min="37" max="37" width="11.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="10.77734375" style="46"/>
+    <col min="41" max="44" width="10.77734375" style="46"/>
+    <col min="46" max="46" width="12.21875" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" s="3" customFormat="1" ht="147.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="47" t="s">
+      <c r="AB1" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD1" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE1" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" s="47" t="s">
+      <c r="AH1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="47" t="s">
+      <c r="AI1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD1" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF1" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG1" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI1" s="48" t="s">
-        <v>18</v>
-      </c>
       <c r="AJ1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK1" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK1" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL1" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="AL1" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM1" s="47" t="s">
-        <v>106</v>
+      <c r="AM1" s="43" t="s">
+        <v>99</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO1" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP1" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ1" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO1" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP1" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ1" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR1" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT1" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AR1" s="47" t="s">
+      <c r="AV1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="AT1" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:51" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="40">
         <v>7499.4</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="40">
         <v>1403.46</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="40">
         <v>1445.04</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="40">
         <v>75.599999999999994</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="40">
         <v>76</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G2" s="40">
         <v>76.5</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H2" s="40">
         <v>83.5</v>
       </c>
-      <c r="I2" s="44">
+      <c r="I2" s="40">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J2" s="44">
+      <c r="J2" s="40">
         <v>305</v>
       </c>
-      <c r="K2" s="44">
+      <c r="K2" s="40">
         <v>29890</v>
       </c>
-      <c r="L2" s="44">
+      <c r="L2" s="40">
         <v>971.84</v>
       </c>
       <c r="M2" s="1">
         <v>200</v>
       </c>
-      <c r="N2" s="44">
+      <c r="N2" s="40">
         <v>0.66</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="40">
         <v>36000</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="40">
         <v>180</v>
       </c>
       <c r="Q2" s="1">
         <v>25</v>
       </c>
-      <c r="R2" s="44">
+      <c r="R2" s="40">
         <v>1800</v>
       </c>
-      <c r="S2" s="44">
+      <c r="S2" s="40">
         <v>1.5</v>
       </c>
-      <c r="T2" s="44">
+      <c r="T2" s="40">
         <v>5</v>
       </c>
-      <c r="U2" s="44">
+      <c r="U2" s="40">
         <v>50</v>
       </c>
-      <c r="V2" s="44">
+      <c r="V2" s="40">
         <v>2700</v>
       </c>
-      <c r="W2" s="44">
+      <c r="W2" s="1">
         <v>0.3</v>
       </c>
-      <c r="X2" s="44">
+      <c r="X2" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y2" s="44">
+      <c r="Y2" s="1">
         <v>40</v>
       </c>
-      <c r="Z2" s="44">
+      <c r="Z2" s="40">
         <v>3</v>
       </c>
-      <c r="AA2" s="44">
+      <c r="AA2" s="40">
         <v>16</v>
       </c>
-      <c r="AB2" s="44">
+      <c r="AB2" s="40">
         <v>14</v>
       </c>
-      <c r="AC2" s="44">
+      <c r="AC2" s="40">
         <v>1600</v>
       </c>
-      <c r="AD2" s="44">
+      <c r="AD2" s="40">
         <v>130</v>
       </c>
-      <c r="AE2" s="44">
+      <c r="AE2" s="40">
         <v>0.98</v>
       </c>
-      <c r="AF2" s="44">
+      <c r="AF2" s="40">
         <v>1</v>
       </c>
-      <c r="AG2" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH2" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI2" s="45">
+      <c r="AG2" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH2" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI2" s="41">
         <v>16000</v>
       </c>
-      <c r="AJ2" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK2" s="52">
+      <c r="AJ2" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK2" s="48">
         <v>38857</v>
       </c>
-      <c r="AL2" s="46">
+      <c r="AL2" s="42">
         <v>0.15</v>
       </c>
-      <c r="AM2" s="46">
+      <c r="AM2" s="42">
         <v>5.44</v>
       </c>
       <c r="AN2" s="9">
         <v>36</v>
       </c>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="46">
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42">
         <v>621</v>
       </c>
-      <c r="AR2" s="46">
+      <c r="AR2" s="42">
         <v>162</v>
       </c>
       <c r="AS2" s="9">
         <v>420000</v>
       </c>
-      <c r="AT2" s="46">
+      <c r="AT2" s="42">
         <v>210000</v>
       </c>
       <c r="AU2" s="9">
@@ -1677,91 +1646,91 @@
       <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40">
         <v>74.3</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="40">
         <v>76.8</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="40">
         <v>77.5</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="40">
         <v>81.8</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="44">
+      <c r="N3" s="40">
         <v>0.68</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="40">
         <v>36600</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="40">
         <v>195</v>
       </c>
       <c r="Q3" s="1">
         <v>26</v>
       </c>
-      <c r="R3" s="44">
+      <c r="R3" s="40">
         <v>1800</v>
       </c>
-      <c r="S3" s="44">
+      <c r="S3" s="40">
         <v>1.5</v>
       </c>
-      <c r="T3" s="44">
+      <c r="T3" s="40">
         <v>5</v>
       </c>
-      <c r="U3" s="44">
+      <c r="U3" s="40">
         <v>50</v>
       </c>
-      <c r="V3" s="44">
+      <c r="V3" s="40">
         <v>2700</v>
       </c>
-      <c r="W3" s="44">
+      <c r="W3" s="1">
         <v>0.3</v>
       </c>
-      <c r="X3" s="44">
+      <c r="X3" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y3" s="44">
+      <c r="Y3" s="1">
         <v>40</v>
       </c>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44">
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40">
         <v>16</v>
       </c>
-      <c r="AB3" s="44">
+      <c r="AB3" s="40">
         <v>14</v>
       </c>
-      <c r="AC3" s="44">
+      <c r="AC3" s="40">
         <v>1900</v>
       </c>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="45">
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="41">
         <v>16700</v>
       </c>
       <c r="AJ3" s="33"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
       <c r="AN3" s="9"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
       <c r="AS3" s="9"/>
-      <c r="AT3" s="46"/>
+      <c r="AT3" s="42"/>
       <c r="AU3" s="9"/>
       <c r="AV3" s="9"/>
       <c r="AW3" s="9"/>
@@ -1770,135 +1739,139 @@
       <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="40">
         <v>38054.43</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="40">
         <v>7603.71</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="40">
         <v>9240.3499999999985</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="40">
         <v>37.6</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="40">
         <v>38.1</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="40">
         <v>38.6</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="40">
         <v>40.6</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="40">
         <v>11.2</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="40">
         <v>365</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="40">
         <v>62415</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="40">
         <v>3755</v>
       </c>
       <c r="M4" s="1">
         <v>540</v>
       </c>
-      <c r="N4" s="44">
+      <c r="N4" s="40">
         <v>0.59</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="40">
         <v>38300</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="40">
         <v>350</v>
       </c>
       <c r="Q4" s="1">
         <v>22</v>
       </c>
-      <c r="R4" s="44">
+      <c r="R4" s="40">
         <v>1800</v>
       </c>
-      <c r="S4" s="44">
+      <c r="S4" s="40">
         <v>1.5</v>
       </c>
-      <c r="T4" s="44">
+      <c r="T4" s="40">
         <v>5</v>
       </c>
-      <c r="U4" s="44">
+      <c r="U4" s="40">
         <v>50</v>
       </c>
-      <c r="V4" s="44">
+      <c r="V4" s="40">
         <v>2700</v>
       </c>
-      <c r="W4" s="44">
+      <c r="W4" s="1">
         <v>0.3</v>
       </c>
-      <c r="X4" s="44">
+      <c r="X4" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y4" s="44">
+      <c r="Y4" s="1">
         <v>40</v>
       </c>
-      <c r="Z4" s="44">
+      <c r="Z4" s="40">
         <v>11</v>
       </c>
-      <c r="AA4" s="44">
+      <c r="AA4" s="40">
         <v>16</v>
       </c>
-      <c r="AB4" s="44">
+      <c r="AB4" s="40">
         <v>14</v>
       </c>
-      <c r="AC4" s="44">
+      <c r="AC4" s="40">
         <v>2031</v>
       </c>
-      <c r="AD4" s="44">
+      <c r="AD4" s="40">
         <v>130</v>
       </c>
-      <c r="AE4" s="44">
+      <c r="AE4" s="40">
         <v>0.95</v>
       </c>
-      <c r="AF4" s="44">
+      <c r="AF4" s="40">
         <v>3</v>
       </c>
-      <c r="AG4" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH4" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI4" s="45">
+      <c r="AG4" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH4" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI4" s="41">
         <v>16766</v>
       </c>
       <c r="AJ4" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK4" s="52">
+        <v>92</v>
+      </c>
+      <c r="AK4" s="48">
         <v>45077.5</v>
       </c>
-      <c r="AL4" s="46">
+      <c r="AL4" s="42">
         <v>0.1</v>
       </c>
-      <c r="AM4" s="46">
+      <c r="AM4" s="42">
         <v>5.1100000000000003</v>
       </c>
       <c r="AN4" s="9">
         <v>176</v>
       </c>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="46">
+      <c r="AO4" s="42">
         <v>1942.2</v>
       </c>
-      <c r="AR4" s="46">
+      <c r="AP4" s="42">
         <v>590.4</v>
       </c>
-      <c r="AS4" s="40">
+      <c r="AQ4" s="42">
+        <v>1942.2</v>
+      </c>
+      <c r="AR4" s="42">
+        <v>590.4</v>
+      </c>
+      <c r="AS4" s="36">
         <v>860000</v>
       </c>
-      <c r="AT4" s="46">
+      <c r="AT4" s="42">
         <v>520000</v>
       </c>
       <c r="AU4" s="9">
@@ -1915,91 +1888,91 @@
       <c r="A5" s="30">
         <v>4</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40">
         <v>75</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="40">
         <v>76.5</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="40">
         <v>78.3</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="40">
         <v>89.4</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="44">
+      <c r="N5" s="40">
         <v>0.8</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="40">
         <v>36300</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="40">
         <v>300</v>
       </c>
       <c r="Q5" s="1">
         <v>23</v>
       </c>
-      <c r="R5" s="44">
+      <c r="R5" s="40">
         <v>1800</v>
       </c>
-      <c r="S5" s="44">
+      <c r="S5" s="40">
         <v>1.5</v>
       </c>
-      <c r="T5" s="44">
+      <c r="T5" s="40">
         <v>5</v>
       </c>
-      <c r="U5" s="44">
+      <c r="U5" s="40">
         <v>50</v>
       </c>
-      <c r="V5" s="44">
+      <c r="V5" s="40">
         <v>2700</v>
       </c>
-      <c r="W5" s="44">
+      <c r="W5" s="1">
         <v>0.3</v>
       </c>
-      <c r="X5" s="44">
+      <c r="X5" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y5" s="44">
+      <c r="Y5" s="1">
         <v>40</v>
       </c>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44">
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40">
         <v>16</v>
       </c>
-      <c r="AB5" s="44">
+      <c r="AB5" s="40">
         <v>14</v>
       </c>
-      <c r="AC5" s="44">
+      <c r="AC5" s="40">
         <v>1689</v>
       </c>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="45">
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="41">
         <v>17200</v>
       </c>
       <c r="AJ5" s="33"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
       <c r="AN5" s="9"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
       <c r="AS5" s="9"/>
-      <c r="AT5" s="46"/>
+      <c r="AT5" s="42"/>
       <c r="AU5" s="9"/>
       <c r="AV5" s="9"/>
       <c r="AW5" s="9"/>
@@ -2008,91 +1981,91 @@
       <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40">
         <v>74.3</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="40">
         <v>76.599999999999994</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="40">
         <v>78</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="40">
         <v>82.4</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="44">
+      <c r="N6" s="40">
         <v>0.6</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="40">
         <v>34330</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="40">
         <v>305</v>
       </c>
       <c r="Q6" s="1">
         <v>25</v>
       </c>
-      <c r="R6" s="44">
+      <c r="R6" s="40">
         <v>1800</v>
       </c>
-      <c r="S6" s="44">
+      <c r="S6" s="40">
         <v>1.5</v>
       </c>
-      <c r="T6" s="44">
+      <c r="T6" s="40">
         <v>5</v>
       </c>
-      <c r="U6" s="44">
+      <c r="U6" s="40">
         <v>50</v>
       </c>
-      <c r="V6" s="44">
+      <c r="V6" s="40">
         <v>2700</v>
       </c>
-      <c r="W6" s="44">
+      <c r="W6" s="1">
         <v>0.3</v>
       </c>
-      <c r="X6" s="44">
+      <c r="X6" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y6" s="44">
+      <c r="Y6" s="1">
         <v>40</v>
       </c>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44">
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40">
         <v>16</v>
       </c>
-      <c r="AB6" s="44">
+      <c r="AB6" s="40">
         <v>14</v>
       </c>
-      <c r="AC6" s="44">
+      <c r="AC6" s="40">
         <v>2046</v>
       </c>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="45">
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="41">
         <v>17720</v>
       </c>
       <c r="AJ6" s="33"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="46"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="42"/>
+      <c r="AM6" s="42"/>
       <c r="AN6" s="9"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
+      <c r="AO6" s="42"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="42"/>
+      <c r="AR6" s="42"/>
       <c r="AS6" s="9"/>
-      <c r="AT6" s="46"/>
+      <c r="AT6" s="42"/>
       <c r="AU6" s="9"/>
       <c r="AV6" s="9"/>
       <c r="AW6" s="9"/>
@@ -2101,91 +2074,91 @@
       <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40">
         <v>76.7</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="40">
         <v>77.3</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="40">
         <v>77.7</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="40">
         <v>78.7</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="44">
+      <c r="N7" s="40">
         <v>0.8</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="40">
         <v>34660</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="40">
         <v>306</v>
       </c>
       <c r="Q7" s="1">
         <v>27</v>
       </c>
-      <c r="R7" s="44">
+      <c r="R7" s="40">
         <v>1800</v>
       </c>
-      <c r="S7" s="44">
+      <c r="S7" s="40">
         <v>1.5</v>
       </c>
-      <c r="T7" s="44">
+      <c r="T7" s="40">
         <v>5</v>
       </c>
-      <c r="U7" s="44">
+      <c r="U7" s="40">
         <v>50</v>
       </c>
-      <c r="V7" s="44">
+      <c r="V7" s="40">
         <v>2700</v>
       </c>
-      <c r="W7" s="44">
+      <c r="W7" s="1">
         <v>0.3</v>
       </c>
-      <c r="X7" s="44">
+      <c r="X7" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y7" s="44">
+      <c r="Y7" s="1">
         <v>40</v>
       </c>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44">
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40">
         <v>16</v>
       </c>
-      <c r="AB7" s="44">
+      <c r="AB7" s="40">
         <v>14</v>
       </c>
-      <c r="AC7" s="44">
+      <c r="AC7" s="40">
         <v>1387</v>
       </c>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="45">
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="41">
         <v>17700</v>
       </c>
       <c r="AJ7" s="33"/>
-      <c r="AK7" s="52"/>
-      <c r="AL7" s="46"/>
-      <c r="AM7" s="46"/>
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="42"/>
+      <c r="AM7" s="42"/>
       <c r="AN7" s="9"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="46"/>
-      <c r="AR7" s="46"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
       <c r="AS7" s="9"/>
-      <c r="AT7" s="46"/>
+      <c r="AT7" s="42"/>
       <c r="AU7" s="9"/>
       <c r="AV7" s="9"/>
       <c r="AW7" s="9"/>
@@ -2194,91 +2167,91 @@
       <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40">
         <v>75.099999999999994</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="40">
         <v>76.55</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="40">
         <v>78.3</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="40">
         <v>84.45</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="44">
+      <c r="N8" s="40">
         <v>0.9</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="40">
         <v>35830</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="40">
         <v>315</v>
       </c>
       <c r="Q8" s="1">
         <v>23</v>
       </c>
-      <c r="R8" s="44">
+      <c r="R8" s="40">
         <v>1800</v>
       </c>
-      <c r="S8" s="44">
+      <c r="S8" s="40">
         <v>1.5</v>
       </c>
-      <c r="T8" s="44">
+      <c r="T8" s="40">
         <v>5</v>
       </c>
-      <c r="U8" s="44">
+      <c r="U8" s="40">
         <v>50</v>
       </c>
-      <c r="V8" s="44">
+      <c r="V8" s="40">
         <v>2700</v>
       </c>
-      <c r="W8" s="44">
+      <c r="W8" s="1">
         <v>0.3</v>
       </c>
-      <c r="X8" s="44">
+      <c r="X8" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y8" s="44">
+      <c r="Y8" s="1">
         <v>40</v>
       </c>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44">
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40">
         <v>16</v>
       </c>
-      <c r="AB8" s="44">
+      <c r="AB8" s="40">
         <v>14</v>
       </c>
-      <c r="AC8" s="44">
+      <c r="AC8" s="40">
         <v>2050</v>
       </c>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="45">
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="41">
         <v>17700</v>
       </c>
       <c r="AJ8" s="33"/>
-      <c r="AK8" s="52"/>
-      <c r="AL8" s="52"/>
-      <c r="AM8" s="52"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
       <c r="AN8" s="8"/>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="46"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="42"/>
       <c r="AS8" s="9"/>
-      <c r="AT8" s="46"/>
+      <c r="AT8" s="42"/>
       <c r="AU8" s="9"/>
       <c r="AV8" s="9"/>
       <c r="AW8" s="9"/>
@@ -2287,91 +2260,91 @@
       <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40">
         <v>77.3</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="40">
         <v>77.599999999999994</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="40">
         <v>80.400000000000006</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="44">
+      <c r="N9" s="40">
         <v>0.54</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="40">
         <v>30006</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="40">
         <v>305</v>
       </c>
       <c r="Q9" s="1">
         <v>27</v>
       </c>
-      <c r="R9" s="44">
+      <c r="R9" s="40">
         <v>1800</v>
       </c>
-      <c r="S9" s="44">
+      <c r="S9" s="40">
         <v>1.5</v>
       </c>
-      <c r="T9" s="44">
+      <c r="T9" s="40">
         <v>5</v>
       </c>
-      <c r="U9" s="44">
+      <c r="U9" s="40">
         <v>50</v>
       </c>
-      <c r="V9" s="44">
+      <c r="V9" s="40">
         <v>2700</v>
       </c>
-      <c r="W9" s="44">
+      <c r="W9" s="1">
         <v>0.3</v>
       </c>
-      <c r="X9" s="44">
+      <c r="X9" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y9" s="44">
+      <c r="Y9" s="1">
         <v>40</v>
       </c>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44">
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40">
         <v>16</v>
       </c>
-      <c r="AB9" s="44">
+      <c r="AB9" s="40">
         <v>14</v>
       </c>
-      <c r="AC9" s="44">
+      <c r="AC9" s="40">
         <v>1725</v>
       </c>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="45">
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="41">
         <v>16770</v>
       </c>
       <c r="AJ9" s="33"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="46"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
       <c r="AN9" s="9"/>
-      <c r="AO9" s="39"/>
-      <c r="AP9" s="39"/>
-      <c r="AQ9" s="46"/>
-      <c r="AR9" s="46"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
       <c r="AS9" s="9"/>
-      <c r="AT9" s="46"/>
+      <c r="AT9" s="42"/>
       <c r="AU9" s="9"/>
       <c r="AV9" s="9"/>
       <c r="AW9" s="9"/>
@@ -2380,203 +2353,203 @@
       <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40">
         <v>77.64</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="40">
         <v>77.849999999999994</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="40">
         <v>78.5</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="40">
         <v>80.5</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="44">
+      <c r="N10" s="40">
         <v>0.95</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="40">
         <v>36333</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="40">
         <v>155</v>
       </c>
       <c r="Q10" s="1">
         <v>28</v>
       </c>
-      <c r="R10" s="44">
+      <c r="R10" s="40">
         <v>1800</v>
       </c>
-      <c r="S10" s="44">
+      <c r="S10" s="40">
         <v>1.5</v>
       </c>
-      <c r="T10" s="44">
+      <c r="T10" s="40">
         <v>5</v>
       </c>
-      <c r="U10" s="44">
+      <c r="U10" s="40">
         <v>50</v>
       </c>
-      <c r="V10" s="44">
+      <c r="V10" s="40">
         <v>2700</v>
       </c>
-      <c r="W10" s="44">
+      <c r="W10" s="1">
         <v>0.3</v>
       </c>
-      <c r="X10" s="44">
+      <c r="X10" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y10" s="44">
+      <c r="Y10" s="1">
         <v>40</v>
       </c>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44">
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40">
         <v>16</v>
       </c>
-      <c r="AB10" s="44">
+      <c r="AB10" s="40">
         <v>14</v>
       </c>
-      <c r="AC10" s="44">
+      <c r="AC10" s="40">
         <v>1636</v>
       </c>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="45">
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="41">
         <v>17600</v>
       </c>
       <c r="AJ10" s="33"/>
-      <c r="AK10" s="52"/>
-      <c r="AL10" s="46"/>
-      <c r="AM10" s="46"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="42"/>
       <c r="AN10" s="9"/>
-      <c r="AO10" s="39"/>
-      <c r="AP10" s="39"/>
-      <c r="AQ10" s="46"/>
-      <c r="AR10" s="46"/>
+      <c r="AO10" s="42"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="42"/>
       <c r="AS10" s="9"/>
-      <c r="AT10" s="46"/>
+      <c r="AT10" s="42"/>
       <c r="AU10" s="9"/>
       <c r="AV10" s="9"/>
       <c r="AW10" s="9"/>
     </row>
-    <row r="11" spans="1:51" s="60" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="55">
+    <row r="11" spans="1:51" s="56" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="51">
         <v>10</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="52">
         <v>44914.559999999998</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="52">
         <v>11202.16</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="52">
         <v>17797.830000000002</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="52">
         <v>76.599999999999994</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="52">
         <v>80.400000000000006</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="52">
         <v>85.6</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="52">
         <v>91.25</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I11" s="52">
         <v>8</v>
       </c>
-      <c r="J11" s="56">
+      <c r="J11" s="52">
         <v>255</v>
       </c>
-      <c r="K11" s="56">
+      <c r="K11" s="52">
         <v>93064</v>
       </c>
-      <c r="L11" s="56">
+      <c r="L11" s="52">
         <v>3755</v>
       </c>
       <c r="M11" s="1">
         <v>540</v>
       </c>
-      <c r="N11" s="56">
+      <c r="N11" s="52">
         <v>0.36</v>
       </c>
-      <c r="O11" s="1">
-        <v>36000</v>
-      </c>
-      <c r="P11" s="1">
-        <v>184</v>
+      <c r="O11" s="52">
+        <v>358</v>
+      </c>
+      <c r="P11" s="52">
+        <v>6235413.2999999998</v>
       </c>
       <c r="Q11" s="1">
         <v>35</v>
       </c>
-      <c r="R11" s="56">
-        <v>1800</v>
-      </c>
-      <c r="S11" s="56">
-        <v>1.5</v>
-      </c>
-      <c r="T11" s="56">
-        <v>8</v>
-      </c>
-      <c r="U11" s="56">
-        <v>380</v>
-      </c>
-      <c r="V11" s="56">
-        <v>2040</v>
-      </c>
-      <c r="W11" s="56">
+      <c r="R11" s="52">
+        <v>28964.560000000001</v>
+      </c>
+      <c r="S11" s="52">
+        <v>10566.46</v>
+      </c>
+      <c r="T11" s="52">
+        <v>48667.46</v>
+      </c>
+      <c r="U11" s="52">
+        <v>13446.15</v>
+      </c>
+      <c r="V11" s="52">
+        <v>19245.650000000001</v>
+      </c>
+      <c r="W11" s="1">
         <v>0.4</v>
       </c>
-      <c r="X11" s="56">
+      <c r="X11" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y11" s="56">
+      <c r="Y11" s="1">
         <v>40</v>
       </c>
-      <c r="Z11" s="56">
+      <c r="Z11" s="52">
         <v>10</v>
       </c>
-      <c r="AA11" s="56">
+      <c r="AA11" s="52">
         <v>16</v>
       </c>
-      <c r="AB11" s="56">
+      <c r="AB11" s="52">
         <v>14</v>
       </c>
-      <c r="AC11" s="56">
+      <c r="AC11" s="52">
         <v>450</v>
       </c>
-      <c r="AD11" s="56">
+      <c r="AD11" s="52">
         <v>120</v>
       </c>
-      <c r="AE11" s="56">
+      <c r="AE11" s="52">
         <v>0.96</v>
       </c>
-      <c r="AF11" s="56">
+      <c r="AF11" s="52">
         <v>3</v>
       </c>
-      <c r="AG11" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH11" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI11" s="58">
+      <c r="AG11" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH11" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI11" s="54">
         <v>17640</v>
       </c>
       <c r="AJ11" s="33" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AK11" s="10">
         <v>11279160</v>
@@ -2590,18 +2563,22 @@
       <c r="AN11" s="9">
         <v>176</v>
       </c>
-      <c r="AO11" s="39"/>
-      <c r="AP11" s="39"/>
-      <c r="AQ11" s="59">
+      <c r="AO11" s="10">
+        <v>2235.46</v>
+      </c>
+      <c r="AP11" s="10">
+        <v>724</v>
+      </c>
+      <c r="AQ11" s="55">
         <v>2378.6799999999998</v>
       </c>
-      <c r="AR11" s="59">
+      <c r="AR11" s="55">
         <v>739.47</v>
       </c>
-      <c r="AS11" s="40">
+      <c r="AS11" s="36">
         <v>860000</v>
       </c>
-      <c r="AT11" s="49">
+      <c r="AT11" s="45">
         <v>2785278</v>
       </c>
       <c r="AU11" s="9">
@@ -2620,228 +2597,228 @@
       <c r="A12" s="30">
         <v>11</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40">
         <v>73.599999999999994</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="40">
         <v>77</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="40">
         <v>79.3</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="40">
         <v>84.1</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="44">
+      <c r="N12" s="40">
         <v>0.56000000000000005</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="40">
         <v>35655</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="40">
         <v>164</v>
       </c>
       <c r="Q12" s="1">
         <v>26</v>
       </c>
-      <c r="R12" s="44">
+      <c r="R12" s="40">
         <v>1800</v>
       </c>
-      <c r="S12" s="44">
+      <c r="S12" s="40">
         <v>1.5</v>
       </c>
-      <c r="T12" s="44">
+      <c r="T12" s="40">
         <v>5</v>
       </c>
-      <c r="U12" s="44">
+      <c r="U12" s="40">
         <v>50</v>
       </c>
-      <c r="V12" s="44">
+      <c r="V12" s="40">
         <v>2700</v>
       </c>
-      <c r="W12" s="44">
+      <c r="W12" s="1">
         <v>0.4</v>
       </c>
-      <c r="X12" s="44">
+      <c r="X12" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y12" s="44">
+      <c r="Y12" s="1">
         <v>40</v>
       </c>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44">
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40">
         <v>16</v>
       </c>
-      <c r="AB12" s="44">
+      <c r="AB12" s="40">
         <v>14</v>
       </c>
-      <c r="AC12" s="44">
+      <c r="AC12" s="40">
         <v>1240</v>
       </c>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="45">
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="41">
         <v>17766</v>
       </c>
       <c r="AJ12" s="33"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
       <c r="AN12" s="9"/>
-      <c r="AO12" s="39"/>
-      <c r="AP12" s="39"/>
-      <c r="AQ12" s="46"/>
-      <c r="AR12" s="46"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
       <c r="AS12" s="9"/>
-      <c r="AT12" s="46"/>
+      <c r="AT12" s="42"/>
       <c r="AU12" s="9"/>
       <c r="AV12" s="9"/>
       <c r="AW12" s="9"/>
     </row>
-    <row r="13" spans="1:51" s="41" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" s="37" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="40">
         <v>45957.279999999984</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="40">
         <v>5831.48</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="40">
         <v>7310.1</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="40">
         <v>76.8</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="40">
         <v>78</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="40">
         <v>79.900000000000006</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="40">
         <v>83.75</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="45">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="45">
         <v>305</v>
       </c>
-      <c r="K13" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" s="49">
+      <c r="K13" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="45">
         <v>1159</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="37">
         <v>675</v>
       </c>
-      <c r="N13" s="44">
+      <c r="N13" s="40">
         <v>0.08</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="40">
         <v>35453</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="40">
         <v>131</v>
       </c>
       <c r="Q13" s="1">
         <v>25</v>
       </c>
-      <c r="R13" s="44">
+      <c r="R13" s="40">
         <v>1800</v>
       </c>
-      <c r="S13" s="44">
+      <c r="S13" s="40">
         <v>1.5</v>
       </c>
-      <c r="T13" s="44">
+      <c r="T13" s="40">
         <v>5</v>
       </c>
-      <c r="U13" s="44">
+      <c r="U13" s="40">
         <v>50</v>
       </c>
-      <c r="V13" s="44">
+      <c r="V13" s="40">
         <v>2700</v>
       </c>
-      <c r="W13" s="44">
+      <c r="W13" s="1">
         <v>0.4</v>
       </c>
-      <c r="X13" s="44">
+      <c r="X13" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y13" s="44">
+      <c r="Y13" s="1">
         <v>40</v>
       </c>
-      <c r="Z13" s="49">
+      <c r="Z13" s="45">
         <v>9</v>
       </c>
-      <c r="AA13" s="49">
+      <c r="AA13" s="45">
         <v>16</v>
       </c>
-      <c r="AB13" s="49">
+      <c r="AB13" s="45">
         <v>14</v>
       </c>
-      <c r="AC13" s="49">
+      <c r="AC13" s="45">
         <v>1403</v>
       </c>
-      <c r="AD13" s="49">
+      <c r="AD13" s="45">
         <v>150</v>
       </c>
-      <c r="AE13" s="49">
+      <c r="AE13" s="45">
         <v>0.95</v>
       </c>
-      <c r="AF13" s="49">
+      <c r="AF13" s="45">
         <v>2</v>
       </c>
-      <c r="AG13" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH13" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI13" s="49">
+      <c r="AG13" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH13" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI13" s="45">
         <v>16070</v>
       </c>
-      <c r="AJ13" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK13" s="49">
+      <c r="AJ13" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK13" s="45">
         <v>44842.3</v>
       </c>
-      <c r="AL13" s="49">
+      <c r="AL13" s="45">
         <v>0.1</v>
       </c>
-      <c r="AM13" s="49">
+      <c r="AM13" s="45">
         <v>5.1100000000000003</v>
       </c>
-      <c r="AN13" s="41">
+      <c r="AN13" s="37">
         <v>102</v>
       </c>
-      <c r="AO13" s="62"/>
-      <c r="AP13" s="62"/>
-      <c r="AQ13" s="49">
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45">
         <v>2422</v>
       </c>
-      <c r="AR13" s="49">
+      <c r="AR13" s="45">
         <v>644</v>
       </c>
-      <c r="AS13" s="41">
+      <c r="AS13" s="37">
         <v>780000</v>
       </c>
-      <c r="AT13" s="49">
+      <c r="AT13" s="45">
         <v>496000</v>
       </c>
       <c r="AU13" s="9">
@@ -2858,91 +2835,91 @@
       <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40">
         <v>76.900000000000006</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="40">
         <v>79</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="40">
         <v>80</v>
       </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="44">
+      <c r="N14" s="40">
         <v>0.49</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="40">
         <v>38635</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="40">
         <v>111</v>
       </c>
       <c r="Q14" s="1">
         <v>27</v>
       </c>
-      <c r="R14" s="44">
+      <c r="R14" s="40">
         <v>1800</v>
       </c>
-      <c r="S14" s="44">
+      <c r="S14" s="40">
         <v>1.5</v>
       </c>
-      <c r="T14" s="44">
+      <c r="T14" s="40">
         <v>5</v>
       </c>
-      <c r="U14" s="44">
+      <c r="U14" s="40">
         <v>50</v>
       </c>
-      <c r="V14" s="44">
+      <c r="V14" s="40">
         <v>2700</v>
       </c>
-      <c r="W14" s="44">
+      <c r="W14" s="1">
         <v>0.4</v>
       </c>
-      <c r="X14" s="44">
+      <c r="X14" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y14" s="44">
+      <c r="Y14" s="1">
         <v>40</v>
       </c>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44">
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40">
         <v>16</v>
       </c>
-      <c r="AB14" s="44">
+      <c r="AB14" s="40">
         <v>14</v>
       </c>
-      <c r="AC14" s="44">
+      <c r="AC14" s="40">
         <v>2000</v>
       </c>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="45">
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="41">
         <v>17000</v>
       </c>
       <c r="AJ14" s="33"/>
-      <c r="AK14" s="52"/>
-      <c r="AL14" s="46"/>
-      <c r="AM14" s="46"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="42"/>
       <c r="AN14" s="9"/>
-      <c r="AO14" s="39"/>
-      <c r="AP14" s="39"/>
-      <c r="AQ14" s="46"/>
-      <c r="AR14" s="46"/>
+      <c r="AO14" s="42"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
       <c r="AS14" s="9"/>
-      <c r="AT14" s="46"/>
+      <c r="AT14" s="42"/>
       <c r="AU14" s="9"/>
       <c r="AV14" s="9"/>
       <c r="AW14" s="9"/>
@@ -2951,91 +2928,91 @@
       <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40">
         <v>77</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="40">
         <v>77.5</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="40">
         <v>78.099999999999994</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="40">
         <v>80.099999999999994</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="44">
+      <c r="N15" s="40">
         <v>0.8</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="40">
         <v>39600</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="40">
         <v>138</v>
       </c>
       <c r="Q15" s="1">
         <v>25</v>
       </c>
-      <c r="R15" s="44">
+      <c r="R15" s="40">
         <v>1800</v>
       </c>
-      <c r="S15" s="44">
+      <c r="S15" s="40">
         <v>1.5</v>
       </c>
-      <c r="T15" s="44">
+      <c r="T15" s="40">
         <v>5</v>
       </c>
-      <c r="U15" s="44">
+      <c r="U15" s="40">
         <v>50</v>
       </c>
-      <c r="V15" s="44">
+      <c r="V15" s="40">
         <v>2700</v>
       </c>
-      <c r="W15" s="44">
+      <c r="W15" s="1">
         <v>0.4</v>
       </c>
-      <c r="X15" s="44">
+      <c r="X15" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y15" s="44">
+      <c r="Y15" s="1">
         <v>40</v>
       </c>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44">
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40">
         <v>16</v>
       </c>
-      <c r="AB15" s="44">
+      <c r="AB15" s="40">
         <v>14</v>
       </c>
-      <c r="AC15" s="44">
+      <c r="AC15" s="40">
         <v>1697</v>
       </c>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="45">
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="41">
         <v>17200</v>
       </c>
       <c r="AJ15" s="33"/>
-      <c r="AK15" s="52"/>
-      <c r="AL15" s="46"/>
-      <c r="AM15" s="46"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="42"/>
+      <c r="AM15" s="42"/>
       <c r="AN15" s="9"/>
-      <c r="AO15" s="39"/>
-      <c r="AP15" s="39"/>
-      <c r="AQ15" s="46"/>
-      <c r="AR15" s="46"/>
+      <c r="AO15" s="42"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
       <c r="AS15" s="9"/>
-      <c r="AT15" s="46"/>
+      <c r="AT15" s="42"/>
       <c r="AU15" s="9"/>
       <c r="AV15" s="9"/>
       <c r="AW15" s="9"/>
@@ -3044,91 +3021,91 @@
       <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40">
         <v>76.63</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="40">
         <v>78.95</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="40">
         <v>81.5</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="40">
         <v>89.5</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="44">
+      <c r="N16" s="40">
         <v>0.63</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="40">
         <v>35500</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="40">
         <v>114</v>
       </c>
       <c r="Q16" s="1">
         <v>22</v>
       </c>
-      <c r="R16" s="44">
+      <c r="R16" s="40">
         <v>1800</v>
       </c>
-      <c r="S16" s="44">
+      <c r="S16" s="40">
         <v>1.5</v>
       </c>
-      <c r="T16" s="44">
+      <c r="T16" s="40">
         <v>5</v>
       </c>
-      <c r="U16" s="44">
+      <c r="U16" s="40">
         <v>50</v>
       </c>
-      <c r="V16" s="44">
+      <c r="V16" s="40">
         <v>2700</v>
       </c>
-      <c r="W16" s="44">
+      <c r="W16" s="1">
         <v>0.4</v>
       </c>
-      <c r="X16" s="44">
+      <c r="X16" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y16" s="44">
+      <c r="Y16" s="1">
         <v>40</v>
       </c>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44">
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40">
         <v>16</v>
       </c>
-      <c r="AB16" s="44">
+      <c r="AB16" s="40">
         <v>14</v>
       </c>
-      <c r="AC16" s="44">
+      <c r="AC16" s="40">
         <v>1560</v>
       </c>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="54"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="45">
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="41">
         <v>16200</v>
       </c>
       <c r="AJ16" s="33"/>
-      <c r="AK16" s="52"/>
-      <c r="AL16" s="46"/>
-      <c r="AM16" s="46"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="42"/>
+      <c r="AM16" s="42"/>
       <c r="AN16" s="9"/>
-      <c r="AO16" s="39"/>
-      <c r="AP16" s="39"/>
-      <c r="AQ16" s="46"/>
-      <c r="AR16" s="46"/>
+      <c r="AO16" s="42"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="42"/>
+      <c r="AR16" s="42"/>
       <c r="AS16" s="9"/>
-      <c r="AT16" s="46"/>
+      <c r="AT16" s="42"/>
       <c r="AU16" s="9"/>
       <c r="AV16" s="9"/>
       <c r="AW16" s="9"/>
@@ -3137,91 +3114,91 @@
       <c r="A17" s="30">
         <v>16</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40">
         <v>76.83</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="40">
         <v>78.3</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="40">
         <v>80.900000000000006</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="40">
         <v>89.9</v>
       </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="44">
+      <c r="N17" s="40">
         <v>0.06</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="40">
         <v>35300</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="40">
         <v>194</v>
       </c>
       <c r="Q17" s="1">
         <v>26</v>
       </c>
-      <c r="R17" s="44">
+      <c r="R17" s="40">
         <v>1800</v>
       </c>
-      <c r="S17" s="44">
+      <c r="S17" s="40">
         <v>1.5</v>
       </c>
-      <c r="T17" s="44">
+      <c r="T17" s="40">
         <v>5</v>
       </c>
-      <c r="U17" s="44">
+      <c r="U17" s="40">
         <v>50</v>
       </c>
-      <c r="V17" s="44">
+      <c r="V17" s="40">
         <v>2700</v>
       </c>
-      <c r="W17" s="44">
+      <c r="W17" s="1">
         <v>0.4</v>
       </c>
-      <c r="X17" s="44">
+      <c r="X17" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y17" s="44">
+      <c r="Y17" s="1">
         <v>40</v>
       </c>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44">
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40">
         <v>16</v>
       </c>
-      <c r="AB17" s="44">
+      <c r="AB17" s="40">
         <v>14</v>
       </c>
-      <c r="AC17" s="44">
+      <c r="AC17" s="40">
         <v>1980</v>
       </c>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="45">
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="41">
         <v>11730</v>
       </c>
       <c r="AJ17" s="33"/>
-      <c r="AK17" s="52"/>
-      <c r="AL17" s="46"/>
-      <c r="AM17" s="46"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="42"/>
       <c r="AN17" s="9"/>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="46"/>
-      <c r="AR17" s="46"/>
+      <c r="AO17" s="42"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
       <c r="AS17" s="9"/>
-      <c r="AT17" s="46"/>
+      <c r="AT17" s="42"/>
       <c r="AU17" s="9"/>
       <c r="AV17" s="9"/>
       <c r="AW17" s="9"/>
@@ -3230,135 +3207,135 @@
       <c r="A18" s="30">
         <v>17</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="40">
         <v>34932.36</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="40">
         <v>8006.11</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="40">
         <v>8935.85</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="40">
         <v>77.8</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="40">
         <v>80</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="40">
         <v>81</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="40">
         <v>11.2</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="40">
         <v>365</v>
       </c>
-      <c r="K18" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="44">
+      <c r="K18" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="40">
         <v>1079</v>
       </c>
       <c r="M18" s="1">
         <v>675</v>
       </c>
-      <c r="N18" s="44">
+      <c r="N18" s="40">
         <v>0.9</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="40">
         <v>35603</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="40">
         <v>156</v>
       </c>
       <c r="Q18" s="1">
         <v>27</v>
       </c>
-      <c r="R18" s="44">
+      <c r="R18" s="40">
         <v>1800</v>
       </c>
-      <c r="S18" s="44">
+      <c r="S18" s="40">
         <v>1.5</v>
       </c>
-      <c r="T18" s="44">
+      <c r="T18" s="40">
         <v>5</v>
       </c>
-      <c r="U18" s="44">
+      <c r="U18" s="40">
         <v>50</v>
       </c>
-      <c r="V18" s="44">
+      <c r="V18" s="40">
         <v>2700</v>
       </c>
-      <c r="W18" s="44">
+      <c r="W18" s="1">
         <v>0.4</v>
       </c>
-      <c r="X18" s="44">
+      <c r="X18" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y18" s="44">
+      <c r="Y18" s="1">
         <v>40</v>
       </c>
-      <c r="Z18" s="44">
+      <c r="Z18" s="40">
         <v>5</v>
       </c>
-      <c r="AA18" s="44">
+      <c r="AA18" s="40">
         <v>16</v>
       </c>
-      <c r="AB18" s="44">
+      <c r="AB18" s="40">
         <v>14</v>
       </c>
-      <c r="AC18" s="44">
+      <c r="AC18" s="40">
         <v>2328</v>
       </c>
-      <c r="AD18" s="44">
+      <c r="AD18" s="40">
         <v>145</v>
       </c>
-      <c r="AE18" s="44">
+      <c r="AE18" s="40">
         <v>0.97</v>
       </c>
-      <c r="AF18" s="44">
+      <c r="AF18" s="40">
         <v>2</v>
       </c>
-      <c r="AG18" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH18" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI18" s="45">
+      <c r="AG18" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH18" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI18" s="41">
         <v>18726</v>
       </c>
-      <c r="AJ18" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK18" s="52">
+      <c r="AJ18" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK18" s="48">
         <v>51447.93</v>
       </c>
-      <c r="AL18" s="46">
+      <c r="AL18" s="42">
         <v>0.12</v>
       </c>
-      <c r="AM18" s="46">
+      <c r="AM18" s="42">
         <v>5.6</v>
       </c>
       <c r="AN18" s="9">
         <v>112</v>
       </c>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="46">
+      <c r="AO18" s="42"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42">
         <v>2566.06</v>
       </c>
-      <c r="AR18" s="46">
+      <c r="AR18" s="42">
         <v>709.19</v>
       </c>
       <c r="AS18" s="9">
         <v>625000</v>
       </c>
-      <c r="AT18" s="46">
+      <c r="AT18" s="42">
         <v>438000</v>
       </c>
       <c r="AU18" s="9">
@@ -3375,135 +3352,135 @@
       <c r="A19" s="30">
         <v>18</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="40">
         <v>41249.94</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="40">
         <v>11459.64</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="40">
         <v>14509.51</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="40">
         <v>76.8</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="40">
         <v>78</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="40">
         <v>79.900000000000006</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="40">
         <v>83.75</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="40">
         <v>11.2</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="40">
         <v>305</v>
       </c>
-      <c r="K19" s="44">
+      <c r="K19" s="40">
         <v>71004</v>
       </c>
-      <c r="L19" s="44">
+      <c r="L19" s="40">
         <v>1770</v>
       </c>
       <c r="M19" s="1">
         <v>1327</v>
       </c>
-      <c r="N19" s="44">
+      <c r="N19" s="40">
         <v>0.45</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="40">
         <v>33300</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="40">
         <v>300</v>
       </c>
       <c r="Q19" s="1">
         <v>22</v>
       </c>
-      <c r="R19" s="44">
+      <c r="R19" s="40">
         <v>1800</v>
       </c>
-      <c r="S19" s="44">
+      <c r="S19" s="40">
         <v>1.5</v>
       </c>
-      <c r="T19" s="44">
+      <c r="T19" s="40">
         <v>5</v>
       </c>
-      <c r="U19" s="44">
+      <c r="U19" s="40">
         <v>50</v>
       </c>
-      <c r="V19" s="44">
+      <c r="V19" s="40">
         <v>2700</v>
       </c>
-      <c r="W19" s="44">
+      <c r="W19" s="1">
         <v>0.4</v>
       </c>
-      <c r="X19" s="44">
+      <c r="X19" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y19" s="44">
+      <c r="Y19" s="1">
         <v>40</v>
       </c>
-      <c r="Z19" s="44">
+      <c r="Z19" s="40">
         <v>7</v>
       </c>
-      <c r="AA19" s="44">
+      <c r="AA19" s="40">
         <v>16</v>
       </c>
-      <c r="AB19" s="44">
+      <c r="AB19" s="40">
         <v>14</v>
       </c>
-      <c r="AC19" s="44">
+      <c r="AC19" s="40">
         <v>1403</v>
       </c>
-      <c r="AD19" s="44">
+      <c r="AD19" s="40">
         <v>120</v>
       </c>
-      <c r="AE19" s="44">
+      <c r="AE19" s="40">
         <v>0.97</v>
       </c>
-      <c r="AF19" s="44">
+      <c r="AF19" s="40">
         <v>2</v>
       </c>
-      <c r="AG19" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH19" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI19" s="45">
+      <c r="AG19" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH19" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI19" s="41">
         <v>16070</v>
       </c>
       <c r="AJ19" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK19" s="52">
+        <v>113</v>
+      </c>
+      <c r="AK19" s="48">
         <v>35430.78</v>
       </c>
-      <c r="AL19" s="46">
+      <c r="AL19" s="42">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM19" s="46">
+      <c r="AM19" s="42">
         <v>5.44</v>
       </c>
       <c r="AN19" s="9">
         <v>280</v>
       </c>
-      <c r="AO19" s="39"/>
-      <c r="AP19" s="39"/>
-      <c r="AQ19" s="46">
+      <c r="AO19" s="42"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42">
         <v>1660.82</v>
       </c>
-      <c r="AR19" s="46">
+      <c r="AR19" s="42">
         <v>520.04999999999995</v>
       </c>
       <c r="AS19" s="9">
         <v>550000</v>
       </c>
-      <c r="AT19" s="46">
+      <c r="AT19" s="42">
         <v>678000</v>
       </c>
       <c r="AU19" s="12">
@@ -3520,91 +3497,91 @@
       <c r="A20" s="34">
         <v>19</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41">
         <v>76.58</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="41">
         <v>78</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="41">
         <v>84.5</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="41">
         <v>89.6</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="45">
+      <c r="N20" s="41">
         <v>0.57999999999999996</v>
       </c>
-      <c r="O20" s="32">
+      <c r="O20" s="41">
         <v>36030</v>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="41">
         <v>311</v>
       </c>
       <c r="Q20" s="32">
         <v>26</v>
       </c>
-      <c r="R20" s="45">
+      <c r="R20" s="41">
         <v>1800</v>
       </c>
-      <c r="S20" s="45">
+      <c r="S20" s="41">
         <v>1.5</v>
       </c>
-      <c r="T20" s="45">
+      <c r="T20" s="41">
         <v>5</v>
       </c>
-      <c r="U20" s="45">
+      <c r="U20" s="41">
         <v>50</v>
       </c>
-      <c r="V20" s="45">
+      <c r="V20" s="41">
         <v>2700</v>
       </c>
-      <c r="W20" s="45">
+      <c r="W20" s="32">
         <v>0.5</v>
       </c>
-      <c r="X20" s="45">
+      <c r="X20" s="32">
         <v>0.1</v>
       </c>
-      <c r="Y20" s="45">
+      <c r="Y20" s="32">
         <v>40</v>
       </c>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="45">
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="41">
         <v>16</v>
       </c>
-      <c r="AB20" s="45">
+      <c r="AB20" s="41">
         <v>14</v>
       </c>
-      <c r="AC20" s="45">
+      <c r="AC20" s="41">
         <v>1533</v>
       </c>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="54"/>
-      <c r="AH20" s="42"/>
-      <c r="AI20" s="45">
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="41">
         <v>17020</v>
       </c>
       <c r="AJ20" s="33"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="46"/>
-      <c r="AM20" s="46"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
       <c r="AN20" s="9"/>
-      <c r="AO20" s="39"/>
-      <c r="AP20" s="39"/>
-      <c r="AQ20" s="46"/>
-      <c r="AR20" s="46"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
       <c r="AS20" s="9"/>
-      <c r="AT20" s="46"/>
+      <c r="AT20" s="42"/>
       <c r="AU20" s="9"/>
       <c r="AV20" s="9"/>
       <c r="AW20" s="9"/>
@@ -3613,91 +3590,91 @@
       <c r="A21" s="30">
         <v>20</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40">
         <v>76.5</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="40">
         <v>77</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="40">
         <v>78.5</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="40">
         <v>80.5</v>
       </c>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="44">
+      <c r="N21" s="40">
         <v>0.6</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="40">
         <v>43000</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="40">
         <v>190</v>
       </c>
       <c r="Q21" s="1">
         <v>20</v>
       </c>
-      <c r="R21" s="44">
+      <c r="R21" s="40">
         <v>1800</v>
       </c>
-      <c r="S21" s="44">
+      <c r="S21" s="40">
         <v>1.5</v>
       </c>
-      <c r="T21" s="44">
+      <c r="T21" s="40">
         <v>5</v>
       </c>
-      <c r="U21" s="44">
+      <c r="U21" s="40">
         <v>50</v>
       </c>
-      <c r="V21" s="44">
+      <c r="V21" s="40">
         <v>2700</v>
       </c>
-      <c r="W21" s="45">
+      <c r="W21" s="32">
         <v>0.5</v>
       </c>
-      <c r="X21" s="44">
+      <c r="X21" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y21" s="44">
+      <c r="Y21" s="1">
         <v>40</v>
       </c>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44">
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40">
         <v>16</v>
       </c>
-      <c r="AB21" s="44">
+      <c r="AB21" s="40">
         <v>14</v>
       </c>
-      <c r="AC21" s="44">
+      <c r="AC21" s="40">
         <v>2100</v>
       </c>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="45">
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="41">
         <v>17000</v>
       </c>
       <c r="AJ21" s="33"/>
-      <c r="AK21" s="52"/>
-      <c r="AL21" s="46"/>
-      <c r="AM21" s="46"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="42"/>
+      <c r="AM21" s="42"/>
       <c r="AN21" s="9"/>
-      <c r="AO21" s="39"/>
-      <c r="AP21" s="39"/>
-      <c r="AQ21" s="46"/>
-      <c r="AR21" s="46"/>
+      <c r="AO21" s="42"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
       <c r="AS21" s="9"/>
-      <c r="AT21" s="46"/>
+      <c r="AT21" s="42"/>
       <c r="AU21" s="9"/>
       <c r="AV21" s="9"/>
       <c r="AW21" s="9"/>
@@ -3706,91 +3683,91 @@
       <c r="A22" s="30">
         <v>21</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40">
         <v>76.7</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="40">
         <v>77.3</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="40">
         <v>77.7</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="40">
         <v>78.7</v>
       </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="44">
+      <c r="N22" s="40">
         <v>0.6</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="40">
         <v>43600</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="40">
         <v>105</v>
       </c>
       <c r="Q22" s="1">
         <v>25</v>
       </c>
-      <c r="R22" s="44">
+      <c r="R22" s="40">
         <v>1800</v>
       </c>
-      <c r="S22" s="44">
+      <c r="S22" s="40">
         <v>1.5</v>
       </c>
-      <c r="T22" s="44">
+      <c r="T22" s="40">
         <v>5</v>
       </c>
-      <c r="U22" s="44">
+      <c r="U22" s="40">
         <v>50</v>
       </c>
-      <c r="V22" s="44">
+      <c r="V22" s="40">
         <v>2700</v>
       </c>
-      <c r="W22" s="45">
+      <c r="W22" s="32">
         <v>0.5</v>
       </c>
-      <c r="X22" s="44">
+      <c r="X22" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y22" s="44">
+      <c r="Y22" s="1">
         <v>40</v>
       </c>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44">
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40">
         <v>16</v>
       </c>
-      <c r="AB22" s="44">
+      <c r="AB22" s="40">
         <v>14</v>
       </c>
-      <c r="AC22" s="44">
+      <c r="AC22" s="40">
         <v>1310</v>
       </c>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="54"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="50"/>
       <c r="AH22" s="31"/>
-      <c r="AI22" s="45">
+      <c r="AI22" s="41">
         <v>17700</v>
       </c>
       <c r="AJ22" s="33"/>
-      <c r="AK22" s="53"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
+      <c r="AK22" s="49"/>
+      <c r="AL22" s="47"/>
+      <c r="AM22" s="47"/>
       <c r="AN22" s="13"/>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
+      <c r="AO22" s="47"/>
+      <c r="AP22" s="47"/>
+      <c r="AQ22" s="47"/>
+      <c r="AR22" s="47"/>
       <c r="AS22" s="13"/>
-      <c r="AT22" s="51"/>
+      <c r="AT22" s="47"/>
       <c r="AU22" s="13"/>
       <c r="AV22" s="13"/>
       <c r="AW22" s="13"/>
@@ -3799,91 +3776,91 @@
       <c r="A23" s="30">
         <v>22</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44">
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40">
         <v>76.8</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="40">
         <v>77.400000000000006</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="40">
         <v>78</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="40">
         <v>80</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="44">
+      <c r="N23" s="40">
         <v>0.62</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="40">
         <v>48000</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="40">
         <v>340</v>
       </c>
       <c r="Q23" s="1">
         <v>20</v>
       </c>
-      <c r="R23" s="44">
+      <c r="R23" s="40">
         <v>1800</v>
       </c>
-      <c r="S23" s="44">
+      <c r="S23" s="40">
         <v>1.5</v>
       </c>
-      <c r="T23" s="44">
+      <c r="T23" s="40">
         <v>5</v>
       </c>
-      <c r="U23" s="44">
+      <c r="U23" s="40">
         <v>50</v>
       </c>
-      <c r="V23" s="44">
+      <c r="V23" s="40">
         <v>2700</v>
       </c>
-      <c r="W23" s="45">
+      <c r="W23" s="32">
         <v>0.5</v>
       </c>
-      <c r="X23" s="44">
+      <c r="X23" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y23" s="44">
+      <c r="Y23" s="1">
         <v>40</v>
       </c>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44">
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40">
         <v>16</v>
       </c>
-      <c r="AB23" s="44">
+      <c r="AB23" s="40">
         <v>14</v>
       </c>
-      <c r="AC23" s="44">
+      <c r="AC23" s="40">
         <v>1236</v>
       </c>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="54"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="50"/>
       <c r="AH23" s="31"/>
-      <c r="AI23" s="45">
+      <c r="AI23" s="41">
         <v>18300</v>
       </c>
       <c r="AJ23" s="33"/>
-      <c r="AK23" s="53"/>
-      <c r="AL23" s="51"/>
-      <c r="AM23" s="51"/>
+      <c r="AK23" s="49"/>
+      <c r="AL23" s="47"/>
+      <c r="AM23" s="47"/>
       <c r="AN23" s="13"/>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="51"/>
-      <c r="AR23" s="51"/>
+      <c r="AO23" s="47"/>
+      <c r="AP23" s="47"/>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="47"/>
       <c r="AS23" s="13"/>
-      <c r="AT23" s="51"/>
+      <c r="AT23" s="47"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="13"/>
       <c r="AW23" s="13"/>
@@ -3892,91 +3869,91 @@
       <c r="A24" s="30">
         <v>23</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40">
         <v>77</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="40">
         <v>77.5</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="40">
         <v>78.099999999999994</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="40">
         <v>80.099999999999994</v>
       </c>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="44">
+      <c r="N24" s="40">
         <v>0.63</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="40">
         <v>46100</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="40">
         <v>310</v>
       </c>
       <c r="Q24" s="1">
         <v>20</v>
       </c>
-      <c r="R24" s="44">
+      <c r="R24" s="40">
         <v>1800</v>
       </c>
-      <c r="S24" s="44">
+      <c r="S24" s="40">
         <v>1.5</v>
       </c>
-      <c r="T24" s="44">
+      <c r="T24" s="40">
         <v>5</v>
       </c>
-      <c r="U24" s="44">
+      <c r="U24" s="40">
         <v>50</v>
       </c>
-      <c r="V24" s="44">
+      <c r="V24" s="40">
         <v>2700</v>
       </c>
-      <c r="W24" s="45">
+      <c r="W24" s="32">
         <v>0.5</v>
       </c>
-      <c r="X24" s="44">
+      <c r="X24" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y24" s="44">
+      <c r="Y24" s="1">
         <v>40</v>
       </c>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44">
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40">
         <v>16</v>
       </c>
-      <c r="AB24" s="44">
+      <c r="AB24" s="40">
         <v>14</v>
       </c>
-      <c r="AC24" s="44">
+      <c r="AC24" s="40">
         <v>2037</v>
       </c>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="54"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="50"/>
       <c r="AH24" s="31"/>
-      <c r="AI24" s="45">
+      <c r="AI24" s="41">
         <v>17200</v>
       </c>
       <c r="AJ24" s="33"/>
-      <c r="AK24" s="53"/>
-      <c r="AL24" s="51"/>
-      <c r="AM24" s="51"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="47"/>
+      <c r="AM24" s="47"/>
       <c r="AN24" s="13"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="51"/>
-      <c r="AR24" s="51"/>
+      <c r="AO24" s="47"/>
+      <c r="AP24" s="47"/>
+      <c r="AQ24" s="47"/>
+      <c r="AR24" s="47"/>
       <c r="AS24" s="13"/>
-      <c r="AT24" s="51"/>
+      <c r="AT24" s="47"/>
       <c r="AU24" s="13"/>
       <c r="AV24" s="13"/>
       <c r="AW24" s="13"/>
@@ -3985,135 +3962,135 @@
       <c r="A25" s="30">
         <v>24</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="40">
         <v>117608</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="40">
         <v>33972</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="40">
         <v>43707</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="40">
         <v>77.099999999999994</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="40">
         <v>77.599999999999994</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="40">
         <v>78.3</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="40">
         <v>80.3</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="40">
         <v>11.2</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="40">
         <v>365</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="40">
         <v>69751.5</v>
       </c>
-      <c r="L25" s="44">
+      <c r="L25" s="40">
         <v>5137.92</v>
       </c>
       <c r="M25" s="1">
         <v>638.6</v>
       </c>
-      <c r="N25" s="44">
+      <c r="N25" s="40">
         <v>0.72</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="40">
         <v>44840</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="40">
         <v>300</v>
       </c>
       <c r="Q25" s="1">
         <v>22</v>
       </c>
-      <c r="R25" s="44">
+      <c r="R25" s="40">
         <v>1800</v>
       </c>
-      <c r="S25" s="44">
+      <c r="S25" s="40">
         <v>1.5</v>
       </c>
-      <c r="T25" s="44">
+      <c r="T25" s="40">
         <v>5</v>
       </c>
-      <c r="U25" s="44">
+      <c r="U25" s="40">
         <v>50</v>
       </c>
-      <c r="V25" s="44">
+      <c r="V25" s="40">
         <v>2700</v>
       </c>
-      <c r="W25" s="45">
+      <c r="W25" s="32">
         <v>0.5</v>
       </c>
-      <c r="X25" s="44">
+      <c r="X25" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y25" s="44">
+      <c r="Y25" s="1">
         <v>40</v>
       </c>
-      <c r="Z25" s="44">
+      <c r="Z25" s="40">
         <v>15</v>
       </c>
-      <c r="AA25" s="44">
+      <c r="AA25" s="40">
         <v>16</v>
       </c>
-      <c r="AB25" s="44">
+      <c r="AB25" s="40">
         <v>14</v>
       </c>
-      <c r="AC25" s="44">
+      <c r="AC25" s="40">
         <v>2256</v>
       </c>
-      <c r="AD25" s="44">
+      <c r="AD25" s="40">
         <v>225</v>
       </c>
-      <c r="AE25" s="44">
+      <c r="AE25" s="40">
         <v>0.91</v>
       </c>
-      <c r="AF25" s="44">
+      <c r="AF25" s="40">
         <v>2</v>
       </c>
-      <c r="AG25" s="54" t="s">
-        <v>101</v>
+      <c r="AG25" s="50" t="s">
+        <v>94</v>
       </c>
       <c r="AH25" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI25" s="45">
+        <v>115</v>
+      </c>
+      <c r="AI25" s="41">
         <v>16820</v>
       </c>
       <c r="AJ25" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK25" s="52">
+        <v>113</v>
+      </c>
+      <c r="AK25" s="48">
         <v>74597.33</v>
       </c>
-      <c r="AL25" s="51">
+      <c r="AL25" s="47">
         <v>0.1</v>
       </c>
-      <c r="AM25" s="51">
+      <c r="AM25" s="47">
         <v>5.5</v>
       </c>
       <c r="AN25" s="13">
         <v>500</v>
       </c>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="36"/>
-      <c r="AQ25" s="51">
+      <c r="AO25" s="47"/>
+      <c r="AP25" s="47"/>
+      <c r="AQ25" s="47">
         <v>3282</v>
       </c>
-      <c r="AR25" s="51">
+      <c r="AR25" s="47">
         <v>1044</v>
       </c>
       <c r="AS25" s="13">
         <v>640000</v>
       </c>
-      <c r="AT25" s="51">
+      <c r="AT25" s="47">
         <v>756000</v>
       </c>
       <c r="AU25" s="13">
@@ -4130,91 +4107,91 @@
       <c r="A26" s="30">
         <v>25</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40">
         <v>77.3</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="40">
         <v>77.599999999999994</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="40">
         <v>80.400000000000006</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="44">
+      <c r="N26" s="40">
         <v>0.73</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="40">
         <v>44900</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="40">
         <v>316</v>
       </c>
       <c r="Q26" s="1">
         <v>24</v>
       </c>
-      <c r="R26" s="44">
+      <c r="R26" s="40">
         <v>1800</v>
       </c>
-      <c r="S26" s="44">
+      <c r="S26" s="40">
         <v>1.5</v>
       </c>
-      <c r="T26" s="44">
+      <c r="T26" s="40">
         <v>5</v>
       </c>
-      <c r="U26" s="44">
+      <c r="U26" s="40">
         <v>50</v>
       </c>
-      <c r="V26" s="44">
+      <c r="V26" s="40">
         <v>2700</v>
       </c>
-      <c r="W26" s="45">
+      <c r="W26" s="32">
         <v>0.5</v>
       </c>
-      <c r="X26" s="44">
+      <c r="X26" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y26" s="44">
+      <c r="Y26" s="1">
         <v>40</v>
       </c>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44">
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40">
         <v>16</v>
       </c>
-      <c r="AB26" s="44">
+      <c r="AB26" s="40">
         <v>14</v>
       </c>
-      <c r="AC26" s="44">
+      <c r="AC26" s="40">
         <v>2070</v>
       </c>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="54"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="50"/>
       <c r="AH26" s="31"/>
-      <c r="AI26" s="45">
+      <c r="AI26" s="41">
         <v>16770</v>
       </c>
       <c r="AJ26" s="33"/>
-      <c r="AK26" s="53"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="51"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="47"/>
+      <c r="AM26" s="47"/>
       <c r="AN26" s="13"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="36"/>
-      <c r="AQ26" s="51"/>
-      <c r="AR26" s="51"/>
+      <c r="AO26" s="47"/>
+      <c r="AP26" s="47"/>
+      <c r="AQ26" s="47"/>
+      <c r="AR26" s="47"/>
       <c r="AS26" s="13"/>
-      <c r="AT26" s="51"/>
+      <c r="AT26" s="47"/>
       <c r="AU26" s="13"/>
       <c r="AV26" s="13"/>
       <c r="AW26" s="13"/>
@@ -4223,135 +4200,135 @@
       <c r="A27" s="30">
         <v>26</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="40">
         <v>56966.400000000001</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="40">
         <v>41400</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="40">
         <v>45438.12</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="40">
         <v>77.400000000000006</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="40">
         <v>77.55</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G27" s="40">
         <v>78.150000000000006</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="40">
         <v>80.150000000000006</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="40">
         <v>11.2</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="40">
         <v>365</v>
       </c>
-      <c r="K27" s="44">
+      <c r="K27" s="40">
         <v>99645</v>
       </c>
-      <c r="L27" s="44">
+      <c r="L27" s="40">
         <v>7283.41</v>
       </c>
       <c r="M27" s="1">
         <v>1561</v>
       </c>
-      <c r="N27" s="44">
+      <c r="N27" s="40">
         <v>0.7</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="40">
         <v>43800</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="40">
         <v>305</v>
       </c>
       <c r="Q27" s="1">
         <v>25</v>
       </c>
-      <c r="R27" s="44">
+      <c r="R27" s="40">
         <v>1800</v>
       </c>
-      <c r="S27" s="44">
+      <c r="S27" s="40">
         <v>1.5</v>
       </c>
-      <c r="T27" s="44">
+      <c r="T27" s="40">
         <v>5</v>
       </c>
-      <c r="U27" s="44">
+      <c r="U27" s="40">
         <v>50</v>
       </c>
-      <c r="V27" s="44">
+      <c r="V27" s="40">
         <v>2700</v>
       </c>
-      <c r="W27" s="45">
+      <c r="W27" s="32">
         <v>0.5</v>
       </c>
-      <c r="X27" s="44">
+      <c r="X27" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y27" s="44">
+      <c r="Y27" s="1">
         <v>40</v>
       </c>
-      <c r="Z27" s="44">
+      <c r="Z27" s="40">
         <v>14</v>
       </c>
-      <c r="AA27" s="44">
+      <c r="AA27" s="40">
         <v>16</v>
       </c>
-      <c r="AB27" s="44">
+      <c r="AB27" s="40">
         <v>14</v>
       </c>
-      <c r="AC27" s="44">
+      <c r="AC27" s="40">
         <v>2026</v>
       </c>
-      <c r="AD27" s="44">
+      <c r="AD27" s="40">
         <v>240</v>
       </c>
-      <c r="AE27" s="44">
+      <c r="AE27" s="40">
         <v>0.91</v>
       </c>
-      <c r="AF27" s="44">
+      <c r="AF27" s="40">
         <v>3</v>
       </c>
-      <c r="AG27" s="54" t="s">
-        <v>101</v>
+      <c r="AG27" s="50" t="s">
+        <v>94</v>
       </c>
       <c r="AH27" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI27" s="45">
+        <v>116</v>
+      </c>
+      <c r="AI27" s="41">
         <v>16820</v>
       </c>
       <c r="AJ27" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK27" s="53">
+        <v>113</v>
+      </c>
+      <c r="AK27" s="49">
         <v>79716</v>
       </c>
-      <c r="AL27" s="51">
+      <c r="AL27" s="47">
         <v>0.15</v>
       </c>
-      <c r="AM27" s="51">
+      <c r="AM27" s="47">
         <v>5.4</v>
       </c>
       <c r="AN27" s="13">
         <v>420</v>
       </c>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="51">
+      <c r="AO27" s="47"/>
+      <c r="AP27" s="47"/>
+      <c r="AQ27" s="47">
         <v>6000</v>
       </c>
-      <c r="AR27" s="51">
+      <c r="AR27" s="47">
         <v>2064</v>
       </c>
       <c r="AS27" s="13">
         <v>598000</v>
       </c>
-      <c r="AT27" s="51">
+      <c r="AT27" s="47">
         <v>690200</v>
       </c>
       <c r="AU27" s="12">
@@ -4368,90 +4345,90 @@
       <c r="A28" s="30">
         <v>27</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44">
+      <c r="B28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40">
         <v>77.400000000000006</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="40">
         <v>77.83</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="40">
         <v>78.5</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="40">
         <v>80.5</v>
       </c>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="44">
+      <c r="N28" s="40">
         <v>0.7</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="40">
         <v>43486</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="40">
         <v>315</v>
       </c>
       <c r="Q28" s="1">
         <v>20</v>
       </c>
-      <c r="R28" s="44">
+      <c r="R28" s="40">
         <v>1800</v>
       </c>
-      <c r="S28" s="44">
+      <c r="S28" s="40">
         <v>1.5</v>
       </c>
-      <c r="T28" s="44">
+      <c r="T28" s="40">
         <v>5</v>
       </c>
-      <c r="U28" s="44">
+      <c r="U28" s="40">
         <v>50</v>
       </c>
-      <c r="V28" s="44">
+      <c r="V28" s="40">
         <v>2700</v>
       </c>
-      <c r="W28" s="45">
+      <c r="W28" s="32">
         <v>0.5</v>
       </c>
-      <c r="X28" s="44">
+      <c r="X28" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y28" s="44">
+      <c r="Y28" s="1">
         <v>40</v>
       </c>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44">
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40">
         <v>16</v>
       </c>
-      <c r="AB28" s="44">
+      <c r="AB28" s="40">
         <v>14</v>
       </c>
-      <c r="AC28" s="44">
+      <c r="AC28" s="40">
         <v>1605</v>
       </c>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="54"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="50"/>
       <c r="AH28" s="31"/>
-      <c r="AI28" s="45">
+      <c r="AI28" s="41">
         <v>17007</v>
       </c>
       <c r="AJ28" s="33"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="51"/>
-      <c r="AM28" s="51"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="47"/>
+      <c r="AM28" s="47"/>
       <c r="AN28" s="13"/>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="36"/>
-      <c r="AQ28" s="51"/>
-      <c r="AR28" s="51"/>
+      <c r="AO28" s="47"/>
+      <c r="AP28" s="47"/>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="47"/>
       <c r="AS28" s="13"/>
-      <c r="AT28" s="51"/>
+      <c r="AT28" s="47"/>
       <c r="AU28" s="13"/>
       <c r="AV28" s="13"/>
       <c r="AW28" s="13"/>
@@ -4460,91 +4437,91 @@
       <c r="A29" s="30">
         <v>28</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44">
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40">
         <v>77.5</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="40">
         <v>77.8</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="40">
         <v>78.5</v>
       </c>
-      <c r="H29" s="44">
+      <c r="H29" s="40">
         <v>80.400000000000006</v>
       </c>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="44">
+      <c r="N29" s="40">
         <v>0.7</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="40">
         <v>49114</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="40">
         <v>156</v>
       </c>
       <c r="Q29" s="1">
         <v>26</v>
       </c>
-      <c r="R29" s="44">
+      <c r="R29" s="40">
         <v>1800</v>
       </c>
-      <c r="S29" s="44">
+      <c r="S29" s="40">
         <v>1.5</v>
       </c>
-      <c r="T29" s="44">
+      <c r="T29" s="40">
         <v>5</v>
       </c>
-      <c r="U29" s="44">
+      <c r="U29" s="40">
         <v>50</v>
       </c>
-      <c r="V29" s="44">
+      <c r="V29" s="40">
         <v>2700</v>
       </c>
-      <c r="W29" s="44">
+      <c r="W29" s="1">
         <v>0.6</v>
       </c>
-      <c r="X29" s="44">
+      <c r="X29" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y29" s="44">
+      <c r="Y29" s="1">
         <v>40</v>
       </c>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44">
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40">
         <v>16</v>
       </c>
-      <c r="AB29" s="44">
+      <c r="AB29" s="40">
         <v>14</v>
       </c>
-      <c r="AC29" s="44">
+      <c r="AC29" s="40">
         <v>1777</v>
       </c>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="54"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="40"/>
+      <c r="AF29" s="40"/>
+      <c r="AG29" s="50"/>
       <c r="AH29" s="31"/>
-      <c r="AI29" s="45">
+      <c r="AI29" s="41">
         <v>17222</v>
       </c>
       <c r="AJ29" s="33"/>
-      <c r="AK29" s="53"/>
-      <c r="AL29" s="51"/>
-      <c r="AM29" s="51"/>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="47"/>
+      <c r="AM29" s="47"/>
       <c r="AN29" s="13"/>
-      <c r="AO29" s="36"/>
-      <c r="AP29" s="36"/>
-      <c r="AQ29" s="51"/>
-      <c r="AR29" s="51"/>
+      <c r="AO29" s="47"/>
+      <c r="AP29" s="47"/>
+      <c r="AQ29" s="47"/>
+      <c r="AR29" s="47"/>
       <c r="AS29" s="13"/>
-      <c r="AT29" s="51"/>
+      <c r="AT29" s="47"/>
       <c r="AU29" s="13"/>
       <c r="AV29" s="13"/>
       <c r="AW29" s="13"/>
@@ -4553,91 +4530,91 @@
       <c r="A30" s="30">
         <v>29</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44">
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40">
         <v>75</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="40">
         <v>76.5</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="40">
         <v>78.3</v>
       </c>
-      <c r="H30" s="44">
+      <c r="H30" s="40">
         <v>89.4</v>
       </c>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="44">
+      <c r="N30" s="40">
         <v>0.76</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="40">
         <v>46340</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="40">
         <v>180</v>
       </c>
       <c r="Q30" s="1">
         <v>20</v>
       </c>
-      <c r="R30" s="44">
+      <c r="R30" s="40">
         <v>1800</v>
       </c>
-      <c r="S30" s="44">
+      <c r="S30" s="40">
         <v>1.5</v>
       </c>
-      <c r="T30" s="44">
+      <c r="T30" s="40">
         <v>5</v>
       </c>
-      <c r="U30" s="44">
+      <c r="U30" s="40">
         <v>50</v>
       </c>
-      <c r="V30" s="44">
+      <c r="V30" s="40">
         <v>2700</v>
       </c>
-      <c r="W30" s="44">
+      <c r="W30" s="1">
         <v>0.6</v>
       </c>
-      <c r="X30" s="44">
+      <c r="X30" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y30" s="44">
+      <c r="Y30" s="1">
         <v>40</v>
       </c>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="44">
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40">
         <v>16</v>
       </c>
-      <c r="AB30" s="44">
+      <c r="AB30" s="40">
         <v>14</v>
       </c>
-      <c r="AC30" s="44">
+      <c r="AC30" s="40">
         <v>1689</v>
       </c>
-      <c r="AD30" s="44"/>
-      <c r="AE30" s="44"/>
-      <c r="AF30" s="44"/>
-      <c r="AG30" s="54"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="40"/>
+      <c r="AG30" s="50"/>
       <c r="AH30" s="31"/>
-      <c r="AI30" s="45">
+      <c r="AI30" s="41">
         <v>17200</v>
       </c>
       <c r="AJ30" s="33"/>
-      <c r="AK30" s="53"/>
-      <c r="AL30" s="51"/>
-      <c r="AM30" s="51"/>
+      <c r="AK30" s="49"/>
+      <c r="AL30" s="47"/>
+      <c r="AM30" s="47"/>
       <c r="AN30" s="13"/>
-      <c r="AO30" s="36"/>
-      <c r="AP30" s="36"/>
-      <c r="AQ30" s="51"/>
-      <c r="AR30" s="51"/>
+      <c r="AO30" s="47"/>
+      <c r="AP30" s="47"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="47"/>
       <c r="AS30" s="13"/>
-      <c r="AT30" s="51"/>
+      <c r="AT30" s="47"/>
       <c r="AU30" s="13"/>
       <c r="AV30" s="13"/>
       <c r="AW30" s="13"/>
@@ -4646,91 +4623,91 @@
       <c r="A31" s="30">
         <v>30</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40">
         <v>77.599999999999994</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F31" s="40">
         <v>78.099999999999994</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="H31" s="44">
+      <c r="H31" s="40">
         <v>80.599999999999994</v>
       </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="44">
+      <c r="N31" s="40">
         <v>0.78</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="40">
         <v>48633</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="40">
         <v>146</v>
       </c>
       <c r="Q31" s="1">
         <v>29</v>
       </c>
-      <c r="R31" s="44">
+      <c r="R31" s="40">
         <v>1800</v>
       </c>
-      <c r="S31" s="44">
+      <c r="S31" s="40">
         <v>1.5</v>
       </c>
-      <c r="T31" s="44">
+      <c r="T31" s="40">
         <v>5</v>
       </c>
-      <c r="U31" s="44">
+      <c r="U31" s="40">
         <v>50</v>
       </c>
-      <c r="V31" s="44">
+      <c r="V31" s="40">
         <v>2700</v>
       </c>
-      <c r="W31" s="44">
+      <c r="W31" s="1">
         <v>0.6</v>
       </c>
-      <c r="X31" s="44">
+      <c r="X31" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y31" s="44">
+      <c r="Y31" s="1">
         <v>40</v>
       </c>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44">
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40">
         <v>16</v>
       </c>
-      <c r="AB31" s="44">
+      <c r="AB31" s="40">
         <v>14</v>
       </c>
-      <c r="AC31" s="44">
+      <c r="AC31" s="40">
         <v>2031</v>
       </c>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="54"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="40"/>
+      <c r="AG31" s="50"/>
       <c r="AH31" s="31"/>
-      <c r="AI31" s="45">
+      <c r="AI31" s="41">
         <v>16766</v>
       </c>
       <c r="AJ31" s="33"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="51"/>
-      <c r="AM31" s="51"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="47"/>
       <c r="AN31" s="13"/>
-      <c r="AO31" s="36"/>
-      <c r="AP31" s="36"/>
-      <c r="AQ31" s="51"/>
-      <c r="AR31" s="51"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="47"/>
       <c r="AS31" s="13"/>
-      <c r="AT31" s="51"/>
+      <c r="AT31" s="47"/>
       <c r="AU31" s="13"/>
       <c r="AV31" s="13"/>
       <c r="AW31" s="13"/>
@@ -4739,91 +4716,91 @@
       <c r="A32" s="30">
         <v>31</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40">
         <v>77.7</v>
       </c>
-      <c r="F32" s="44">
+      <c r="F32" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="G32" s="44">
+      <c r="G32" s="40">
         <v>78.8</v>
       </c>
-      <c r="H32" s="44">
+      <c r="H32" s="40">
         <v>83.8</v>
       </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="44">
+      <c r="N32" s="40">
         <v>0.83</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="40">
         <v>43000</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="40">
         <v>111</v>
       </c>
       <c r="Q32" s="1">
         <v>20</v>
       </c>
-      <c r="R32" s="44">
+      <c r="R32" s="40">
         <v>1800</v>
       </c>
-      <c r="S32" s="44">
+      <c r="S32" s="40">
         <v>1.5</v>
       </c>
-      <c r="T32" s="44">
+      <c r="T32" s="40">
         <v>5</v>
       </c>
-      <c r="U32" s="44">
+      <c r="U32" s="40">
         <v>50</v>
       </c>
-      <c r="V32" s="44">
+      <c r="V32" s="40">
         <v>2700</v>
       </c>
-      <c r="W32" s="44">
+      <c r="W32" s="1">
         <v>0.6</v>
       </c>
-      <c r="X32" s="44">
+      <c r="X32" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y32" s="44">
+      <c r="Y32" s="1">
         <v>40</v>
       </c>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44">
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40">
         <v>16</v>
       </c>
-      <c r="AB32" s="44">
+      <c r="AB32" s="40">
         <v>14</v>
       </c>
-      <c r="AC32" s="44">
+      <c r="AC32" s="40">
         <v>1505</v>
       </c>
-      <c r="AD32" s="44"/>
-      <c r="AE32" s="44"/>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="54"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="40"/>
+      <c r="AG32" s="50"/>
       <c r="AH32" s="31"/>
-      <c r="AI32" s="45">
+      <c r="AI32" s="41">
         <v>16462</v>
       </c>
       <c r="AJ32" s="33"/>
-      <c r="AK32" s="53"/>
-      <c r="AL32" s="51"/>
-      <c r="AM32" s="51"/>
+      <c r="AK32" s="49"/>
+      <c r="AL32" s="47"/>
+      <c r="AM32" s="47"/>
       <c r="AN32" s="13"/>
-      <c r="AO32" s="36"/>
-      <c r="AP32" s="36"/>
-      <c r="AQ32" s="51"/>
-      <c r="AR32" s="51"/>
+      <c r="AO32" s="47"/>
+      <c r="AP32" s="47"/>
+      <c r="AQ32" s="47"/>
+      <c r="AR32" s="47"/>
       <c r="AS32" s="13"/>
-      <c r="AT32" s="51"/>
+      <c r="AT32" s="47"/>
       <c r="AU32" s="13"/>
       <c r="AV32" s="13"/>
       <c r="AW32" s="13"/>
@@ -4832,91 +4809,91 @@
       <c r="A33" s="30">
         <v>32</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44">
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40">
         <v>77.8</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="40">
         <v>80</v>
       </c>
-      <c r="H33" s="44">
+      <c r="H33" s="40">
         <v>81</v>
       </c>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="44">
+      <c r="N33" s="40">
         <v>0.66</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="40">
         <v>48000</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="40">
         <v>111</v>
       </c>
       <c r="Q33" s="1">
         <v>26</v>
       </c>
-      <c r="R33" s="44">
+      <c r="R33" s="40">
         <v>1800</v>
       </c>
-      <c r="S33" s="44">
+      <c r="S33" s="40">
         <v>1.5</v>
       </c>
-      <c r="T33" s="44">
+      <c r="T33" s="40">
         <v>5</v>
       </c>
-      <c r="U33" s="44">
+      <c r="U33" s="40">
         <v>50</v>
       </c>
-      <c r="V33" s="44">
+      <c r="V33" s="40">
         <v>2700</v>
       </c>
-      <c r="W33" s="44">
+      <c r="W33" s="1">
         <v>0.6</v>
       </c>
-      <c r="X33" s="44">
+      <c r="X33" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y33" s="44">
+      <c r="Y33" s="1">
         <v>40</v>
       </c>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44">
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40">
         <v>16</v>
       </c>
-      <c r="AB33" s="44">
+      <c r="AB33" s="40">
         <v>14</v>
       </c>
-      <c r="AC33" s="44">
+      <c r="AC33" s="40">
         <v>2328</v>
       </c>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="44"/>
-      <c r="AF33" s="44"/>
-      <c r="AG33" s="54"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="40"/>
+      <c r="AG33" s="50"/>
       <c r="AH33" s="31"/>
-      <c r="AI33" s="45">
+      <c r="AI33" s="41">
         <v>18726</v>
       </c>
       <c r="AJ33" s="33"/>
-      <c r="AK33" s="53"/>
-      <c r="AL33" s="51"/>
-      <c r="AM33" s="51"/>
+      <c r="AK33" s="49"/>
+      <c r="AL33" s="47"/>
+      <c r="AM33" s="47"/>
       <c r="AN33" s="13"/>
-      <c r="AO33" s="36"/>
-      <c r="AP33" s="36"/>
-      <c r="AQ33" s="51"/>
-      <c r="AR33" s="51"/>
+      <c r="AO33" s="47"/>
+      <c r="AP33" s="47"/>
+      <c r="AQ33" s="47"/>
+      <c r="AR33" s="47"/>
       <c r="AS33" s="13"/>
-      <c r="AT33" s="51"/>
+      <c r="AT33" s="47"/>
       <c r="AU33" s="13"/>
       <c r="AV33" s="13"/>
       <c r="AW33" s="13"/>
@@ -4925,91 +4902,91 @@
       <c r="A34" s="30">
         <v>33</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40">
         <v>77.349999999999994</v>
       </c>
-      <c r="F34" s="44">
+      <c r="F34" s="40">
         <v>77.599999999999994</v>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="H34" s="44">
+      <c r="H34" s="40">
         <v>80.400000000000006</v>
       </c>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="44">
+      <c r="N34" s="40">
         <v>0.63</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="40">
         <v>49000</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="40">
         <v>118</v>
       </c>
       <c r="Q34" s="1">
         <v>20</v>
       </c>
-      <c r="R34" s="44">
+      <c r="R34" s="40">
         <v>1800</v>
       </c>
-      <c r="S34" s="44">
+      <c r="S34" s="40">
         <v>1.5</v>
       </c>
-      <c r="T34" s="44">
+      <c r="T34" s="40">
         <v>5</v>
       </c>
-      <c r="U34" s="44">
+      <c r="U34" s="40">
         <v>50</v>
       </c>
-      <c r="V34" s="44">
+      <c r="V34" s="40">
         <v>2700</v>
       </c>
-      <c r="W34" s="44">
+      <c r="W34" s="1">
         <v>0.6</v>
       </c>
-      <c r="X34" s="44">
+      <c r="X34" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y34" s="44">
+      <c r="Y34" s="1">
         <v>40</v>
       </c>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="44">
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40">
         <v>16</v>
       </c>
-      <c r="AB34" s="44">
+      <c r="AB34" s="40">
         <v>14</v>
       </c>
-      <c r="AC34" s="44">
+      <c r="AC34" s="40">
         <v>1777</v>
       </c>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="44"/>
-      <c r="AF34" s="44"/>
-      <c r="AG34" s="54"/>
+      <c r="AD34" s="40"/>
+      <c r="AE34" s="40"/>
+      <c r="AF34" s="40"/>
+      <c r="AG34" s="50"/>
       <c r="AH34" s="31"/>
-      <c r="AI34" s="45">
+      <c r="AI34" s="41">
         <v>19700</v>
       </c>
       <c r="AJ34" s="33"/>
-      <c r="AK34" s="53"/>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="51"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="47"/>
+      <c r="AM34" s="47"/>
       <c r="AN34" s="13"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36"/>
-      <c r="AQ34" s="51"/>
-      <c r="AR34" s="51"/>
+      <c r="AO34" s="47"/>
+      <c r="AP34" s="47"/>
+      <c r="AQ34" s="47"/>
+      <c r="AR34" s="47"/>
       <c r="AS34" s="13"/>
-      <c r="AT34" s="51"/>
+      <c r="AT34" s="47"/>
       <c r="AU34" s="13"/>
       <c r="AV34" s="13"/>
       <c r="AW34" s="13"/>
@@ -5018,91 +4995,91 @@
       <c r="A35" s="30">
         <v>34</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40">
         <v>77.64</v>
       </c>
-      <c r="F35" s="44">
+      <c r="F35" s="40">
         <v>77.849999999999994</v>
       </c>
-      <c r="G35" s="44">
+      <c r="G35" s="40">
         <v>78.5</v>
       </c>
-      <c r="H35" s="44">
+      <c r="H35" s="40">
         <v>80.5</v>
       </c>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="44">
+      <c r="N35" s="40">
         <v>0.79</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="40">
         <v>43100</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="40">
         <v>100</v>
       </c>
       <c r="Q35" s="1">
         <v>22</v>
       </c>
-      <c r="R35" s="44">
+      <c r="R35" s="40">
         <v>1800</v>
       </c>
-      <c r="S35" s="44">
+      <c r="S35" s="40">
         <v>1.5</v>
       </c>
-      <c r="T35" s="44">
+      <c r="T35" s="40">
         <v>5</v>
       </c>
-      <c r="U35" s="44">
+      <c r="U35" s="40">
         <v>50</v>
       </c>
-      <c r="V35" s="44">
+      <c r="V35" s="40">
         <v>2700</v>
       </c>
-      <c r="W35" s="44">
+      <c r="W35" s="1">
         <v>0.6</v>
       </c>
-      <c r="X35" s="44">
+      <c r="X35" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y35" s="44">
+      <c r="Y35" s="1">
         <v>40</v>
       </c>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="44">
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40">
         <v>16</v>
       </c>
-      <c r="AB35" s="44">
+      <c r="AB35" s="40">
         <v>14</v>
       </c>
-      <c r="AC35" s="44">
+      <c r="AC35" s="40">
         <v>1636</v>
       </c>
-      <c r="AD35" s="44"/>
-      <c r="AE35" s="44"/>
-      <c r="AF35" s="44"/>
-      <c r="AG35" s="54"/>
+      <c r="AD35" s="40"/>
+      <c r="AE35" s="40"/>
+      <c r="AF35" s="40"/>
+      <c r="AG35" s="50"/>
       <c r="AH35" s="31"/>
-      <c r="AI35" s="45">
+      <c r="AI35" s="41">
         <v>17600</v>
       </c>
       <c r="AJ35" s="33"/>
-      <c r="AK35" s="53"/>
-      <c r="AL35" s="51"/>
-      <c r="AM35" s="51"/>
+      <c r="AK35" s="49"/>
+      <c r="AL35" s="47"/>
+      <c r="AM35" s="47"/>
       <c r="AN35" s="13"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="51"/>
-      <c r="AR35" s="51"/>
+      <c r="AO35" s="47"/>
+      <c r="AP35" s="47"/>
+      <c r="AQ35" s="47"/>
+      <c r="AR35" s="47"/>
       <c r="AS35" s="13"/>
-      <c r="AT35" s="51"/>
+      <c r="AT35" s="47"/>
       <c r="AU35" s="13"/>
       <c r="AV35" s="13"/>
       <c r="AW35" s="13"/>
@@ -5111,91 +5088,91 @@
       <c r="A36" s="30">
         <v>35</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40">
         <v>77.73</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="40">
         <v>78.400000000000006</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="40">
         <v>78.8</v>
       </c>
-      <c r="H36" s="44">
+      <c r="H36" s="40">
         <v>80.8</v>
       </c>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="44">
+      <c r="N36" s="40">
         <v>0.77</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="40">
         <v>46300</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="40">
         <v>154</v>
       </c>
       <c r="Q36" s="1">
         <v>29</v>
       </c>
-      <c r="R36" s="44">
+      <c r="R36" s="40">
         <v>1800</v>
       </c>
-      <c r="S36" s="44">
+      <c r="S36" s="40">
         <v>1.5</v>
       </c>
-      <c r="T36" s="44">
+      <c r="T36" s="40">
         <v>5</v>
       </c>
-      <c r="U36" s="44">
+      <c r="U36" s="40">
         <v>50</v>
       </c>
-      <c r="V36" s="44">
+      <c r="V36" s="40">
         <v>2700</v>
       </c>
-      <c r="W36" s="44">
+      <c r="W36" s="1">
         <v>0.6</v>
       </c>
-      <c r="X36" s="44">
+      <c r="X36" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y36" s="44">
+      <c r="Y36" s="1">
         <v>40</v>
       </c>
-      <c r="Z36" s="44"/>
-      <c r="AA36" s="44">
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40">
         <v>16</v>
       </c>
-      <c r="AB36" s="44">
+      <c r="AB36" s="40">
         <v>14</v>
       </c>
-      <c r="AC36" s="44">
+      <c r="AC36" s="40">
         <v>1780</v>
       </c>
-      <c r="AD36" s="44"/>
-      <c r="AE36" s="44"/>
-      <c r="AF36" s="44"/>
-      <c r="AG36" s="54"/>
+      <c r="AD36" s="40"/>
+      <c r="AE36" s="40"/>
+      <c r="AF36" s="40"/>
+      <c r="AG36" s="50"/>
       <c r="AH36" s="31"/>
-      <c r="AI36" s="45">
+      <c r="AI36" s="41">
         <v>16300</v>
       </c>
       <c r="AJ36" s="33"/>
-      <c r="AK36" s="53"/>
-      <c r="AL36" s="51"/>
-      <c r="AM36" s="51"/>
+      <c r="AK36" s="49"/>
+      <c r="AL36" s="47"/>
+      <c r="AM36" s="47"/>
       <c r="AN36" s="13"/>
-      <c r="AO36" s="36"/>
-      <c r="AP36" s="36"/>
-      <c r="AQ36" s="51"/>
-      <c r="AR36" s="51"/>
+      <c r="AO36" s="47"/>
+      <c r="AP36" s="47"/>
+      <c r="AQ36" s="47"/>
+      <c r="AR36" s="47"/>
       <c r="AS36" s="13"/>
-      <c r="AT36" s="51"/>
+      <c r="AT36" s="47"/>
       <c r="AU36" s="13"/>
       <c r="AV36" s="13"/>
       <c r="AW36" s="13"/>
@@ -5204,91 +5181,91 @@
       <c r="A37" s="30">
         <v>36</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44">
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40">
         <v>77.83</v>
       </c>
-      <c r="F37" s="44">
+      <c r="F37" s="40">
         <v>78.5</v>
       </c>
-      <c r="G37" s="44">
+      <c r="G37" s="40">
         <v>80.099999999999994</v>
       </c>
-      <c r="H37" s="44">
+      <c r="H37" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="44">
+      <c r="N37" s="40">
         <v>0.87</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="40">
         <v>43801</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="40">
         <v>116</v>
       </c>
       <c r="Q37" s="1">
         <v>24</v>
       </c>
-      <c r="R37" s="44">
+      <c r="R37" s="40">
         <v>1800</v>
       </c>
-      <c r="S37" s="44">
+      <c r="S37" s="40">
         <v>1.5</v>
       </c>
-      <c r="T37" s="44">
+      <c r="T37" s="40">
         <v>5</v>
       </c>
-      <c r="U37" s="44">
+      <c r="U37" s="40">
         <v>50</v>
       </c>
-      <c r="V37" s="44">
+      <c r="V37" s="40">
         <v>2700</v>
       </c>
-      <c r="W37" s="44">
+      <c r="W37" s="1">
         <v>0.6</v>
       </c>
-      <c r="X37" s="44">
+      <c r="X37" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y37" s="44">
+      <c r="Y37" s="1">
         <v>40</v>
       </c>
-      <c r="Z37" s="44"/>
-      <c r="AA37" s="44">
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40">
         <v>16</v>
       </c>
-      <c r="AB37" s="44">
+      <c r="AB37" s="40">
         <v>14</v>
       </c>
-      <c r="AC37" s="44">
+      <c r="AC37" s="40">
         <v>1387</v>
       </c>
-      <c r="AD37" s="44"/>
-      <c r="AE37" s="44"/>
-      <c r="AF37" s="44"/>
-      <c r="AG37" s="54"/>
+      <c r="AD37" s="40"/>
+      <c r="AE37" s="40"/>
+      <c r="AF37" s="40"/>
+      <c r="AG37" s="50"/>
       <c r="AH37" s="31"/>
-      <c r="AI37" s="45">
+      <c r="AI37" s="41">
         <v>16702</v>
       </c>
       <c r="AJ37" s="33"/>
-      <c r="AK37" s="53"/>
-      <c r="AL37" s="51"/>
-      <c r="AM37" s="51"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="47"/>
+      <c r="AM37" s="47"/>
       <c r="AN37" s="13"/>
-      <c r="AO37" s="36"/>
-      <c r="AP37" s="36"/>
-      <c r="AQ37" s="51"/>
-      <c r="AR37" s="51"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="47"/>
+      <c r="AQ37" s="47"/>
+      <c r="AR37" s="47"/>
       <c r="AS37" s="13"/>
-      <c r="AT37" s="51"/>
+      <c r="AT37" s="47"/>
       <c r="AU37" s="13"/>
       <c r="AV37" s="13"/>
       <c r="AW37" s="13"/>
@@ -5297,91 +5274,91 @@
       <c r="A38" s="30">
         <v>37</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44">
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40">
         <v>77.45</v>
       </c>
-      <c r="F38" s="44">
+      <c r="F38" s="40">
         <v>77.8</v>
       </c>
-      <c r="G38" s="44">
+      <c r="G38" s="40">
         <v>78.5</v>
       </c>
-      <c r="H38" s="44">
+      <c r="H38" s="40">
         <v>80.5</v>
       </c>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="44">
+      <c r="N38" s="40">
         <v>0.73</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="40">
         <v>43100</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="40">
         <v>350</v>
       </c>
       <c r="Q38" s="1">
         <v>22</v>
       </c>
-      <c r="R38" s="44">
+      <c r="R38" s="40">
         <v>1800</v>
       </c>
-      <c r="S38" s="44">
+      <c r="S38" s="40">
         <v>1.5</v>
       </c>
-      <c r="T38" s="44">
+      <c r="T38" s="40">
         <v>5</v>
       </c>
-      <c r="U38" s="44">
+      <c r="U38" s="40">
         <v>50</v>
       </c>
-      <c r="V38" s="44">
+      <c r="V38" s="40">
         <v>2700</v>
       </c>
-      <c r="W38" s="44">
+      <c r="W38" s="1">
         <v>0.6</v>
       </c>
-      <c r="X38" s="44">
+      <c r="X38" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y38" s="44">
+      <c r="Y38" s="1">
         <v>40</v>
       </c>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="44">
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40">
         <v>16</v>
       </c>
-      <c r="AB38" s="44">
+      <c r="AB38" s="40">
         <v>14</v>
       </c>
-      <c r="AC38" s="44">
+      <c r="AC38" s="40">
         <v>1622</v>
       </c>
-      <c r="AD38" s="44"/>
-      <c r="AE38" s="44"/>
-      <c r="AF38" s="44"/>
-      <c r="AG38" s="54"/>
+      <c r="AD38" s="40"/>
+      <c r="AE38" s="40"/>
+      <c r="AF38" s="40"/>
+      <c r="AG38" s="50"/>
       <c r="AH38" s="31"/>
-      <c r="AI38" s="45">
+      <c r="AI38" s="41">
         <v>19200</v>
       </c>
       <c r="AJ38" s="33"/>
-      <c r="AK38" s="53"/>
-      <c r="AL38" s="51"/>
-      <c r="AM38" s="51"/>
+      <c r="AK38" s="49"/>
+      <c r="AL38" s="47"/>
+      <c r="AM38" s="47"/>
       <c r="AN38" s="13"/>
-      <c r="AO38" s="36"/>
-      <c r="AP38" s="36"/>
-      <c r="AQ38" s="51"/>
-      <c r="AR38" s="51"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="47"/>
+      <c r="AR38" s="47"/>
       <c r="AS38" s="13"/>
-      <c r="AT38" s="51"/>
+      <c r="AT38" s="47"/>
       <c r="AU38" s="13"/>
       <c r="AV38" s="13"/>
       <c r="AW38" s="13"/>
@@ -5390,91 +5367,91 @@
       <c r="A39" s="30">
         <v>38</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40">
         <v>77.569999999999993</v>
       </c>
-      <c r="F39" s="44">
+      <c r="F39" s="40">
         <v>78</v>
       </c>
-      <c r="G39" s="44">
+      <c r="G39" s="40">
         <v>78.599999999999994</v>
       </c>
-      <c r="H39" s="44">
+      <c r="H39" s="40">
         <v>80.599999999999994</v>
       </c>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="44">
+      <c r="N39" s="40">
         <v>0.76</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="40">
         <v>44010</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39" s="40">
         <v>311</v>
       </c>
       <c r="Q39" s="1">
         <v>29</v>
       </c>
-      <c r="R39" s="44">
+      <c r="R39" s="40">
         <v>1800</v>
       </c>
-      <c r="S39" s="44">
+      <c r="S39" s="40">
         <v>1.5</v>
       </c>
-      <c r="T39" s="44">
+      <c r="T39" s="40">
         <v>5</v>
       </c>
-      <c r="U39" s="44">
+      <c r="U39" s="40">
         <v>50</v>
       </c>
-      <c r="V39" s="44">
+      <c r="V39" s="40">
         <v>2700</v>
       </c>
-      <c r="W39" s="44">
+      <c r="W39" s="1">
         <v>0.6</v>
       </c>
-      <c r="X39" s="44">
+      <c r="X39" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y39" s="44">
+      <c r="Y39" s="1">
         <v>40</v>
       </c>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44">
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40">
         <v>16</v>
       </c>
-      <c r="AB39" s="44">
+      <c r="AB39" s="40">
         <v>14</v>
       </c>
-      <c r="AC39" s="44">
+      <c r="AC39" s="40">
         <v>1755</v>
       </c>
-      <c r="AD39" s="44"/>
-      <c r="AE39" s="44"/>
-      <c r="AF39" s="44"/>
-      <c r="AG39" s="54"/>
+      <c r="AD39" s="40"/>
+      <c r="AE39" s="40"/>
+      <c r="AF39" s="40"/>
+      <c r="AG39" s="50"/>
       <c r="AH39" s="31"/>
-      <c r="AI39" s="45">
+      <c r="AI39" s="41">
         <v>17020</v>
       </c>
       <c r="AJ39" s="33"/>
-      <c r="AK39" s="53"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="51"/>
+      <c r="AK39" s="49"/>
+      <c r="AL39" s="47"/>
+      <c r="AM39" s="47"/>
       <c r="AN39" s="13"/>
-      <c r="AO39" s="36"/>
-      <c r="AP39" s="36"/>
-      <c r="AQ39" s="51"/>
-      <c r="AR39" s="51"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="47"/>
+      <c r="AR39" s="47"/>
       <c r="AS39" s="13"/>
-      <c r="AT39" s="51"/>
+      <c r="AT39" s="47"/>
       <c r="AU39" s="13"/>
       <c r="AV39" s="13"/>
       <c r="AW39" s="13"/>
@@ -5489,8 +5466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EB516A-8A54-4F13-8A2B-3B7C251AE243}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:F36"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5498,6 +5475,7 @@
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -5505,22 +5483,22 @@
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B2" s="6">
         <v>4.18</v>
@@ -5538,12 +5516,12 @@
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B3" s="6">
         <v>5.08</v>
@@ -5560,13 +5538,13 @@
         <v>4</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B4" s="6">
         <v>0.21</v>
@@ -5580,12 +5558,12 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B5" s="6">
         <v>0.21</v>
@@ -5599,12 +5577,12 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B6" s="6">
         <v>7.32</v>
@@ -5622,12 +5600,12 @@
         <v>5</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B7" s="6">
         <v>0.84</v>
@@ -5641,12 +5619,12 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B8" s="6">
         <v>0.63</v>
@@ -5660,12 +5638,12 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B9" s="6">
         <v>1.42</v>
@@ -5679,12 +5657,12 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
         <v>3.76</v>
@@ -5700,12 +5678,12 @@
         <v>4</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6">
         <v>2.09</v>
@@ -5724,7 +5702,7 @@
     </row>
     <row r="12" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B12" s="6">
         <v>1.05</v>
@@ -5742,12 +5720,12 @@
         <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B13" s="6">
         <v>0.42</v>
@@ -5761,12 +5739,12 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6">
         <v>0.84</v>
@@ -5782,12 +5760,12 @@
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B15" s="6">
         <v>0.21</v>
@@ -5803,12 +5781,12 @@
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6">
         <v>0.21</v>
@@ -5822,12 +5800,12 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B17" s="6">
         <v>0.63</v>
@@ -5843,12 +5821,12 @@
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B18" s="6">
         <v>0.42</v>
@@ -5864,12 +5842,12 @@
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B19" s="6">
         <v>0.21</v>
@@ -5883,12 +5861,12 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6">
         <v>0.21</v>
@@ -5902,12 +5880,12 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B21" s="6">
         <v>0.21</v>
@@ -5921,12 +5899,12 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B22" s="17">
         <v>0.21</v>
@@ -5940,12 +5918,33 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="11" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="O22" s="58" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B23" s="6">
         <v>10.8</v>
@@ -5959,6 +5958,25 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
+      <c r="I23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+      <c r="O23" s="58"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
@@ -5967,10 +5985,48 @@
         <f>SUM(C2:C23)</f>
         <v>55</v>
       </c>
+      <c r="I24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>24</v>
+      </c>
+      <c r="O24" s="58"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="23">
+        <v>40</v>
+      </c>
+      <c r="O25" s="58"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" ref="D26:G27" si="2">D2</f>
@@ -5993,7 +6049,7 @@
         <v>6</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J26" s="4">
         <v>0</v>
@@ -6013,7 +6069,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D27" s="13">
         <f t="shared" si="2"/>
@@ -6036,7 +6092,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J27" s="4">
         <v>0</v>
@@ -6056,7 +6112,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D28" s="9">
         <f>SUM(D4:D22)</f>
@@ -6079,7 +6135,7 @@
         <v>24</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J28" s="4">
         <v>0</v>
@@ -6100,16 +6156,16 @@
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
       <c r="D29" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H29" s="23">
         <f>SUM(D26:G28)</f>
@@ -6117,16 +6173,16 @@
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N29" s="23">
         <v>40</v>
@@ -6134,7 +6190,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -6149,18 +6205,18 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C33" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D33" s="14">
         <f>D26</f>
@@ -6177,7 +6233,7 @@
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C34" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D34" s="14">
         <f>E26</f>
@@ -6194,7 +6250,7 @@
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C35" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D35" s="14">
         <f>F26</f>
@@ -6211,7 +6267,7 @@
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C36" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D36" s="14">
         <f>G26</f>
@@ -6225,12 +6281,15 @@
         <f>G28</f>
         <v>10</v>
       </c>
-      <c r="H36" s="43">
+      <c r="H36" s="39">
         <f>SUM(D33:F36)</f>
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O22:O25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6255,24 +6314,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B2" s="24">
         <v>2200</v>
@@ -6286,7 +6345,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B3" s="24">
         <v>2900</v>
@@ -6300,7 +6359,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B4" s="24">
         <v>1600</v>
@@ -6320,24 +6379,24 @@
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B7" s="24">
         <v>1650</v>
@@ -6383,18 +6442,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B2" s="28">
         <v>1</v>
@@ -6402,7 +6461,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B3" s="28">
         <v>1.1000000000000001</v>
@@ -6410,7 +6469,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B4" s="28">
         <v>1.25</v>
@@ -6418,7 +6477,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" s="28">
         <v>1.4</v>
@@ -6426,7 +6485,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B6" s="28">
         <v>1.65</v>
@@ -6434,18 +6493,18 @@
     </row>
     <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B9" s="28">
         <v>1</v>
@@ -6453,7 +6512,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B10" s="28">
         <v>1.05</v>
@@ -6461,7 +6520,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B11" s="28">
         <v>1.1000000000000001</v>
@@ -6469,7 +6528,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B12" s="28">
         <v>1.2</v>
@@ -6477,7 +6536,7 @@
     </row>
     <row r="13" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B13" s="28">
         <v>1.2</v>
@@ -6485,7 +6544,7 @@
     </row>
     <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B14" s="28">
         <v>1.25</v>
@@ -6493,7 +6552,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B15" s="28">
         <v>1.3</v>
@@ -6501,18 +6560,18 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B18" s="28">
         <v>1</v>
@@ -6520,7 +6579,7 @@
     </row>
     <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B19" s="28">
         <v>0.9</v>
@@ -6528,7 +6587,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B20" s="28">
         <v>1.1000000000000001</v>
@@ -6536,7 +6595,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B21" s="28">
         <v>1.1000000000000001</v>
@@ -6544,7 +6603,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B22" s="28">
         <v>1.25</v>
@@ -6552,7 +6611,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B23" s="28">
         <v>1.4</v>

--- a/3ekonom/init_data.xlsx
+++ b/3ekonom/init_data.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreyA\Desktop\Сессия\DIPLOM\3ekonom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31238EDC-67E4-4902-967F-6403091126C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4848C9-9C73-4E11-A93A-55842109760A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Norm_rash" sheetId="6" r:id="rId3"/>
     <sheet name="K_1_2_3" sheetId="7" r:id="rId4"/>
+    <sheet name="Бойко" sheetId="8" r:id="rId5"/>
+    <sheet name="Бессмертный" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
     <author>AndreyA</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{CA1BA594-FAA0-4E31-98EF-FCCCA4E7980D}">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{F9E7335F-4554-425E-9A04-2245EA7FB7A6}">
       <text>
         <r>
           <rPr>
@@ -59,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{932FCE23-87B4-4030-AC57-52208944F12F}">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{53C78D58-61EA-4FF8-919A-E11ECD13EC58}">
       <text>
         <r>
           <rPr>
@@ -85,7 +87,185 @@
         </r>
       </text>
     </comment>
-    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{69A98B5F-B007-4D85-A1DF-3D23AA2340C5}">
+    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{74BBBFF6-4B14-441F-AD0F-AFDAC88E20C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>AndreyA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Вставляем значения столбца H в стобец N для того что бы программа не тянула формулы
+Далее переноси только значения таблицы</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>AndreyA</author>
+  </authors>
+  <commentList>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{9F57FDDD-F8DD-443C-BADA-1696771C683B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>AndreyA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Распределить работников по разрядов, данные столбца B и C взять с курсовой по ТПИ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{78305F87-5505-491F-96F5-4CFB4FC8E1AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>AndreyA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Зеленые ячейки считаются автоматически, по формулам</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{55CD19EC-3F03-42E6-826A-8FF54C1CAD9C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>AndreyA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Вставляем значения столбца H в стобец N для того что бы программа не тянула формулы
+Далее переноси только значения таблицы</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>AndreyA</author>
+  </authors>
+  <commentList>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{C3421E93-F51E-4877-97E3-FCE0DEA10C61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>AndreyA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Распределить работников по разрядов, данные столбца B и C взять с курсовой по ТПИ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{E98AA8C1-723E-467E-98CC-2F3BA24EEAF0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>AndreyA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Зеленые ячейки считаются автоматически, по формулам</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{0E87C79A-E666-44DB-95B5-C6B68882B8D1}">
       <text>
         <r>
           <rPr>
@@ -117,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="129">
   <si>
     <t>8. Время в наряде, ч</t>
   </si>
@@ -476,9 +656,6 @@
     <t>Автомобили-самосвалы при работе на плечах свыше 5 км</t>
   </si>
   <si>
-    <t>Автомобили-самосвалы с одним прицепом или при работе на коротких плечах (до 5 км)</t>
-  </si>
-  <si>
     <t>Автомобили-самосвалы с двумя прицепами</t>
   </si>
   <si>
@@ -600,21 +777,24 @@
     <t>До реконструкции</t>
   </si>
   <si>
-    <t>19.  Трудоемкость ТО-1 до реконструкции</t>
-  </si>
-  <si>
-    <t>20. Трудоемкость ТО-2 до реконструкции</t>
-  </si>
-  <si>
-    <t>21.Трудоемкость ТР до реконструкции</t>
-  </si>
-  <si>
     <t>40. Количество ТО-1 
 до реконструкции</t>
   </si>
   <si>
     <t>41. Количество ТО-2 
 до реконструкции</t>
+  </si>
+  <si>
+    <t>19.  Трудоемкость ТР до реконструкции</t>
+  </si>
+  <si>
+    <t>20. Трудоемкость ТО-1 до реконструкции</t>
+  </si>
+  <si>
+    <t>21.Трудоемкость ТО-2 до реконструкции</t>
+  </si>
+  <si>
+    <t>Автомобили и автобусы полноприводные</t>
   </si>
 </sst>
 </file>
@@ -795,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -916,18 +1096,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -940,15 +1113,18 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1326,26 +1502,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203DCF23-392B-4C9C-ABDB-4F797DD7D9FE}">
   <dimension ref="A1:AY39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP13" sqref="AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="10.77734375" style="46"/>
-    <col min="14" max="15" width="10.77734375" style="46"/>
-    <col min="16" max="16" width="12.21875" style="46" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="10.77734375" style="46"/>
-    <col min="26" max="32" width="10.77734375" style="46"/>
-    <col min="33" max="33" width="22.88671875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.77734375" style="45"/>
+    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.77734375" style="45"/>
+    <col min="26" max="26" width="10.77734375" style="45"/>
+    <col min="32" max="32" width="10.77734375" style="45"/>
+    <col min="33" max="33" width="22.88671875" style="45" customWidth="1"/>
     <col min="34" max="34" width="26.109375" customWidth="1"/>
-    <col min="35" max="35" width="10.77734375" style="46"/>
     <col min="36" max="36" width="20.33203125" customWidth="1"/>
-    <col min="37" max="37" width="11.88671875" style="46" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="10.77734375" style="46"/>
-    <col min="41" max="44" width="10.77734375" style="46"/>
-    <col min="46" max="46" width="12.21875" style="46" customWidth="1"/>
+    <col min="37" max="37" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="44" width="10.77734375" style="45"/>
+    <col min="46" max="46" width="12.21875" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" s="3" customFormat="1" ht="147.6" x14ac:dyDescent="0.3">
@@ -1373,47 +1547,47 @@
       <c r="H1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="P1" s="43" t="s">
-        <v>122</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="43" t="s">
-        <v>120</v>
-      </c>
       <c r="T1" s="43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U1" s="43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V1" s="43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>23</v>
@@ -1427,19 +1601,19 @@
       <c r="Z1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="43" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="AB1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="43" t="s">
+      <c r="AC1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="43" t="s">
+      <c r="AD1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="43" t="s">
+      <c r="AE1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AF1" s="43" t="s">
@@ -1451,50 +1625,50 @@
       <c r="AH1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="44" t="s">
+      <c r="AI1" s="54" t="s">
         <v>12</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL1" s="43" t="s">
+      <c r="AK1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AM1" s="43" t="s">
+      <c r="AN1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP1" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ1" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="AO1" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP1" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ1" s="43" t="s">
+      <c r="AR1" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="AR1" s="43" t="s">
+      <c r="AS1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="AT1" s="43" t="s">
-        <v>104</v>
-      </c>
       <c r="AU1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:51" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1522,37 +1696,37 @@
       <c r="H2" s="40">
         <v>83.5</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="1">
         <v>305</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="1">
         <v>29890</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="1">
         <v>971.84</v>
       </c>
       <c r="M2" s="1">
         <v>200</v>
       </c>
-      <c r="N2" s="40">
+      <c r="N2" s="1">
         <v>0.66</v>
       </c>
-      <c r="O2" s="40">
+      <c r="O2" s="1">
         <v>36000</v>
       </c>
-      <c r="P2" s="40">
+      <c r="P2" s="1">
         <v>180</v>
       </c>
       <c r="Q2" s="1">
         <v>25</v>
       </c>
-      <c r="R2" s="40">
+      <c r="R2" s="1">
         <v>1800</v>
       </c>
-      <c r="S2" s="40">
+      <c r="S2" s="1">
         <v>1.5</v>
       </c>
       <c r="T2" s="40">
@@ -1576,43 +1750,43 @@
       <c r="Z2" s="40">
         <v>3</v>
       </c>
-      <c r="AA2" s="40">
+      <c r="AA2" s="1">
         <v>16</v>
       </c>
-      <c r="AB2" s="40">
+      <c r="AB2" s="1">
         <v>14</v>
       </c>
-      <c r="AC2" s="40">
+      <c r="AC2" s="1">
         <v>1600</v>
       </c>
-      <c r="AD2" s="40">
+      <c r="AD2" s="1">
         <v>130</v>
       </c>
-      <c r="AE2" s="40">
+      <c r="AE2" s="1">
         <v>0.98</v>
       </c>
       <c r="AF2" s="40">
         <v>1</v>
       </c>
-      <c r="AG2" s="50" t="s">
+      <c r="AG2" s="47" t="s">
         <v>60</v>
       </c>
       <c r="AH2" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI2" s="41">
+        <v>116</v>
+      </c>
+      <c r="AI2" s="32">
         <v>16000</v>
       </c>
       <c r="AJ2" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK2" s="48">
+        <v>105</v>
+      </c>
+      <c r="AK2" s="8">
         <v>38857</v>
       </c>
-      <c r="AL2" s="42">
+      <c r="AL2" s="9">
         <v>0.15</v>
       </c>
-      <c r="AM2" s="42">
+      <c r="AM2" s="9">
         <v>5.44</v>
       </c>
       <c r="AN2" s="9">
@@ -1661,27 +1835,27 @@
       <c r="H3" s="40">
         <v>81.8</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="40">
+      <c r="N3" s="1">
         <v>0.68</v>
       </c>
-      <c r="O3" s="40">
+      <c r="O3" s="1">
         <v>36600</v>
       </c>
-      <c r="P3" s="40">
+      <c r="P3" s="1">
         <v>195</v>
       </c>
       <c r="Q3" s="1">
         <v>26</v>
       </c>
-      <c r="R3" s="40">
+      <c r="R3" s="1">
         <v>1800</v>
       </c>
-      <c r="S3" s="40">
+      <c r="S3" s="1">
         <v>1.5</v>
       </c>
       <c r="T3" s="40">
@@ -1703,27 +1877,27 @@
         <v>40</v>
       </c>
       <c r="Z3" s="40"/>
-      <c r="AA3" s="40">
+      <c r="AA3" s="1">
         <v>16</v>
       </c>
-      <c r="AB3" s="40">
+      <c r="AB3" s="1">
         <v>14</v>
       </c>
-      <c r="AC3" s="40">
+      <c r="AC3" s="1">
         <v>1900</v>
       </c>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
       <c r="AF3" s="40"/>
-      <c r="AG3" s="50"/>
+      <c r="AG3" s="47"/>
       <c r="AH3" s="35"/>
-      <c r="AI3" s="41">
+      <c r="AI3" s="32">
         <v>16700</v>
       </c>
       <c r="AJ3" s="33"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
       <c r="AO3" s="42"/>
       <c r="AP3" s="42"/>
@@ -1760,37 +1934,37 @@
       <c r="H4" s="40">
         <v>40.6</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="1">
         <v>11.2</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="1">
         <v>365</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="1">
         <v>62415</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="1">
         <v>3755</v>
       </c>
       <c r="M4" s="1">
         <v>540</v>
       </c>
-      <c r="N4" s="40">
+      <c r="N4" s="1">
         <v>0.59</v>
       </c>
-      <c r="O4" s="40">
+      <c r="O4" s="1">
         <v>38300</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="1">
         <v>350</v>
       </c>
       <c r="Q4" s="1">
         <v>22</v>
       </c>
-      <c r="R4" s="40">
+      <c r="R4" s="1">
         <v>1800</v>
       </c>
-      <c r="S4" s="40">
+      <c r="S4" s="1">
         <v>1.5</v>
       </c>
       <c r="T4" s="40">
@@ -1814,43 +1988,43 @@
       <c r="Z4" s="40">
         <v>11</v>
       </c>
-      <c r="AA4" s="40">
+      <c r="AA4" s="1">
         <v>16</v>
       </c>
-      <c r="AB4" s="40">
+      <c r="AB4" s="1">
         <v>14</v>
       </c>
-      <c r="AC4" s="40">
+      <c r="AC4" s="1">
         <v>2031</v>
       </c>
-      <c r="AD4" s="40">
+      <c r="AD4" s="1">
         <v>130</v>
       </c>
-      <c r="AE4" s="40">
+      <c r="AE4" s="1">
         <v>0.95</v>
       </c>
       <c r="AF4" s="40">
         <v>3</v>
       </c>
-      <c r="AG4" s="50" t="s">
+      <c r="AG4" s="47" t="s">
         <v>60</v>
       </c>
       <c r="AH4" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="AI4" s="41">
+      <c r="AI4" s="32">
         <v>16766</v>
       </c>
       <c r="AJ4" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK4" s="48">
+        <v>91</v>
+      </c>
+      <c r="AK4" s="8">
         <v>45077.5</v>
       </c>
-      <c r="AL4" s="42">
+      <c r="AL4" s="9">
         <v>0.1</v>
       </c>
-      <c r="AM4" s="42">
+      <c r="AM4" s="9">
         <v>5.1100000000000003</v>
       </c>
       <c r="AN4" s="9">
@@ -1903,27 +2077,27 @@
       <c r="H5" s="40">
         <v>89.4</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="40">
+      <c r="N5" s="1">
         <v>0.8</v>
       </c>
-      <c r="O5" s="40">
+      <c r="O5" s="1">
         <v>36300</v>
       </c>
-      <c r="P5" s="40">
+      <c r="P5" s="1">
         <v>300</v>
       </c>
       <c r="Q5" s="1">
         <v>23</v>
       </c>
-      <c r="R5" s="40">
+      <c r="R5" s="1">
         <v>1800</v>
       </c>
-      <c r="S5" s="40">
+      <c r="S5" s="1">
         <v>1.5</v>
       </c>
       <c r="T5" s="40">
@@ -1945,27 +2119,27 @@
         <v>40</v>
       </c>
       <c r="Z5" s="40"/>
-      <c r="AA5" s="40">
+      <c r="AA5" s="1">
         <v>16</v>
       </c>
-      <c r="AB5" s="40">
+      <c r="AB5" s="1">
         <v>14</v>
       </c>
-      <c r="AC5" s="40">
+      <c r="AC5" s="1">
         <v>1689</v>
       </c>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
       <c r="AF5" s="40"/>
-      <c r="AG5" s="50"/>
+      <c r="AG5" s="47"/>
       <c r="AH5" s="35"/>
-      <c r="AI5" s="41">
+      <c r="AI5" s="32">
         <v>17200</v>
       </c>
       <c r="AJ5" s="33"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
       <c r="AN5" s="9"/>
       <c r="AO5" s="42"/>
       <c r="AP5" s="42"/>
@@ -1996,27 +2170,27 @@
       <c r="H6" s="40">
         <v>82.4</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="40">
+      <c r="N6" s="1">
         <v>0.6</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="1">
         <v>34330</v>
       </c>
-      <c r="P6" s="40">
+      <c r="P6" s="1">
         <v>305</v>
       </c>
       <c r="Q6" s="1">
         <v>25</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R6" s="1">
         <v>1800</v>
       </c>
-      <c r="S6" s="40">
+      <c r="S6" s="1">
         <v>1.5</v>
       </c>
       <c r="T6" s="40">
@@ -2038,27 +2212,27 @@
         <v>40</v>
       </c>
       <c r="Z6" s="40"/>
-      <c r="AA6" s="40">
+      <c r="AA6" s="1">
         <v>16</v>
       </c>
-      <c r="AB6" s="40">
+      <c r="AB6" s="1">
         <v>14</v>
       </c>
-      <c r="AC6" s="40">
+      <c r="AC6" s="1">
         <v>2046</v>
       </c>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
       <c r="AF6" s="40"/>
-      <c r="AG6" s="50"/>
+      <c r="AG6" s="47"/>
       <c r="AH6" s="35"/>
-      <c r="AI6" s="41">
+      <c r="AI6" s="32">
         <v>17720</v>
       </c>
       <c r="AJ6" s="33"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="42"/>
-      <c r="AM6" s="42"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
       <c r="AN6" s="9"/>
       <c r="AO6" s="42"/>
       <c r="AP6" s="42"/>
@@ -2089,27 +2263,27 @@
       <c r="H7" s="40">
         <v>78.7</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="40">
+      <c r="N7" s="1">
         <v>0.8</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="1">
         <v>34660</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="1">
         <v>306</v>
       </c>
       <c r="Q7" s="1">
         <v>27</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="1">
         <v>1800</v>
       </c>
-      <c r="S7" s="40">
+      <c r="S7" s="1">
         <v>1.5</v>
       </c>
       <c r="T7" s="40">
@@ -2131,27 +2305,27 @@
         <v>40</v>
       </c>
       <c r="Z7" s="40"/>
-      <c r="AA7" s="40">
+      <c r="AA7" s="1">
         <v>16</v>
       </c>
-      <c r="AB7" s="40">
+      <c r="AB7" s="1">
         <v>14</v>
       </c>
-      <c r="AC7" s="40">
+      <c r="AC7" s="1">
         <v>1387</v>
       </c>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
       <c r="AF7" s="40"/>
-      <c r="AG7" s="50"/>
+      <c r="AG7" s="47"/>
       <c r="AH7" s="35"/>
-      <c r="AI7" s="41">
+      <c r="AI7" s="32">
         <v>17700</v>
       </c>
       <c r="AJ7" s="33"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="42"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
       <c r="AN7" s="9"/>
       <c r="AO7" s="42"/>
       <c r="AP7" s="42"/>
@@ -2182,27 +2356,27 @@
       <c r="H8" s="40">
         <v>84.45</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="40">
+      <c r="N8" s="1">
         <v>0.9</v>
       </c>
-      <c r="O8" s="40">
+      <c r="O8" s="1">
         <v>35830</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="1">
         <v>315</v>
       </c>
       <c r="Q8" s="1">
         <v>23</v>
       </c>
-      <c r="R8" s="40">
+      <c r="R8" s="1">
         <v>1800</v>
       </c>
-      <c r="S8" s="40">
+      <c r="S8" s="1">
         <v>1.5</v>
       </c>
       <c r="T8" s="40">
@@ -2224,27 +2398,27 @@
         <v>40</v>
       </c>
       <c r="Z8" s="40"/>
-      <c r="AA8" s="40">
+      <c r="AA8" s="1">
         <v>16</v>
       </c>
-      <c r="AB8" s="40">
+      <c r="AB8" s="1">
         <v>14</v>
       </c>
-      <c r="AC8" s="40">
+      <c r="AC8" s="1">
         <v>2050</v>
       </c>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
       <c r="AF8" s="40"/>
-      <c r="AG8" s="50"/>
+      <c r="AG8" s="47"/>
       <c r="AH8" s="35"/>
-      <c r="AI8" s="41">
+      <c r="AI8" s="32">
         <v>17700</v>
       </c>
       <c r="AJ8" s="33"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
       <c r="AN8" s="8"/>
       <c r="AO8" s="42"/>
       <c r="AP8" s="42"/>
@@ -2275,27 +2449,27 @@
       <c r="H9" s="40">
         <v>80.400000000000006</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="40">
+      <c r="N9" s="1">
         <v>0.54</v>
       </c>
-      <c r="O9" s="40">
+      <c r="O9" s="1">
         <v>30006</v>
       </c>
-      <c r="P9" s="40">
+      <c r="P9" s="1">
         <v>305</v>
       </c>
       <c r="Q9" s="1">
         <v>27</v>
       </c>
-      <c r="R9" s="40">
+      <c r="R9" s="1">
         <v>1800</v>
       </c>
-      <c r="S9" s="40">
+      <c r="S9" s="1">
         <v>1.5</v>
       </c>
       <c r="T9" s="40">
@@ -2317,27 +2491,27 @@
         <v>40</v>
       </c>
       <c r="Z9" s="40"/>
-      <c r="AA9" s="40">
+      <c r="AA9" s="1">
         <v>16</v>
       </c>
-      <c r="AB9" s="40">
+      <c r="AB9" s="1">
         <v>14</v>
       </c>
-      <c r="AC9" s="40">
+      <c r="AC9" s="1">
         <v>1725</v>
       </c>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
       <c r="AF9" s="40"/>
-      <c r="AG9" s="50"/>
+      <c r="AG9" s="47"/>
       <c r="AH9" s="35"/>
-      <c r="AI9" s="41">
+      <c r="AI9" s="32">
         <v>16770</v>
       </c>
       <c r="AJ9" s="33"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="42"/>
-      <c r="AM9" s="42"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
       <c r="AN9" s="9"/>
       <c r="AO9" s="42"/>
       <c r="AP9" s="42"/>
@@ -2368,27 +2542,27 @@
       <c r="H10" s="40">
         <v>80.5</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="40">
+      <c r="N10" s="1">
         <v>0.95</v>
       </c>
-      <c r="O10" s="40">
+      <c r="O10" s="1">
         <v>36333</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="1">
         <v>155</v>
       </c>
       <c r="Q10" s="1">
         <v>28</v>
       </c>
-      <c r="R10" s="40">
+      <c r="R10" s="1">
         <v>1800</v>
       </c>
-      <c r="S10" s="40">
+      <c r="S10" s="1">
         <v>1.5</v>
       </c>
       <c r="T10" s="40">
@@ -2410,27 +2584,27 @@
         <v>40</v>
       </c>
       <c r="Z10" s="40"/>
-      <c r="AA10" s="40">
+      <c r="AA10" s="1">
         <v>16</v>
       </c>
-      <c r="AB10" s="40">
+      <c r="AB10" s="1">
         <v>14</v>
       </c>
-      <c r="AC10" s="40">
+      <c r="AC10" s="1">
         <v>1636</v>
       </c>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
       <c r="AF10" s="40"/>
-      <c r="AG10" s="50"/>
+      <c r="AG10" s="47"/>
       <c r="AH10" s="35"/>
-      <c r="AI10" s="41">
+      <c r="AI10" s="32">
         <v>17600</v>
       </c>
       <c r="AJ10" s="33"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
       <c r="AN10" s="9"/>
       <c r="AO10" s="42"/>
       <c r="AP10" s="42"/>
@@ -2442,72 +2616,72 @@
       <c r="AV10" s="9"/>
       <c r="AW10" s="9"/>
     </row>
-    <row r="11" spans="1:51" s="56" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="51">
+    <row r="11" spans="1:51" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="48">
         <v>10</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="49">
         <v>44914.559999999998</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="49">
         <v>11202.16</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="49">
         <v>17797.830000000002</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="49">
         <v>76.599999999999994</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="49">
         <v>80.400000000000006</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="49">
         <v>85.6</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="49">
         <v>91.25</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="1">
         <v>8</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J11" s="1">
         <v>255</v>
       </c>
-      <c r="K11" s="52">
+      <c r="K11" s="1">
         <v>93064</v>
       </c>
-      <c r="L11" s="52">
+      <c r="L11" s="1">
         <v>3755</v>
       </c>
       <c r="M11" s="1">
         <v>540</v>
       </c>
-      <c r="N11" s="52">
+      <c r="N11" s="1">
         <v>0.36</v>
       </c>
-      <c r="O11" s="52">
+      <c r="O11" s="1">
         <v>358</v>
       </c>
-      <c r="P11" s="52">
+      <c r="P11" s="1">
         <v>6235413.2999999998</v>
       </c>
       <c r="Q11" s="1">
         <v>35</v>
       </c>
-      <c r="R11" s="52">
+      <c r="R11" s="1">
         <v>28964.560000000001</v>
       </c>
-      <c r="S11" s="52">
+      <c r="S11" s="1">
         <v>10566.46</v>
       </c>
-      <c r="T11" s="52">
-        <v>48667.46</v>
-      </c>
-      <c r="U11" s="52">
+      <c r="T11" s="49">
+        <v>46765.25</v>
+      </c>
+      <c r="U11" s="49">
         <v>13446.15</v>
       </c>
-      <c r="V11" s="52">
-        <v>19245.650000000001</v>
+      <c r="V11" s="49">
+        <v>18346.240000000002</v>
       </c>
       <c r="W11" s="1">
         <v>0.4</v>
@@ -2518,68 +2692,68 @@
       <c r="Y11" s="1">
         <v>40</v>
       </c>
-      <c r="Z11" s="52">
-        <v>10</v>
-      </c>
-      <c r="AA11" s="52">
+      <c r="Z11" s="49">
+        <v>29</v>
+      </c>
+      <c r="AA11" s="1">
         <v>16</v>
       </c>
-      <c r="AB11" s="52">
+      <c r="AB11" s="1">
         <v>14</v>
       </c>
-      <c r="AC11" s="52">
+      <c r="AC11" s="1">
         <v>450</v>
       </c>
-      <c r="AD11" s="52">
+      <c r="AD11" s="1">
         <v>120</v>
       </c>
-      <c r="AE11" s="52">
+      <c r="AE11" s="1">
         <v>0.96</v>
       </c>
-      <c r="AF11" s="52">
+      <c r="AF11" s="49">
         <v>3</v>
       </c>
-      <c r="AG11" s="53" t="s">
+      <c r="AG11" s="50" t="s">
         <v>60</v>
       </c>
       <c r="AH11" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI11" s="54">
+        <v>117</v>
+      </c>
+      <c r="AI11" s="32">
         <v>17640</v>
       </c>
       <c r="AJ11" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK11" s="10">
+        <v>91</v>
+      </c>
+      <c r="AK11" s="9">
         <v>11279160</v>
       </c>
-      <c r="AL11" s="10">
+      <c r="AL11" s="9">
         <v>0.1</v>
       </c>
-      <c r="AM11" s="10">
+      <c r="AM11" s="9">
         <v>5.1100000000000003</v>
       </c>
       <c r="AN11" s="9">
         <v>176</v>
       </c>
       <c r="AO11" s="10">
-        <v>2235.46</v>
+        <v>2345</v>
       </c>
       <c r="AP11" s="10">
-        <v>724</v>
-      </c>
-      <c r="AQ11" s="55">
-        <v>2378.6799999999998</v>
-      </c>
-      <c r="AR11" s="55">
-        <v>739.47</v>
+        <v>883</v>
+      </c>
+      <c r="AQ11" s="51">
+        <v>2550</v>
+      </c>
+      <c r="AR11" s="51">
+        <v>1020</v>
       </c>
       <c r="AS11" s="36">
         <v>860000</v>
       </c>
-      <c r="AT11" s="45">
-        <v>2785278</v>
+      <c r="AT11" s="55">
+        <v>3506078</v>
       </c>
       <c r="AU11" s="9">
         <v>0.15</v>
@@ -2593,56 +2767,72 @@
       <c r="AX11" s="12"/>
       <c r="AY11" s="12"/>
     </row>
-    <row r="12" spans="1:51" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+    <row r="12" spans="1:51" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="48">
         <v>11</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="F12" s="40">
-        <v>77</v>
-      </c>
-      <c r="G12" s="40">
-        <v>79.3</v>
-      </c>
-      <c r="H12" s="40">
-        <v>84.1</v>
-      </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="40">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="O12" s="40">
-        <v>35655</v>
-      </c>
-      <c r="P12" s="40">
-        <v>164</v>
+      <c r="B12" s="49">
+        <v>45498</v>
+      </c>
+      <c r="C12" s="49">
+        <v>13664.34</v>
+      </c>
+      <c r="D12" s="49">
+        <v>15439.51</v>
+      </c>
+      <c r="E12" s="49">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="F12" s="49">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="G12" s="49">
+        <v>84.6</v>
+      </c>
+      <c r="H12" s="49">
+        <v>90.46</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1">
+        <v>255</v>
+      </c>
+      <c r="K12" s="1">
+        <v>93064</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3755</v>
+      </c>
+      <c r="M12" s="1">
+        <v>540</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="O12" s="1">
+        <v>358</v>
+      </c>
+      <c r="P12" s="1">
+        <v>6235413.2999999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>26</v>
-      </c>
-      <c r="R12" s="40">
-        <v>1800</v>
-      </c>
-      <c r="S12" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="T12" s="40">
-        <v>5</v>
-      </c>
-      <c r="U12" s="40">
-        <v>50</v>
-      </c>
-      <c r="V12" s="40">
-        <v>2700</v>
+        <v>35</v>
+      </c>
+      <c r="R12" s="1">
+        <v>28964.560000000001</v>
+      </c>
+      <c r="S12" s="1">
+        <v>10566.46</v>
+      </c>
+      <c r="T12" s="49">
+        <v>47565.25</v>
+      </c>
+      <c r="U12" s="49">
+        <v>16845.25</v>
+      </c>
+      <c r="V12" s="49">
+        <v>16974.25</v>
       </c>
       <c r="W12" s="1">
         <v>0.4</v>
@@ -2653,38 +2843,80 @@
       <c r="Y12" s="1">
         <v>40</v>
       </c>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40">
+      <c r="Z12" s="49">
+        <v>27</v>
+      </c>
+      <c r="AA12" s="1">
         <v>16</v>
       </c>
-      <c r="AB12" s="40">
+      <c r="AB12" s="1">
         <v>14</v>
       </c>
-      <c r="AC12" s="40">
-        <v>1240</v>
-      </c>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="41">
-        <v>17766</v>
-      </c>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="9"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="9"/>
-      <c r="AV12" s="9"/>
-      <c r="AW12" s="9"/>
+      <c r="AC12" s="1">
+        <v>450</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>120</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="AF12" s="49">
+        <v>3</v>
+      </c>
+      <c r="AG12" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH12" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI12" s="32">
+        <v>17640</v>
+      </c>
+      <c r="AJ12" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>11279160</v>
+      </c>
+      <c r="AL12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AM12" s="9">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="AN12" s="9">
+        <v>176</v>
+      </c>
+      <c r="AO12" s="10">
+        <v>2374</v>
+      </c>
+      <c r="AP12" s="10">
+        <v>915</v>
+      </c>
+      <c r="AQ12" s="51">
+        <v>2550</v>
+      </c>
+      <c r="AR12" s="51">
+        <v>1020</v>
+      </c>
+      <c r="AS12" s="36">
+        <v>860000</v>
+      </c>
+      <c r="AT12" s="55">
+        <v>2595000</v>
+      </c>
+      <c r="AU12" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="AV12" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="AW12" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
     </row>
     <row r="13" spans="1:51" s="37" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30">
@@ -2703,7 +2935,7 @@
         <v>76.8</v>
       </c>
       <c r="F13" s="40">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="G13" s="40">
         <v>79.900000000000006</v>
@@ -2711,37 +2943,37 @@
       <c r="H13" s="40">
         <v>83.75</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="37">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="37">
         <v>305</v>
       </c>
-      <c r="K13" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="L13" s="45">
+      <c r="K13" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" s="37">
         <v>1159</v>
       </c>
       <c r="M13" s="37">
         <v>675</v>
       </c>
-      <c r="N13" s="40">
+      <c r="N13" s="1">
         <v>0.08</v>
       </c>
-      <c r="O13" s="40">
+      <c r="O13" s="1">
         <v>35453</v>
       </c>
-      <c r="P13" s="40">
+      <c r="P13" s="1">
         <v>131</v>
       </c>
       <c r="Q13" s="1">
         <v>25</v>
       </c>
-      <c r="R13" s="40">
+      <c r="R13" s="1">
         <v>1800</v>
       </c>
-      <c r="S13" s="40">
+      <c r="S13" s="1">
         <v>1.5</v>
       </c>
       <c r="T13" s="40">
@@ -2762,63 +2994,63 @@
       <c r="Y13" s="1">
         <v>40</v>
       </c>
-      <c r="Z13" s="45">
+      <c r="Z13" s="44">
         <v>9</v>
       </c>
-      <c r="AA13" s="45">
+      <c r="AA13" s="37">
         <v>16</v>
       </c>
-      <c r="AB13" s="45">
+      <c r="AB13" s="37">
         <v>14</v>
       </c>
-      <c r="AC13" s="45">
+      <c r="AC13" s="37">
         <v>1403</v>
       </c>
-      <c r="AD13" s="45">
+      <c r="AD13" s="37">
         <v>150</v>
       </c>
-      <c r="AE13" s="45">
+      <c r="AE13" s="37">
         <v>0.95</v>
       </c>
-      <c r="AF13" s="45">
+      <c r="AF13" s="44">
         <v>2</v>
       </c>
-      <c r="AG13" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH13" s="57" t="s">
+      <c r="AG13" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH13" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI13" s="37">
+        <v>16070</v>
+      </c>
+      <c r="AJ13" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="AI13" s="45">
-        <v>16070</v>
-      </c>
-      <c r="AJ13" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK13" s="45">
+      <c r="AK13" s="37">
         <v>44842.3</v>
       </c>
-      <c r="AL13" s="45">
+      <c r="AL13" s="37">
         <v>0.1</v>
       </c>
-      <c r="AM13" s="45">
+      <c r="AM13" s="37">
         <v>5.1100000000000003</v>
       </c>
       <c r="AN13" s="37">
         <v>102</v>
       </c>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="45"/>
-      <c r="AQ13" s="45">
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44">
         <v>2422</v>
       </c>
-      <c r="AR13" s="45">
+      <c r="AR13" s="44">
         <v>644</v>
       </c>
       <c r="AS13" s="37">
         <v>780000</v>
       </c>
-      <c r="AT13" s="45">
+      <c r="AT13" s="44">
         <v>496000</v>
       </c>
       <c r="AU13" s="9">
@@ -2850,27 +3082,27 @@
       <c r="H14" s="40">
         <v>80</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="40">
+      <c r="N14" s="1">
         <v>0.49</v>
       </c>
-      <c r="O14" s="40">
+      <c r="O14" s="1">
         <v>38635</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="1">
         <v>111</v>
       </c>
       <c r="Q14" s="1">
         <v>27</v>
       </c>
-      <c r="R14" s="40">
+      <c r="R14" s="1">
         <v>1800</v>
       </c>
-      <c r="S14" s="40">
+      <c r="S14" s="1">
         <v>1.5</v>
       </c>
       <c r="T14" s="40">
@@ -2892,27 +3124,27 @@
         <v>40</v>
       </c>
       <c r="Z14" s="40"/>
-      <c r="AA14" s="40">
+      <c r="AA14" s="1">
         <v>16</v>
       </c>
-      <c r="AB14" s="40">
+      <c r="AB14" s="1">
         <v>14</v>
       </c>
-      <c r="AC14" s="40">
+      <c r="AC14" s="1">
         <v>2000</v>
       </c>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
       <c r="AF14" s="40"/>
-      <c r="AG14" s="50"/>
+      <c r="AG14" s="47"/>
       <c r="AH14" s="35"/>
-      <c r="AI14" s="41">
+      <c r="AI14" s="32">
         <v>17000</v>
       </c>
       <c r="AJ14" s="33"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="42"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
       <c r="AO14" s="42"/>
       <c r="AP14" s="42"/>
@@ -2943,27 +3175,27 @@
       <c r="H15" s="40">
         <v>80.099999999999994</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="40">
+      <c r="N15" s="1">
         <v>0.8</v>
       </c>
-      <c r="O15" s="40">
+      <c r="O15" s="1">
         <v>39600</v>
       </c>
-      <c r="P15" s="40">
+      <c r="P15" s="1">
         <v>138</v>
       </c>
       <c r="Q15" s="1">
         <v>25</v>
       </c>
-      <c r="R15" s="40">
+      <c r="R15" s="1">
         <v>1800</v>
       </c>
-      <c r="S15" s="40">
+      <c r="S15" s="1">
         <v>1.5</v>
       </c>
       <c r="T15" s="40">
@@ -2985,27 +3217,27 @@
         <v>40</v>
       </c>
       <c r="Z15" s="40"/>
-      <c r="AA15" s="40">
+      <c r="AA15" s="1">
         <v>16</v>
       </c>
-      <c r="AB15" s="40">
+      <c r="AB15" s="1">
         <v>14</v>
       </c>
-      <c r="AC15" s="40">
+      <c r="AC15" s="1">
         <v>1697</v>
       </c>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
       <c r="AF15" s="40"/>
-      <c r="AG15" s="50"/>
+      <c r="AG15" s="47"/>
       <c r="AH15" s="35"/>
-      <c r="AI15" s="41">
+      <c r="AI15" s="32">
         <v>17200</v>
       </c>
       <c r="AJ15" s="33"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="42"/>
-      <c r="AM15" s="42"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
       <c r="AO15" s="42"/>
       <c r="AP15" s="42"/>
@@ -3036,27 +3268,27 @@
       <c r="H16" s="40">
         <v>89.5</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="40">
+      <c r="N16" s="1">
         <v>0.63</v>
       </c>
-      <c r="O16" s="40">
+      <c r="O16" s="1">
         <v>35500</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="1">
         <v>114</v>
       </c>
       <c r="Q16" s="1">
         <v>22</v>
       </c>
-      <c r="R16" s="40">
+      <c r="R16" s="1">
         <v>1800</v>
       </c>
-      <c r="S16" s="40">
+      <c r="S16" s="1">
         <v>1.5</v>
       </c>
       <c r="T16" s="40">
@@ -3078,27 +3310,27 @@
         <v>40</v>
       </c>
       <c r="Z16" s="40"/>
-      <c r="AA16" s="40">
+      <c r="AA16" s="1">
         <v>16</v>
       </c>
-      <c r="AB16" s="40">
+      <c r="AB16" s="1">
         <v>14</v>
       </c>
-      <c r="AC16" s="40">
+      <c r="AC16" s="1">
         <v>1560</v>
       </c>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
       <c r="AF16" s="40"/>
-      <c r="AG16" s="50"/>
+      <c r="AG16" s="47"/>
       <c r="AH16" s="35"/>
-      <c r="AI16" s="41">
+      <c r="AI16" s="32">
         <v>16200</v>
       </c>
       <c r="AJ16" s="33"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="42"/>
-      <c r="AM16" s="42"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
       <c r="AN16" s="9"/>
       <c r="AO16" s="42"/>
       <c r="AP16" s="42"/>
@@ -3129,27 +3361,27 @@
       <c r="H17" s="40">
         <v>89.9</v>
       </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="40">
+      <c r="N17" s="1">
         <v>0.06</v>
       </c>
-      <c r="O17" s="40">
+      <c r="O17" s="1">
         <v>35300</v>
       </c>
-      <c r="P17" s="40">
+      <c r="P17" s="1">
         <v>194</v>
       </c>
       <c r="Q17" s="1">
         <v>26</v>
       </c>
-      <c r="R17" s="40">
+      <c r="R17" s="1">
         <v>1800</v>
       </c>
-      <c r="S17" s="40">
+      <c r="S17" s="1">
         <v>1.5</v>
       </c>
       <c r="T17" s="40">
@@ -3171,27 +3403,27 @@
         <v>40</v>
       </c>
       <c r="Z17" s="40"/>
-      <c r="AA17" s="40">
+      <c r="AA17" s="1">
         <v>16</v>
       </c>
-      <c r="AB17" s="40">
+      <c r="AB17" s="1">
         <v>14</v>
       </c>
-      <c r="AC17" s="40">
+      <c r="AC17" s="1">
         <v>1980</v>
       </c>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
       <c r="AF17" s="40"/>
-      <c r="AG17" s="50"/>
+      <c r="AG17" s="47"/>
       <c r="AH17" s="35"/>
-      <c r="AI17" s="41">
+      <c r="AI17" s="32">
         <v>11730</v>
       </c>
       <c r="AJ17" s="33"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="42"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
       <c r="AN17" s="9"/>
       <c r="AO17" s="42"/>
       <c r="AP17" s="42"/>
@@ -3228,37 +3460,37 @@
       <c r="H18" s="40">
         <v>81</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="1">
         <v>11.2</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="1">
         <v>365</v>
       </c>
-      <c r="K18" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="40">
+      <c r="K18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="1">
         <v>1079</v>
       </c>
       <c r="M18" s="1">
         <v>675</v>
       </c>
-      <c r="N18" s="40">
+      <c r="N18" s="1">
         <v>0.9</v>
       </c>
-      <c r="O18" s="40">
+      <c r="O18" s="1">
         <v>35603</v>
       </c>
-      <c r="P18" s="40">
+      <c r="P18" s="1">
         <v>156</v>
       </c>
       <c r="Q18" s="1">
         <v>27</v>
       </c>
-      <c r="R18" s="40">
+      <c r="R18" s="1">
         <v>1800</v>
       </c>
-      <c r="S18" s="40">
+      <c r="S18" s="1">
         <v>1.5</v>
       </c>
       <c r="T18" s="40">
@@ -3282,43 +3514,43 @@
       <c r="Z18" s="40">
         <v>5</v>
       </c>
-      <c r="AA18" s="40">
+      <c r="AA18" s="1">
         <v>16</v>
       </c>
-      <c r="AB18" s="40">
+      <c r="AB18" s="1">
         <v>14</v>
       </c>
-      <c r="AC18" s="40">
+      <c r="AC18" s="1">
         <v>2328</v>
       </c>
-      <c r="AD18" s="40">
+      <c r="AD18" s="1">
         <v>145</v>
       </c>
-      <c r="AE18" s="40">
+      <c r="AE18" s="1">
         <v>0.97</v>
       </c>
       <c r="AF18" s="40">
         <v>2</v>
       </c>
-      <c r="AG18" s="50" t="s">
+      <c r="AG18" s="47" t="s">
         <v>60</v>
       </c>
       <c r="AH18" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI18" s="41">
+        <v>107</v>
+      </c>
+      <c r="AI18" s="32">
         <v>18726</v>
       </c>
       <c r="AJ18" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK18" s="48">
+        <v>105</v>
+      </c>
+      <c r="AK18" s="8">
         <v>51447.93</v>
       </c>
-      <c r="AL18" s="42">
+      <c r="AL18" s="9">
         <v>0.12</v>
       </c>
-      <c r="AM18" s="42">
+      <c r="AM18" s="9">
         <v>5.6</v>
       </c>
       <c r="AN18" s="9">
@@ -3373,37 +3605,37 @@
       <c r="H19" s="40">
         <v>83.75</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="1">
         <v>11.2</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="1">
         <v>305</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="1">
         <v>71004</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="1">
         <v>1770</v>
       </c>
       <c r="M19" s="1">
         <v>1327</v>
       </c>
-      <c r="N19" s="40">
+      <c r="N19" s="1">
         <v>0.45</v>
       </c>
-      <c r="O19" s="40">
+      <c r="O19" s="1">
         <v>33300</v>
       </c>
-      <c r="P19" s="40">
+      <c r="P19" s="1">
         <v>300</v>
       </c>
       <c r="Q19" s="1">
         <v>22</v>
       </c>
-      <c r="R19" s="40">
+      <c r="R19" s="1">
         <v>1800</v>
       </c>
-      <c r="S19" s="40">
+      <c r="S19" s="1">
         <v>1.5</v>
       </c>
       <c r="T19" s="40">
@@ -3427,43 +3659,43 @@
       <c r="Z19" s="40">
         <v>7</v>
       </c>
-      <c r="AA19" s="40">
+      <c r="AA19" s="1">
         <v>16</v>
       </c>
-      <c r="AB19" s="40">
+      <c r="AB19" s="1">
         <v>14</v>
       </c>
-      <c r="AC19" s="40">
+      <c r="AC19" s="1">
         <v>1403</v>
       </c>
-      <c r="AD19" s="40">
+      <c r="AD19" s="1">
         <v>120</v>
       </c>
-      <c r="AE19" s="40">
+      <c r="AE19" s="1">
         <v>0.97</v>
       </c>
       <c r="AF19" s="40">
         <v>2</v>
       </c>
-      <c r="AG19" s="50" t="s">
+      <c r="AG19" s="47" t="s">
         <v>60</v>
       </c>
       <c r="AH19" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI19" s="41">
+        <v>113</v>
+      </c>
+      <c r="AI19" s="32">
         <v>16070</v>
       </c>
       <c r="AJ19" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK19" s="48">
+        <v>112</v>
+      </c>
+      <c r="AK19" s="8">
         <v>35430.78</v>
       </c>
-      <c r="AL19" s="42">
+      <c r="AL19" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM19" s="42">
+      <c r="AM19" s="9">
         <v>5.44</v>
       </c>
       <c r="AN19" s="9">
@@ -3512,27 +3744,27 @@
       <c r="H20" s="41">
         <v>89.6</v>
       </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="41">
+      <c r="N20" s="32">
         <v>0.57999999999999996</v>
       </c>
-      <c r="O20" s="41">
+      <c r="O20" s="32">
         <v>36030</v>
       </c>
-      <c r="P20" s="41">
+      <c r="P20" s="32">
         <v>311</v>
       </c>
       <c r="Q20" s="32">
         <v>26</v>
       </c>
-      <c r="R20" s="41">
+      <c r="R20" s="32">
         <v>1800</v>
       </c>
-      <c r="S20" s="41">
+      <c r="S20" s="32">
         <v>1.5</v>
       </c>
       <c r="T20" s="41">
@@ -3554,27 +3786,27 @@
         <v>40</v>
       </c>
       <c r="Z20" s="40"/>
-      <c r="AA20" s="41">
+      <c r="AA20" s="32">
         <v>16</v>
       </c>
-      <c r="AB20" s="41">
+      <c r="AB20" s="32">
         <v>14</v>
       </c>
-      <c r="AC20" s="41">
+      <c r="AC20" s="32">
         <v>1533</v>
       </c>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
       <c r="AF20" s="40"/>
-      <c r="AG20" s="50"/>
+      <c r="AG20" s="47"/>
       <c r="AH20" s="38"/>
-      <c r="AI20" s="41">
+      <c r="AI20" s="32">
         <v>17020</v>
       </c>
       <c r="AJ20" s="33"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="42"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
       <c r="AN20" s="9"/>
       <c r="AO20" s="42"/>
       <c r="AP20" s="42"/>
@@ -3605,27 +3837,27 @@
       <c r="H21" s="40">
         <v>80.5</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="40">
+      <c r="N21" s="1">
         <v>0.6</v>
       </c>
-      <c r="O21" s="40">
+      <c r="O21" s="1">
         <v>43000</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P21" s="1">
         <v>190</v>
       </c>
       <c r="Q21" s="1">
         <v>20</v>
       </c>
-      <c r="R21" s="40">
+      <c r="R21" s="1">
         <v>1800</v>
       </c>
-      <c r="S21" s="40">
+      <c r="S21" s="1">
         <v>1.5</v>
       </c>
       <c r="T21" s="40">
@@ -3647,27 +3879,27 @@
         <v>40</v>
       </c>
       <c r="Z21" s="40"/>
-      <c r="AA21" s="40">
+      <c r="AA21" s="1">
         <v>16</v>
       </c>
-      <c r="AB21" s="40">
+      <c r="AB21" s="1">
         <v>14</v>
       </c>
-      <c r="AC21" s="40">
+      <c r="AC21" s="1">
         <v>2100</v>
       </c>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="40"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
       <c r="AF21" s="40"/>
-      <c r="AG21" s="50"/>
+      <c r="AG21" s="47"/>
       <c r="AH21" s="35"/>
-      <c r="AI21" s="41">
+      <c r="AI21" s="32">
         <v>17000</v>
       </c>
       <c r="AJ21" s="33"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="42"/>
-      <c r="AM21" s="42"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
       <c r="AN21" s="9"/>
       <c r="AO21" s="42"/>
       <c r="AP21" s="42"/>
@@ -3698,27 +3930,27 @@
       <c r="H22" s="40">
         <v>78.7</v>
       </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="40">
+      <c r="N22" s="1">
         <v>0.6</v>
       </c>
-      <c r="O22" s="40">
+      <c r="O22" s="1">
         <v>43600</v>
       </c>
-      <c r="P22" s="40">
+      <c r="P22" s="1">
         <v>105</v>
       </c>
       <c r="Q22" s="1">
         <v>25</v>
       </c>
-      <c r="R22" s="40">
+      <c r="R22" s="1">
         <v>1800</v>
       </c>
-      <c r="S22" s="40">
+      <c r="S22" s="1">
         <v>1.5</v>
       </c>
       <c r="T22" s="40">
@@ -3740,34 +3972,34 @@
         <v>40</v>
       </c>
       <c r="Z22" s="40"/>
-      <c r="AA22" s="40">
+      <c r="AA22" s="1">
         <v>16</v>
       </c>
-      <c r="AB22" s="40">
+      <c r="AB22" s="1">
         <v>14</v>
       </c>
-      <c r="AC22" s="40">
+      <c r="AC22" s="1">
         <v>1310</v>
       </c>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
       <c r="AF22" s="40"/>
-      <c r="AG22" s="50"/>
+      <c r="AG22" s="47"/>
       <c r="AH22" s="31"/>
-      <c r="AI22" s="41">
+      <c r="AI22" s="32">
         <v>17700</v>
       </c>
       <c r="AJ22" s="33"/>
-      <c r="AK22" s="49"/>
-      <c r="AL22" s="47"/>
-      <c r="AM22" s="47"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
       <c r="AN22" s="13"/>
-      <c r="AO22" s="47"/>
-      <c r="AP22" s="47"/>
-      <c r="AQ22" s="47"/>
-      <c r="AR22" s="47"/>
+      <c r="AO22" s="46"/>
+      <c r="AP22" s="46"/>
+      <c r="AQ22" s="46"/>
+      <c r="AR22" s="46"/>
       <c r="AS22" s="13"/>
-      <c r="AT22" s="47"/>
+      <c r="AT22" s="46"/>
       <c r="AU22" s="13"/>
       <c r="AV22" s="13"/>
       <c r="AW22" s="13"/>
@@ -3791,27 +4023,27 @@
       <c r="H23" s="40">
         <v>80</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="40">
+      <c r="N23" s="1">
         <v>0.62</v>
       </c>
-      <c r="O23" s="40">
+      <c r="O23" s="1">
         <v>48000</v>
       </c>
-      <c r="P23" s="40">
+      <c r="P23" s="1">
         <v>340</v>
       </c>
       <c r="Q23" s="1">
         <v>20</v>
       </c>
-      <c r="R23" s="40">
+      <c r="R23" s="1">
         <v>1800</v>
       </c>
-      <c r="S23" s="40">
+      <c r="S23" s="1">
         <v>1.5</v>
       </c>
       <c r="T23" s="40">
@@ -3833,34 +4065,34 @@
         <v>40</v>
       </c>
       <c r="Z23" s="40"/>
-      <c r="AA23" s="40">
+      <c r="AA23" s="1">
         <v>16</v>
       </c>
-      <c r="AB23" s="40">
+      <c r="AB23" s="1">
         <v>14</v>
       </c>
-      <c r="AC23" s="40">
+      <c r="AC23" s="1">
         <v>1236</v>
       </c>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="40"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
       <c r="AF23" s="40"/>
-      <c r="AG23" s="50"/>
+      <c r="AG23" s="47"/>
       <c r="AH23" s="31"/>
-      <c r="AI23" s="41">
+      <c r="AI23" s="32">
         <v>18300</v>
       </c>
       <c r="AJ23" s="33"/>
-      <c r="AK23" s="49"/>
-      <c r="AL23" s="47"/>
-      <c r="AM23" s="47"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
       <c r="AN23" s="13"/>
-      <c r="AO23" s="47"/>
-      <c r="AP23" s="47"/>
-      <c r="AQ23" s="47"/>
-      <c r="AR23" s="47"/>
+      <c r="AO23" s="46"/>
+      <c r="AP23" s="46"/>
+      <c r="AQ23" s="46"/>
+      <c r="AR23" s="46"/>
       <c r="AS23" s="13"/>
-      <c r="AT23" s="47"/>
+      <c r="AT23" s="46"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="13"/>
       <c r="AW23" s="13"/>
@@ -3884,27 +4116,27 @@
       <c r="H24" s="40">
         <v>80.099999999999994</v>
       </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="40">
+      <c r="N24" s="1">
         <v>0.63</v>
       </c>
-      <c r="O24" s="40">
+      <c r="O24" s="1">
         <v>46100</v>
       </c>
-      <c r="P24" s="40">
+      <c r="P24" s="1">
         <v>310</v>
       </c>
       <c r="Q24" s="1">
         <v>20</v>
       </c>
-      <c r="R24" s="40">
+      <c r="R24" s="1">
         <v>1800</v>
       </c>
-      <c r="S24" s="40">
+      <c r="S24" s="1">
         <v>1.5</v>
       </c>
       <c r="T24" s="40">
@@ -3926,34 +4158,34 @@
         <v>40</v>
       </c>
       <c r="Z24" s="40"/>
-      <c r="AA24" s="40">
+      <c r="AA24" s="1">
         <v>16</v>
       </c>
-      <c r="AB24" s="40">
+      <c r="AB24" s="1">
         <v>14</v>
       </c>
-      <c r="AC24" s="40">
+      <c r="AC24" s="1">
         <v>2037</v>
       </c>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="40"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
       <c r="AF24" s="40"/>
-      <c r="AG24" s="50"/>
+      <c r="AG24" s="47"/>
       <c r="AH24" s="31"/>
-      <c r="AI24" s="41">
+      <c r="AI24" s="32">
         <v>17200</v>
       </c>
       <c r="AJ24" s="33"/>
-      <c r="AK24" s="49"/>
-      <c r="AL24" s="47"/>
-      <c r="AM24" s="47"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
       <c r="AN24" s="13"/>
-      <c r="AO24" s="47"/>
-      <c r="AP24" s="47"/>
-      <c r="AQ24" s="47"/>
-      <c r="AR24" s="47"/>
+      <c r="AO24" s="46"/>
+      <c r="AP24" s="46"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="46"/>
       <c r="AS24" s="13"/>
-      <c r="AT24" s="47"/>
+      <c r="AT24" s="46"/>
       <c r="AU24" s="13"/>
       <c r="AV24" s="13"/>
       <c r="AW24" s="13"/>
@@ -3983,37 +4215,37 @@
       <c r="H25" s="40">
         <v>80.3</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="1">
         <v>11.2</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="1">
         <v>365</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="1">
         <v>69751.5</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="1">
         <v>5137.92</v>
       </c>
       <c r="M25" s="1">
         <v>638.6</v>
       </c>
-      <c r="N25" s="40">
+      <c r="N25" s="1">
         <v>0.72</v>
       </c>
-      <c r="O25" s="40">
+      <c r="O25" s="1">
         <v>44840</v>
       </c>
-      <c r="P25" s="40">
+      <c r="P25" s="1">
         <v>300</v>
       </c>
       <c r="Q25" s="1">
         <v>22</v>
       </c>
-      <c r="R25" s="40">
+      <c r="R25" s="1">
         <v>1800</v>
       </c>
-      <c r="S25" s="40">
+      <c r="S25" s="1">
         <v>1.5</v>
       </c>
       <c r="T25" s="40">
@@ -4037,60 +4269,60 @@
       <c r="Z25" s="40">
         <v>15</v>
       </c>
-      <c r="AA25" s="40">
+      <c r="AA25" s="1">
         <v>16</v>
       </c>
-      <c r="AB25" s="40">
+      <c r="AB25" s="1">
         <v>14</v>
       </c>
-      <c r="AC25" s="40">
+      <c r="AC25" s="1">
         <v>2256</v>
       </c>
-      <c r="AD25" s="40">
+      <c r="AD25" s="1">
         <v>225</v>
       </c>
-      <c r="AE25" s="40">
+      <c r="AE25" s="1">
         <v>0.91</v>
       </c>
       <c r="AF25" s="40">
         <v>2</v>
       </c>
-      <c r="AG25" s="50" t="s">
-        <v>94</v>
+      <c r="AG25" s="47" t="s">
+        <v>93</v>
       </c>
       <c r="AH25" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI25" s="41">
+        <v>114</v>
+      </c>
+      <c r="AI25" s="32">
         <v>16820</v>
       </c>
       <c r="AJ25" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK25" s="48">
+        <v>112</v>
+      </c>
+      <c r="AK25" s="8">
         <v>74597.33</v>
       </c>
-      <c r="AL25" s="47">
+      <c r="AL25" s="13">
         <v>0.1</v>
       </c>
-      <c r="AM25" s="47">
+      <c r="AM25" s="13">
         <v>5.5</v>
       </c>
       <c r="AN25" s="13">
         <v>500</v>
       </c>
-      <c r="AO25" s="47"/>
-      <c r="AP25" s="47"/>
-      <c r="AQ25" s="47">
+      <c r="AO25" s="46"/>
+      <c r="AP25" s="46"/>
+      <c r="AQ25" s="46">
         <v>3282</v>
       </c>
-      <c r="AR25" s="47">
+      <c r="AR25" s="46">
         <v>1044</v>
       </c>
       <c r="AS25" s="13">
         <v>640000</v>
       </c>
-      <c r="AT25" s="47">
+      <c r="AT25" s="46">
         <v>756000</v>
       </c>
       <c r="AU25" s="13">
@@ -4122,27 +4354,27 @@
       <c r="H26" s="40">
         <v>80.400000000000006</v>
       </c>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="40">
+      <c r="N26" s="1">
         <v>0.73</v>
       </c>
-      <c r="O26" s="40">
+      <c r="O26" s="1">
         <v>44900</v>
       </c>
-      <c r="P26" s="40">
+      <c r="P26" s="1">
         <v>316</v>
       </c>
       <c r="Q26" s="1">
         <v>24</v>
       </c>
-      <c r="R26" s="40">
+      <c r="R26" s="1">
         <v>1800</v>
       </c>
-      <c r="S26" s="40">
+      <c r="S26" s="1">
         <v>1.5</v>
       </c>
       <c r="T26" s="40">
@@ -4164,34 +4396,34 @@
         <v>40</v>
       </c>
       <c r="Z26" s="40"/>
-      <c r="AA26" s="40">
+      <c r="AA26" s="1">
         <v>16</v>
       </c>
-      <c r="AB26" s="40">
+      <c r="AB26" s="1">
         <v>14</v>
       </c>
-      <c r="AC26" s="40">
+      <c r="AC26" s="1">
         <v>2070</v>
       </c>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
       <c r="AF26" s="40"/>
-      <c r="AG26" s="50"/>
+      <c r="AG26" s="47"/>
       <c r="AH26" s="31"/>
-      <c r="AI26" s="41">
+      <c r="AI26" s="32">
         <v>16770</v>
       </c>
       <c r="AJ26" s="33"/>
-      <c r="AK26" s="49"/>
-      <c r="AL26" s="47"/>
-      <c r="AM26" s="47"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
       <c r="AN26" s="13"/>
-      <c r="AO26" s="47"/>
-      <c r="AP26" s="47"/>
-      <c r="AQ26" s="47"/>
-      <c r="AR26" s="47"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="46"/>
+      <c r="AQ26" s="46"/>
+      <c r="AR26" s="46"/>
       <c r="AS26" s="13"/>
-      <c r="AT26" s="47"/>
+      <c r="AT26" s="46"/>
       <c r="AU26" s="13"/>
       <c r="AV26" s="13"/>
       <c r="AW26" s="13"/>
@@ -4221,37 +4453,37 @@
       <c r="H27" s="40">
         <v>80.150000000000006</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="1">
         <v>11.2</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27" s="1">
         <v>365</v>
       </c>
-      <c r="K27" s="40">
+      <c r="K27" s="1">
         <v>99645</v>
       </c>
-      <c r="L27" s="40">
+      <c r="L27" s="1">
         <v>7283.41</v>
       </c>
       <c r="M27" s="1">
         <v>1561</v>
       </c>
-      <c r="N27" s="40">
+      <c r="N27" s="1">
         <v>0.7</v>
       </c>
-      <c r="O27" s="40">
+      <c r="O27" s="1">
         <v>43800</v>
       </c>
-      <c r="P27" s="40">
+      <c r="P27" s="1">
         <v>305</v>
       </c>
       <c r="Q27" s="1">
         <v>25</v>
       </c>
-      <c r="R27" s="40">
+      <c r="R27" s="1">
         <v>1800</v>
       </c>
-      <c r="S27" s="40">
+      <c r="S27" s="1">
         <v>1.5</v>
       </c>
       <c r="T27" s="40">
@@ -4275,60 +4507,60 @@
       <c r="Z27" s="40">
         <v>14</v>
       </c>
-      <c r="AA27" s="40">
+      <c r="AA27" s="1">
         <v>16</v>
       </c>
-      <c r="AB27" s="40">
+      <c r="AB27" s="1">
         <v>14</v>
       </c>
-      <c r="AC27" s="40">
+      <c r="AC27" s="1">
         <v>2026</v>
       </c>
-      <c r="AD27" s="40">
+      <c r="AD27" s="1">
         <v>240</v>
       </c>
-      <c r="AE27" s="40">
+      <c r="AE27" s="1">
         <v>0.91</v>
       </c>
       <c r="AF27" s="40">
         <v>3</v>
       </c>
-      <c r="AG27" s="50" t="s">
-        <v>94</v>
+      <c r="AG27" s="47" t="s">
+        <v>93</v>
       </c>
       <c r="AH27" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI27" s="41">
+        <v>115</v>
+      </c>
+      <c r="AI27" s="32">
         <v>16820</v>
       </c>
       <c r="AJ27" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK27" s="49">
+        <v>112</v>
+      </c>
+      <c r="AK27" s="4">
         <v>79716</v>
       </c>
-      <c r="AL27" s="47">
+      <c r="AL27" s="13">
         <v>0.15</v>
       </c>
-      <c r="AM27" s="47">
+      <c r="AM27" s="13">
         <v>5.4</v>
       </c>
       <c r="AN27" s="13">
         <v>420</v>
       </c>
-      <c r="AO27" s="47"/>
-      <c r="AP27" s="47"/>
-      <c r="AQ27" s="47">
+      <c r="AO27" s="46"/>
+      <c r="AP27" s="46"/>
+      <c r="AQ27" s="46">
         <v>6000</v>
       </c>
-      <c r="AR27" s="47">
+      <c r="AR27" s="46">
         <v>2064</v>
       </c>
       <c r="AS27" s="13">
         <v>598000</v>
       </c>
-      <c r="AT27" s="47">
+      <c r="AT27" s="46">
         <v>690200</v>
       </c>
       <c r="AU27" s="12">
@@ -4359,27 +4591,27 @@
       <c r="H28" s="40">
         <v>80.5</v>
       </c>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="40">
+      <c r="N28" s="1">
         <v>0.7</v>
       </c>
-      <c r="O28" s="40">
+      <c r="O28" s="1">
         <v>43486</v>
       </c>
-      <c r="P28" s="40">
+      <c r="P28" s="1">
         <v>315</v>
       </c>
       <c r="Q28" s="1">
         <v>20</v>
       </c>
-      <c r="R28" s="40">
+      <c r="R28" s="1">
         <v>1800</v>
       </c>
-      <c r="S28" s="40">
+      <c r="S28" s="1">
         <v>1.5</v>
       </c>
       <c r="T28" s="40">
@@ -4401,34 +4633,34 @@
         <v>40</v>
       </c>
       <c r="Z28" s="40"/>
-      <c r="AA28" s="40">
+      <c r="AA28" s="1">
         <v>16</v>
       </c>
-      <c r="AB28" s="40">
+      <c r="AB28" s="1">
         <v>14</v>
       </c>
-      <c r="AC28" s="40">
+      <c r="AC28" s="1">
         <v>1605</v>
       </c>
-      <c r="AD28" s="40"/>
-      <c r="AE28" s="40"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
       <c r="AF28" s="40"/>
-      <c r="AG28" s="50"/>
+      <c r="AG28" s="47"/>
       <c r="AH28" s="31"/>
-      <c r="AI28" s="41">
+      <c r="AI28" s="32">
         <v>17007</v>
       </c>
       <c r="AJ28" s="33"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="47"/>
-      <c r="AM28" s="47"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13"/>
       <c r="AN28" s="13"/>
-      <c r="AO28" s="47"/>
-      <c r="AP28" s="47"/>
-      <c r="AQ28" s="47"/>
-      <c r="AR28" s="47"/>
+      <c r="AO28" s="46"/>
+      <c r="AP28" s="46"/>
+      <c r="AQ28" s="46"/>
+      <c r="AR28" s="46"/>
       <c r="AS28" s="13"/>
-      <c r="AT28" s="47"/>
+      <c r="AT28" s="46"/>
       <c r="AU28" s="13"/>
       <c r="AV28" s="13"/>
       <c r="AW28" s="13"/>
@@ -4452,27 +4684,27 @@
       <c r="H29" s="40">
         <v>80.400000000000006</v>
       </c>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="40">
+      <c r="N29" s="1">
         <v>0.7</v>
       </c>
-      <c r="O29" s="40">
+      <c r="O29" s="1">
         <v>49114</v>
       </c>
-      <c r="P29" s="40">
+      <c r="P29" s="1">
         <v>156</v>
       </c>
       <c r="Q29" s="1">
         <v>26</v>
       </c>
-      <c r="R29" s="40">
+      <c r="R29" s="1">
         <v>1800</v>
       </c>
-      <c r="S29" s="40">
+      <c r="S29" s="1">
         <v>1.5</v>
       </c>
       <c r="T29" s="40">
@@ -4494,34 +4726,34 @@
         <v>40</v>
       </c>
       <c r="Z29" s="40"/>
-      <c r="AA29" s="40">
+      <c r="AA29" s="1">
         <v>16</v>
       </c>
-      <c r="AB29" s="40">
+      <c r="AB29" s="1">
         <v>14</v>
       </c>
-      <c r="AC29" s="40">
+      <c r="AC29" s="1">
         <v>1777</v>
       </c>
-      <c r="AD29" s="40"/>
-      <c r="AE29" s="40"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
       <c r="AF29" s="40"/>
-      <c r="AG29" s="50"/>
+      <c r="AG29" s="47"/>
       <c r="AH29" s="31"/>
-      <c r="AI29" s="41">
+      <c r="AI29" s="32">
         <v>17222</v>
       </c>
       <c r="AJ29" s="33"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="47"/>
-      <c r="AM29" s="47"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
       <c r="AN29" s="13"/>
-      <c r="AO29" s="47"/>
-      <c r="AP29" s="47"/>
-      <c r="AQ29" s="47"/>
-      <c r="AR29" s="47"/>
+      <c r="AO29" s="46"/>
+      <c r="AP29" s="46"/>
+      <c r="AQ29" s="46"/>
+      <c r="AR29" s="46"/>
       <c r="AS29" s="13"/>
-      <c r="AT29" s="47"/>
+      <c r="AT29" s="46"/>
       <c r="AU29" s="13"/>
       <c r="AV29" s="13"/>
       <c r="AW29" s="13"/>
@@ -4545,27 +4777,27 @@
       <c r="H30" s="40">
         <v>89.4</v>
       </c>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="40">
+      <c r="N30" s="1">
         <v>0.76</v>
       </c>
-      <c r="O30" s="40">
+      <c r="O30" s="1">
         <v>46340</v>
       </c>
-      <c r="P30" s="40">
+      <c r="P30" s="1">
         <v>180</v>
       </c>
       <c r="Q30" s="1">
         <v>20</v>
       </c>
-      <c r="R30" s="40">
+      <c r="R30" s="1">
         <v>1800</v>
       </c>
-      <c r="S30" s="40">
+      <c r="S30" s="1">
         <v>1.5</v>
       </c>
       <c r="T30" s="40">
@@ -4587,34 +4819,34 @@
         <v>40</v>
       </c>
       <c r="Z30" s="40"/>
-      <c r="AA30" s="40">
+      <c r="AA30" s="1">
         <v>16</v>
       </c>
-      <c r="AB30" s="40">
+      <c r="AB30" s="1">
         <v>14</v>
       </c>
-      <c r="AC30" s="40">
+      <c r="AC30" s="1">
         <v>1689</v>
       </c>
-      <c r="AD30" s="40"/>
-      <c r="AE30" s="40"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
       <c r="AF30" s="40"/>
-      <c r="AG30" s="50"/>
+      <c r="AG30" s="47"/>
       <c r="AH30" s="31"/>
-      <c r="AI30" s="41">
+      <c r="AI30" s="32">
         <v>17200</v>
       </c>
       <c r="AJ30" s="33"/>
-      <c r="AK30" s="49"/>
-      <c r="AL30" s="47"/>
-      <c r="AM30" s="47"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
       <c r="AN30" s="13"/>
-      <c r="AO30" s="47"/>
-      <c r="AP30" s="47"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="47"/>
+      <c r="AO30" s="46"/>
+      <c r="AP30" s="46"/>
+      <c r="AQ30" s="46"/>
+      <c r="AR30" s="46"/>
       <c r="AS30" s="13"/>
-      <c r="AT30" s="47"/>
+      <c r="AT30" s="46"/>
       <c r="AU30" s="13"/>
       <c r="AV30" s="13"/>
       <c r="AW30" s="13"/>
@@ -4638,27 +4870,27 @@
       <c r="H31" s="40">
         <v>80.599999999999994</v>
       </c>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="40">
+      <c r="N31" s="1">
         <v>0.78</v>
       </c>
-      <c r="O31" s="40">
+      <c r="O31" s="1">
         <v>48633</v>
       </c>
-      <c r="P31" s="40">
+      <c r="P31" s="1">
         <v>146</v>
       </c>
       <c r="Q31" s="1">
         <v>29</v>
       </c>
-      <c r="R31" s="40">
+      <c r="R31" s="1">
         <v>1800</v>
       </c>
-      <c r="S31" s="40">
+      <c r="S31" s="1">
         <v>1.5</v>
       </c>
       <c r="T31" s="40">
@@ -4680,34 +4912,34 @@
         <v>40</v>
       </c>
       <c r="Z31" s="40"/>
-      <c r="AA31" s="40">
+      <c r="AA31" s="1">
         <v>16</v>
       </c>
-      <c r="AB31" s="40">
+      <c r="AB31" s="1">
         <v>14</v>
       </c>
-      <c r="AC31" s="40">
+      <c r="AC31" s="1">
         <v>2031</v>
       </c>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="40"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
       <c r="AF31" s="40"/>
-      <c r="AG31" s="50"/>
+      <c r="AG31" s="47"/>
       <c r="AH31" s="31"/>
-      <c r="AI31" s="41">
+      <c r="AI31" s="32">
         <v>16766</v>
       </c>
       <c r="AJ31" s="33"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="47"/>
-      <c r="AM31" s="47"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="13"/>
+      <c r="AM31" s="13"/>
       <c r="AN31" s="13"/>
-      <c r="AO31" s="47"/>
-      <c r="AP31" s="47"/>
-      <c r="AQ31" s="47"/>
-      <c r="AR31" s="47"/>
+      <c r="AO31" s="46"/>
+      <c r="AP31" s="46"/>
+      <c r="AQ31" s="46"/>
+      <c r="AR31" s="46"/>
       <c r="AS31" s="13"/>
-      <c r="AT31" s="47"/>
+      <c r="AT31" s="46"/>
       <c r="AU31" s="13"/>
       <c r="AV31" s="13"/>
       <c r="AW31" s="13"/>
@@ -4731,27 +4963,27 @@
       <c r="H32" s="40">
         <v>83.8</v>
       </c>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="40">
+      <c r="N32" s="1">
         <v>0.83</v>
       </c>
-      <c r="O32" s="40">
+      <c r="O32" s="1">
         <v>43000</v>
       </c>
-      <c r="P32" s="40">
+      <c r="P32" s="1">
         <v>111</v>
       </c>
       <c r="Q32" s="1">
         <v>20</v>
       </c>
-      <c r="R32" s="40">
+      <c r="R32" s="1">
         <v>1800</v>
       </c>
-      <c r="S32" s="40">
+      <c r="S32" s="1">
         <v>1.5</v>
       </c>
       <c r="T32" s="40">
@@ -4773,34 +5005,34 @@
         <v>40</v>
       </c>
       <c r="Z32" s="40"/>
-      <c r="AA32" s="40">
+      <c r="AA32" s="1">
         <v>16</v>
       </c>
-      <c r="AB32" s="40">
+      <c r="AB32" s="1">
         <v>14</v>
       </c>
-      <c r="AC32" s="40">
+      <c r="AC32" s="1">
         <v>1505</v>
       </c>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="40"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
       <c r="AF32" s="40"/>
-      <c r="AG32" s="50"/>
+      <c r="AG32" s="47"/>
       <c r="AH32" s="31"/>
-      <c r="AI32" s="41">
+      <c r="AI32" s="32">
         <v>16462</v>
       </c>
       <c r="AJ32" s="33"/>
-      <c r="AK32" s="49"/>
-      <c r="AL32" s="47"/>
-      <c r="AM32" s="47"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="13"/>
       <c r="AN32" s="13"/>
-      <c r="AO32" s="47"/>
-      <c r="AP32" s="47"/>
-      <c r="AQ32" s="47"/>
-      <c r="AR32" s="47"/>
+      <c r="AO32" s="46"/>
+      <c r="AP32" s="46"/>
+      <c r="AQ32" s="46"/>
+      <c r="AR32" s="46"/>
       <c r="AS32" s="13"/>
-      <c r="AT32" s="47"/>
+      <c r="AT32" s="46"/>
       <c r="AU32" s="13"/>
       <c r="AV32" s="13"/>
       <c r="AW32" s="13"/>
@@ -4824,27 +5056,27 @@
       <c r="H33" s="40">
         <v>81</v>
       </c>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="40">
+      <c r="N33" s="1">
         <v>0.66</v>
       </c>
-      <c r="O33" s="40">
+      <c r="O33" s="1">
         <v>48000</v>
       </c>
-      <c r="P33" s="40">
+      <c r="P33" s="1">
         <v>111</v>
       </c>
       <c r="Q33" s="1">
         <v>26</v>
       </c>
-      <c r="R33" s="40">
+      <c r="R33" s="1">
         <v>1800</v>
       </c>
-      <c r="S33" s="40">
+      <c r="S33" s="1">
         <v>1.5</v>
       </c>
       <c r="T33" s="40">
@@ -4866,34 +5098,34 @@
         <v>40</v>
       </c>
       <c r="Z33" s="40"/>
-      <c r="AA33" s="40">
+      <c r="AA33" s="1">
         <v>16</v>
       </c>
-      <c r="AB33" s="40">
+      <c r="AB33" s="1">
         <v>14</v>
       </c>
-      <c r="AC33" s="40">
+      <c r="AC33" s="1">
         <v>2328</v>
       </c>
-      <c r="AD33" s="40"/>
-      <c r="AE33" s="40"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
       <c r="AF33" s="40"/>
-      <c r="AG33" s="50"/>
+      <c r="AG33" s="47"/>
       <c r="AH33" s="31"/>
-      <c r="AI33" s="41">
+      <c r="AI33" s="32">
         <v>18726</v>
       </c>
       <c r="AJ33" s="33"/>
-      <c r="AK33" s="49"/>
-      <c r="AL33" s="47"/>
-      <c r="AM33" s="47"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="13"/>
       <c r="AN33" s="13"/>
-      <c r="AO33" s="47"/>
-      <c r="AP33" s="47"/>
-      <c r="AQ33" s="47"/>
-      <c r="AR33" s="47"/>
+      <c r="AO33" s="46"/>
+      <c r="AP33" s="46"/>
+      <c r="AQ33" s="46"/>
+      <c r="AR33" s="46"/>
       <c r="AS33" s="13"/>
-      <c r="AT33" s="47"/>
+      <c r="AT33" s="46"/>
       <c r="AU33" s="13"/>
       <c r="AV33" s="13"/>
       <c r="AW33" s="13"/>
@@ -4917,27 +5149,27 @@
       <c r="H34" s="40">
         <v>80.400000000000006</v>
       </c>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="40">
+      <c r="N34" s="1">
         <v>0.63</v>
       </c>
-      <c r="O34" s="40">
+      <c r="O34" s="1">
         <v>49000</v>
       </c>
-      <c r="P34" s="40">
+      <c r="P34" s="1">
         <v>118</v>
       </c>
       <c r="Q34" s="1">
         <v>20</v>
       </c>
-      <c r="R34" s="40">
+      <c r="R34" s="1">
         <v>1800</v>
       </c>
-      <c r="S34" s="40">
+      <c r="S34" s="1">
         <v>1.5</v>
       </c>
       <c r="T34" s="40">
@@ -4959,34 +5191,34 @@
         <v>40</v>
       </c>
       <c r="Z34" s="40"/>
-      <c r="AA34" s="40">
+      <c r="AA34" s="1">
         <v>16</v>
       </c>
-      <c r="AB34" s="40">
+      <c r="AB34" s="1">
         <v>14</v>
       </c>
-      <c r="AC34" s="40">
+      <c r="AC34" s="1">
         <v>1777</v>
       </c>
-      <c r="AD34" s="40"/>
-      <c r="AE34" s="40"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
       <c r="AF34" s="40"/>
-      <c r="AG34" s="50"/>
+      <c r="AG34" s="47"/>
       <c r="AH34" s="31"/>
-      <c r="AI34" s="41">
+      <c r="AI34" s="32">
         <v>19700</v>
       </c>
       <c r="AJ34" s="33"/>
-      <c r="AK34" s="49"/>
-      <c r="AL34" s="47"/>
-      <c r="AM34" s="47"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="13"/>
+      <c r="AM34" s="13"/>
       <c r="AN34" s="13"/>
-      <c r="AO34" s="47"/>
-      <c r="AP34" s="47"/>
-      <c r="AQ34" s="47"/>
-      <c r="AR34" s="47"/>
+      <c r="AO34" s="46"/>
+      <c r="AP34" s="46"/>
+      <c r="AQ34" s="46"/>
+      <c r="AR34" s="46"/>
       <c r="AS34" s="13"/>
-      <c r="AT34" s="47"/>
+      <c r="AT34" s="46"/>
       <c r="AU34" s="13"/>
       <c r="AV34" s="13"/>
       <c r="AW34" s="13"/>
@@ -5010,27 +5242,27 @@
       <c r="H35" s="40">
         <v>80.5</v>
       </c>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="40">
+      <c r="N35" s="1">
         <v>0.79</v>
       </c>
-      <c r="O35" s="40">
+      <c r="O35" s="1">
         <v>43100</v>
       </c>
-      <c r="P35" s="40">
+      <c r="P35" s="1">
         <v>100</v>
       </c>
       <c r="Q35" s="1">
         <v>22</v>
       </c>
-      <c r="R35" s="40">
+      <c r="R35" s="1">
         <v>1800</v>
       </c>
-      <c r="S35" s="40">
+      <c r="S35" s="1">
         <v>1.5</v>
       </c>
       <c r="T35" s="40">
@@ -5052,34 +5284,34 @@
         <v>40</v>
       </c>
       <c r="Z35" s="40"/>
-      <c r="AA35" s="40">
+      <c r="AA35" s="1">
         <v>16</v>
       </c>
-      <c r="AB35" s="40">
+      <c r="AB35" s="1">
         <v>14</v>
       </c>
-      <c r="AC35" s="40">
+      <c r="AC35" s="1">
         <v>1636</v>
       </c>
-      <c r="AD35" s="40"/>
-      <c r="AE35" s="40"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
       <c r="AF35" s="40"/>
-      <c r="AG35" s="50"/>
+      <c r="AG35" s="47"/>
       <c r="AH35" s="31"/>
-      <c r="AI35" s="41">
+      <c r="AI35" s="32">
         <v>17600</v>
       </c>
       <c r="AJ35" s="33"/>
-      <c r="AK35" s="49"/>
-      <c r="AL35" s="47"/>
-      <c r="AM35" s="47"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35" s="13"/>
       <c r="AN35" s="13"/>
-      <c r="AO35" s="47"/>
-      <c r="AP35" s="47"/>
-      <c r="AQ35" s="47"/>
-      <c r="AR35" s="47"/>
+      <c r="AO35" s="46"/>
+      <c r="AP35" s="46"/>
+      <c r="AQ35" s="46"/>
+      <c r="AR35" s="46"/>
       <c r="AS35" s="13"/>
-      <c r="AT35" s="47"/>
+      <c r="AT35" s="46"/>
       <c r="AU35" s="13"/>
       <c r="AV35" s="13"/>
       <c r="AW35" s="13"/>
@@ -5103,27 +5335,27 @@
       <c r="H36" s="40">
         <v>80.8</v>
       </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="40">
+      <c r="N36" s="1">
         <v>0.77</v>
       </c>
-      <c r="O36" s="40">
+      <c r="O36" s="1">
         <v>46300</v>
       </c>
-      <c r="P36" s="40">
+      <c r="P36" s="1">
         <v>154</v>
       </c>
       <c r="Q36" s="1">
         <v>29</v>
       </c>
-      <c r="R36" s="40">
+      <c r="R36" s="1">
         <v>1800</v>
       </c>
-      <c r="S36" s="40">
+      <c r="S36" s="1">
         <v>1.5</v>
       </c>
       <c r="T36" s="40">
@@ -5145,34 +5377,34 @@
         <v>40</v>
       </c>
       <c r="Z36" s="40"/>
-      <c r="AA36" s="40">
+      <c r="AA36" s="1">
         <v>16</v>
       </c>
-      <c r="AB36" s="40">
+      <c r="AB36" s="1">
         <v>14</v>
       </c>
-      <c r="AC36" s="40">
+      <c r="AC36" s="1">
         <v>1780</v>
       </c>
-      <c r="AD36" s="40"/>
-      <c r="AE36" s="40"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
       <c r="AF36" s="40"/>
-      <c r="AG36" s="50"/>
+      <c r="AG36" s="47"/>
       <c r="AH36" s="31"/>
-      <c r="AI36" s="41">
+      <c r="AI36" s="32">
         <v>16300</v>
       </c>
       <c r="AJ36" s="33"/>
-      <c r="AK36" s="49"/>
-      <c r="AL36" s="47"/>
-      <c r="AM36" s="47"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="13"/>
+      <c r="AM36" s="13"/>
       <c r="AN36" s="13"/>
-      <c r="AO36" s="47"/>
-      <c r="AP36" s="47"/>
-      <c r="AQ36" s="47"/>
-      <c r="AR36" s="47"/>
+      <c r="AO36" s="46"/>
+      <c r="AP36" s="46"/>
+      <c r="AQ36" s="46"/>
+      <c r="AR36" s="46"/>
       <c r="AS36" s="13"/>
-      <c r="AT36" s="47"/>
+      <c r="AT36" s="46"/>
       <c r="AU36" s="13"/>
       <c r="AV36" s="13"/>
       <c r="AW36" s="13"/>
@@ -5196,27 +5428,27 @@
       <c r="H37" s="40">
         <v>81.099999999999994</v>
       </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="40">
+      <c r="N37" s="1">
         <v>0.87</v>
       </c>
-      <c r="O37" s="40">
+      <c r="O37" s="1">
         <v>43801</v>
       </c>
-      <c r="P37" s="40">
+      <c r="P37" s="1">
         <v>116</v>
       </c>
       <c r="Q37" s="1">
         <v>24</v>
       </c>
-      <c r="R37" s="40">
+      <c r="R37" s="1">
         <v>1800</v>
       </c>
-      <c r="S37" s="40">
+      <c r="S37" s="1">
         <v>1.5</v>
       </c>
       <c r="T37" s="40">
@@ -5238,34 +5470,34 @@
         <v>40</v>
       </c>
       <c r="Z37" s="40"/>
-      <c r="AA37" s="40">
+      <c r="AA37" s="1">
         <v>16</v>
       </c>
-      <c r="AB37" s="40">
+      <c r="AB37" s="1">
         <v>14</v>
       </c>
-      <c r="AC37" s="40">
+      <c r="AC37" s="1">
         <v>1387</v>
       </c>
-      <c r="AD37" s="40"/>
-      <c r="AE37" s="40"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
       <c r="AF37" s="40"/>
-      <c r="AG37" s="50"/>
+      <c r="AG37" s="47"/>
       <c r="AH37" s="31"/>
-      <c r="AI37" s="41">
+      <c r="AI37" s="32">
         <v>16702</v>
       </c>
       <c r="AJ37" s="33"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="47"/>
-      <c r="AM37" s="47"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="13"/>
+      <c r="AM37" s="13"/>
       <c r="AN37" s="13"/>
-      <c r="AO37" s="47"/>
-      <c r="AP37" s="47"/>
-      <c r="AQ37" s="47"/>
-      <c r="AR37" s="47"/>
+      <c r="AO37" s="46"/>
+      <c r="AP37" s="46"/>
+      <c r="AQ37" s="46"/>
+      <c r="AR37" s="46"/>
       <c r="AS37" s="13"/>
-      <c r="AT37" s="47"/>
+      <c r="AT37" s="46"/>
       <c r="AU37" s="13"/>
       <c r="AV37" s="13"/>
       <c r="AW37" s="13"/>
@@ -5289,27 +5521,27 @@
       <c r="H38" s="40">
         <v>80.5</v>
       </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="40">
+      <c r="N38" s="1">
         <v>0.73</v>
       </c>
-      <c r="O38" s="40">
+      <c r="O38" s="1">
         <v>43100</v>
       </c>
-      <c r="P38" s="40">
+      <c r="P38" s="1">
         <v>350</v>
       </c>
       <c r="Q38" s="1">
         <v>22</v>
       </c>
-      <c r="R38" s="40">
+      <c r="R38" s="1">
         <v>1800</v>
       </c>
-      <c r="S38" s="40">
+      <c r="S38" s="1">
         <v>1.5</v>
       </c>
       <c r="T38" s="40">
@@ -5331,34 +5563,34 @@
         <v>40</v>
       </c>
       <c r="Z38" s="40"/>
-      <c r="AA38" s="40">
+      <c r="AA38" s="1">
         <v>16</v>
       </c>
-      <c r="AB38" s="40">
+      <c r="AB38" s="1">
         <v>14</v>
       </c>
-      <c r="AC38" s="40">
+      <c r="AC38" s="1">
         <v>1622</v>
       </c>
-      <c r="AD38" s="40"/>
-      <c r="AE38" s="40"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
       <c r="AF38" s="40"/>
-      <c r="AG38" s="50"/>
+      <c r="AG38" s="47"/>
       <c r="AH38" s="31"/>
-      <c r="AI38" s="41">
+      <c r="AI38" s="32">
         <v>19200</v>
       </c>
       <c r="AJ38" s="33"/>
-      <c r="AK38" s="49"/>
-      <c r="AL38" s="47"/>
-      <c r="AM38" s="47"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="13"/>
+      <c r="AM38" s="13"/>
       <c r="AN38" s="13"/>
-      <c r="AO38" s="47"/>
-      <c r="AP38" s="47"/>
-      <c r="AQ38" s="47"/>
-      <c r="AR38" s="47"/>
+      <c r="AO38" s="46"/>
+      <c r="AP38" s="46"/>
+      <c r="AQ38" s="46"/>
+      <c r="AR38" s="46"/>
       <c r="AS38" s="13"/>
-      <c r="AT38" s="47"/>
+      <c r="AT38" s="46"/>
       <c r="AU38" s="13"/>
       <c r="AV38" s="13"/>
       <c r="AW38" s="13"/>
@@ -5382,27 +5614,27 @@
       <c r="H39" s="40">
         <v>80.599999999999994</v>
       </c>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="40">
+      <c r="N39" s="1">
         <v>0.76</v>
       </c>
-      <c r="O39" s="40">
+      <c r="O39" s="1">
         <v>44010</v>
       </c>
-      <c r="P39" s="40">
+      <c r="P39" s="1">
         <v>311</v>
       </c>
       <c r="Q39" s="1">
         <v>29</v>
       </c>
-      <c r="R39" s="40">
+      <c r="R39" s="1">
         <v>1800</v>
       </c>
-      <c r="S39" s="40">
+      <c r="S39" s="1">
         <v>1.5</v>
       </c>
       <c r="T39" s="40">
@@ -5424,34 +5656,34 @@
         <v>40</v>
       </c>
       <c r="Z39" s="40"/>
-      <c r="AA39" s="40">
+      <c r="AA39" s="1">
         <v>16</v>
       </c>
-      <c r="AB39" s="40">
+      <c r="AB39" s="1">
         <v>14</v>
       </c>
-      <c r="AC39" s="40">
+      <c r="AC39" s="1">
         <v>1755</v>
       </c>
-      <c r="AD39" s="40"/>
-      <c r="AE39" s="40"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
       <c r="AF39" s="40"/>
-      <c r="AG39" s="50"/>
+      <c r="AG39" s="47"/>
       <c r="AH39" s="31"/>
-      <c r="AI39" s="41">
+      <c r="AI39" s="32">
         <v>17020</v>
       </c>
       <c r="AJ39" s="33"/>
-      <c r="AK39" s="49"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="47"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
       <c r="AN39" s="13"/>
-      <c r="AO39" s="47"/>
-      <c r="AP39" s="47"/>
-      <c r="AQ39" s="47"/>
-      <c r="AR39" s="47"/>
+      <c r="AO39" s="46"/>
+      <c r="AP39" s="46"/>
+      <c r="AQ39" s="46"/>
+      <c r="AR39" s="46"/>
       <c r="AS39" s="13"/>
-      <c r="AT39" s="47"/>
+      <c r="AT39" s="46"/>
       <c r="AU39" s="13"/>
       <c r="AV39" s="13"/>
       <c r="AW39" s="13"/>
@@ -5464,10 +5696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EB516A-8A54-4F13-8A2B-3B7C251AE243}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5803,7 +6035,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
@@ -5824,7 +6056,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
@@ -5845,7 +6077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -5864,7 +6096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>34</v>
       </c>
@@ -5883,7 +6115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
@@ -5902,7 +6134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>36</v>
       </c>
@@ -5924,25 +6156,26 @@
         <v>57</v>
       </c>
       <c r="J22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L22" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>6</v>
-      </c>
-      <c r="O22" s="58" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+        <f>SUM(J22:M22)</f>
+        <v>10</v>
+      </c>
+      <c r="O22" s="56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>59</v>
       </c>
@@ -5962,23 +6195,24 @@
         <v>58</v>
       </c>
       <c r="J23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>10</v>
-      </c>
-      <c r="O23" s="58"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N23:N24" si="2">SUM(J23:M23)</f>
+        <v>11</v>
+      </c>
+      <c r="O23" s="56"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20">
@@ -5989,23 +6223,28 @@
         <v>56</v>
       </c>
       <c r="J24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L24" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M24" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>24</v>
-      </c>
-      <c r="O24" s="58"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <f>SUM(J24:M24)</f>
+        <v>30</v>
+      </c>
+      <c r="O24" s="56"/>
+      <c r="Q24">
+        <f>SUM(K24:M24)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
         <v>37</v>
@@ -6022,26 +6261,26 @@
       <c r="N25" s="23">
         <v>40</v>
       </c>
-      <c r="O25" s="58"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O25" s="56"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" ref="D26:G27" si="2">D2</f>
+        <f t="shared" ref="D26:G27" si="3">D2</f>
         <v>0</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H26" s="22">
@@ -6055,36 +6294,37 @@
         <v>0</v>
       </c>
       <c r="K26" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M26" s="4">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <f>SUM(J26:M26)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E27" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F27" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G27" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H27" s="22">
@@ -6101,16 +6341,17 @@
         <v>0</v>
       </c>
       <c r="L27" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M27" s="4">
         <v>4</v>
       </c>
       <c r="N27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N27:N28" si="4">SUM(J27:M27)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
         <v>56</v>
       </c>
@@ -6141,19 +6382,20 @@
         <v>0</v>
       </c>
       <c r="K28" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M28" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N28">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
       <c r="D29" s="8" t="s">
         <v>37</v>
@@ -6188,7 +6430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
         <v>59</v>
       </c>
@@ -6202,7 +6444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
         <v>57</v>
@@ -6301,7 +6543,7 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6326,7 +6568,7 @@
         <v>64</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -6391,7 +6633,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -6430,8 +6672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F65D7B8-44C6-43F9-A1AB-0C4E6C7AC035}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6448,7 +6690,7 @@
         <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6472,7 +6714,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="28">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6488,7 +6730,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="28">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
@@ -6499,7 +6741,7 @@
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6515,7 +6757,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="28">
-        <v>1.05</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6542,9 +6784,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B14" s="28">
         <v>1.25</v>
@@ -6552,7 +6794,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="28">
         <v>1.3</v>
@@ -6560,18 +6802,18 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="28">
         <v>1</v>
@@ -6579,7 +6821,7 @@
     </row>
     <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="28">
         <v>0.9</v>
@@ -6587,7 +6829,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="28">
         <v>1.1000000000000001</v>
@@ -6595,7 +6837,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="28">
         <v>1.1000000000000001</v>
@@ -6606,15 +6848,15 @@
         <v>60</v>
       </c>
       <c r="B22" s="28">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="28">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -6622,4 +6864,1663 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1584B3A8-4F35-4BE5-9497-8069F8725470}">
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4.18</v>
+      </c>
+      <c r="C2" s="1">
+        <f>ROUNDUP(B2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6">
+        <v>5.08</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="C4" s="1">
+        <f>ROUNDUP(B4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C9" si="0">ROUNDUP(B5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="6">
+        <v>7.32</v>
+      </c>
+      <c r="C6" s="1">
+        <f>ROUNDUP(B6,0)</f>
+        <v>8</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
+        <v>6</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1.42</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3.76</v>
+      </c>
+      <c r="C10" s="1">
+        <f>ROUNDUP(B10,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
+        <v>4</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2.09</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11:C23" si="1">ROUNDUP(B11,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>6</v>
+      </c>
+      <c r="L22" s="4">
+        <v>4</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>SUM(J22:M22)</f>
+        <v>10</v>
+      </c>
+      <c r="O22" s="56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2</v>
+      </c>
+      <c r="L23" s="4">
+        <v>7</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23" si="2">SUM(J23:M23)</f>
+        <v>11</v>
+      </c>
+      <c r="O23" s="56"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20">
+        <f>SUM(C2:C23)</f>
+        <v>55</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>11</v>
+      </c>
+      <c r="L24" s="4">
+        <v>15</v>
+      </c>
+      <c r="M24" s="4">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <f>SUM(J24:M24)</f>
+        <v>30</v>
+      </c>
+      <c r="O24" s="56"/>
+      <c r="Q24">
+        <f>SUM(K24:M24)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="23">
+        <v>40</v>
+      </c>
+      <c r="O25" s="56"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" ref="D26:G27" si="3">D2</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="22">
+        <f>SUM(D26:G26)</f>
+        <v>6</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4">
+        <v>6</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>SUM(J26:M26)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H27" s="22">
+        <f>SUM(D27:G27)</f>
+        <v>10</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>4</v>
+      </c>
+      <c r="M27" s="4">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N28" si="4">SUM(J27:M27)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="9">
+        <f>SUM(D4:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <f>SUM(E4:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <f>SUM(F4:F22)</f>
+        <v>14</v>
+      </c>
+      <c r="G28" s="9">
+        <f>SUM(G4:G22)</f>
+        <v>10</v>
+      </c>
+      <c r="H28" s="22">
+        <f>SUM(D28:G28)</f>
+        <v>24</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>4</v>
+      </c>
+      <c r="L28" s="4">
+        <v>13</v>
+      </c>
+      <c r="M28" s="4">
+        <v>13</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C29" s="4"/>
+      <c r="D29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="23">
+        <f>SUM(D26:G28)</f>
+        <v>40</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
+        <f>C23</f>
+        <v>11</v>
+      </c>
+      <c r="N30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="14">
+        <f>D26</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="15">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="14">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="14">
+        <f>E26</f>
+        <v>3</v>
+      </c>
+      <c r="E34" s="15">
+        <f>E27</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="14">
+        <f>E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="14">
+        <f>F26</f>
+        <v>3</v>
+      </c>
+      <c r="E35" s="15">
+        <f>F27</f>
+        <v>6</v>
+      </c>
+      <c r="F35" s="14">
+        <f>F28</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="14">
+        <f>G26</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="15">
+        <f>G27</f>
+        <v>4</v>
+      </c>
+      <c r="F36" s="14">
+        <f>G28</f>
+        <v>10</v>
+      </c>
+      <c r="H36" s="39">
+        <f>SUM(D33:F36)</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O22:O25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016108C4-AE83-48EE-9439-64DE52B3D3E2}">
+  <dimension ref="A1:O36"/>
+  <sheetViews>
+    <sheetView topLeftCell="E18" zoomScale="149" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E18" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4.18</v>
+      </c>
+      <c r="C2" s="1">
+        <f>ROUNDUP(B2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6">
+        <v>5.08</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="C4" s="1">
+        <f>ROUNDUP(B4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C9" si="0">ROUNDUP(B5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="6">
+        <v>7.32</v>
+      </c>
+      <c r="C6" s="1">
+        <f>ROUNDUP(B6,0)</f>
+        <v>8</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
+        <v>6</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1.42</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3.76</v>
+      </c>
+      <c r="C10" s="1">
+        <f>ROUNDUP(B10,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
+        <v>4</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2.09</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11:C23" si="1">ROUNDUP(B11,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
+        <v>2</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>4</v>
+      </c>
+      <c r="L23" s="4">
+        <v>4</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2</v>
+      </c>
+      <c r="O23" s="56"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20">
+        <f>SUM(C2:C23)</f>
+        <v>55</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>9</v>
+      </c>
+      <c r="L24" s="4">
+        <v>12</v>
+      </c>
+      <c r="M24" s="4">
+        <v>7</v>
+      </c>
+      <c r="O24" s="56"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="23">
+        <v>40</v>
+      </c>
+      <c r="O25" s="56"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" ref="D26:D27" si="2">D2</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2</v>
+      </c>
+      <c r="G26" s="9">
+        <v>2</v>
+      </c>
+      <c r="H26" s="22">
+        <f>SUM(D26:G26)</f>
+        <v>7</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>3</v>
+      </c>
+      <c r="L26" s="4">
+        <v>2</v>
+      </c>
+      <c r="M26" s="4">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
+        <v>2</v>
+      </c>
+      <c r="F27" s="13">
+        <v>4</v>
+      </c>
+      <c r="G27" s="13">
+        <v>2</v>
+      </c>
+      <c r="H27" s="22">
+        <f>SUM(D27:G27)</f>
+        <v>8</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2</v>
+      </c>
+      <c r="L27" s="4">
+        <v>4</v>
+      </c>
+      <c r="M27" s="4">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="9">
+        <f>SUM(D4:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9">
+        <v>13</v>
+      </c>
+      <c r="G28" s="9">
+        <f>SUM(G4:G22)</f>
+        <v>10</v>
+      </c>
+      <c r="H28" s="22">
+        <f>SUM(D28:G28)</f>
+        <v>25</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>2</v>
+      </c>
+      <c r="L28" s="4">
+        <v>13</v>
+      </c>
+      <c r="M28" s="4">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C29" s="4"/>
+      <c r="D29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="23">
+        <f>SUM(D26:G28)</f>
+        <v>40</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
+        <f>C23</f>
+        <v>11</v>
+      </c>
+      <c r="N30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="14">
+        <f>D26</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="15">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="14">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="14">
+        <f>E26</f>
+        <v>3</v>
+      </c>
+      <c r="E34" s="15">
+        <f>E27</f>
+        <v>2</v>
+      </c>
+      <c r="F34" s="14">
+        <f>E28</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="14">
+        <f>F26</f>
+        <v>2</v>
+      </c>
+      <c r="E35" s="15">
+        <f>F27</f>
+        <v>4</v>
+      </c>
+      <c r="F35" s="14">
+        <f>F28</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="14">
+        <f>G26</f>
+        <v>2</v>
+      </c>
+      <c r="E36" s="15">
+        <f>G27</f>
+        <v>2</v>
+      </c>
+      <c r="F36" s="14">
+        <f>G28</f>
+        <v>10</v>
+      </c>
+      <c r="H36" s="39">
+        <f>SUM(D33:F36)</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O22:O25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>